--- a/data/OFICINAS.xlsx
+++ b/data/OFICINAS.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Harold\trabajo_bbva\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAE767BC-E66D-4C5B-83F7-AEA78A998A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8D4B17-0C44-4D3B-B97A-AC179C9BEFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DA4D2B7-387C-4E7C-9DC0-0FB99820DC85}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$G$1:$H$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3057,10 +3060,22 @@
   <dimension ref="A1:J272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/data/OFICINAS.xlsx
+++ b/data/OFICINAS.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Harold\trabajo_bbva\DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p044095\Desktop\REUNIONES\EXCEL DE ATMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8D4B17-0C44-4D3B-B97A-AC179C9BEFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DA4D2B7-387C-4E7C-9DC0-0FB99820DC85}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$G$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$272</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="893">
   <si>
     <t>COD. OFIC.</t>
   </si>
@@ -2692,12 +2691,27 @@
   </si>
   <si>
     <t>-74.566491</t>
+  </si>
+  <si>
+    <t>ESTRUCTURA EBP</t>
+  </si>
+  <si>
+    <t>ESTRUCTURA AD</t>
+  </si>
+  <si>
+    <t>CLIENTES UNICOS</t>
+  </si>
+  <si>
+    <t>TOTAL_TICKETS</t>
+  </si>
+  <si>
+    <t>RED LINES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2740,9 +2754,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3056,11 +3079,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F3772C-2554-4ACB-BDA9-24664336C3BA}">
-  <dimension ref="A1:J272"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3075,9 +3098,13 @@
     <col min="8" max="8" width="17.42578125" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3108,8 +3135,23 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -3140,8 +3182,23 @@
       <c r="J2">
         <v>5600</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3">
+        <v>7792</v>
+      </c>
+      <c r="N2" s="3">
+        <v>234684</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0.84243333333333326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13</v>
       </c>
@@ -3172,8 +3229,23 @@
       <c r="J3">
         <v>4266.666666666667</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="3">
+        <v>2</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
+        <v>9634</v>
+      </c>
+      <c r="N3" s="3">
+        <v>226270</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0.74933333333333341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>23</v>
       </c>
@@ -3204,8 +3276,23 @@
       <c r="J4">
         <v>4374.666666666667</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="3">
+        <v>2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>7014</v>
+      </c>
+      <c r="N4" s="3">
+        <v>190000</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0.96423333333333316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30</v>
       </c>
@@ -3236,8 +3323,23 @@
       <c r="J5">
         <v>4625.666666666667</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>6916</v>
+      </c>
+      <c r="N5" s="3">
+        <v>137424</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.81099999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>38</v>
       </c>
@@ -3268,8 +3370,23 @@
       <c r="J6">
         <v>1707.6666666666667</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>543</v>
+      </c>
+      <c r="N6" s="3">
+        <v>11172</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0.90710000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>48</v>
       </c>
@@ -3300,8 +3417,23 @@
       <c r="J7">
         <v>3228</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>7758</v>
+      </c>
+      <c r="N7" s="3">
+        <v>168822</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.79233333333333322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>81</v>
       </c>
@@ -3332,8 +3464,23 @@
       <c r="J8">
         <v>4427.333333333333</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>5438</v>
+      </c>
+      <c r="N8" s="3">
+        <v>134112</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.73566666666666658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>83</v>
       </c>
@@ -3364,8 +3511,23 @@
       <c r="J9">
         <v>5507.333333333333</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="3">
+        <v>2</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>11314</v>
+      </c>
+      <c r="N9" s="3">
+        <v>268340</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0.67433333333333334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>94</v>
       </c>
@@ -3396,8 +3558,23 @@
       <c r="J10">
         <v>4448.666666666667</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="3">
+        <v>2</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>13142</v>
+      </c>
+      <c r="N10" s="3">
+        <v>276010</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0.71863333333333335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>101</v>
       </c>
@@ -3428,8 +3605,23 @@
       <c r="J11">
         <v>5450.666666666667</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="3">
+        <v>2</v>
+      </c>
+      <c r="L11" s="3">
+        <v>2</v>
+      </c>
+      <c r="M11" s="3">
+        <v>12766</v>
+      </c>
+      <c r="N11" s="3">
+        <v>274380</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0.75613333333333321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>102</v>
       </c>
@@ -3460,8 +3652,23 @@
       <c r="J12">
         <v>4214</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="3">
+        <v>2</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
+        <v>12469</v>
+      </c>
+      <c r="N12" s="3">
+        <v>273267</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0.70569999999999988</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>103</v>
       </c>
@@ -3492,8 +3699,23 @@
       <c r="J13">
         <v>5819.666666666667</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="3">
+        <v>2</v>
+      </c>
+      <c r="L13" s="3">
+        <v>2</v>
+      </c>
+      <c r="M13" s="3">
+        <v>9213</v>
+      </c>
+      <c r="N13" s="3">
+        <v>218780</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0.72420000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>106</v>
       </c>
@@ -3524,8 +3746,23 @@
       <c r="J14">
         <v>5555.666666666667</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="3">
+        <v>2</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3">
+        <v>9740</v>
+      </c>
+      <c r="N14" s="3">
+        <v>293676</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.68426666666666669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>107</v>
       </c>
@@ -3556,8 +3793,23 @@
       <c r="J15">
         <v>2369.3333333333335</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="3">
+        <v>2</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>5792</v>
+      </c>
+      <c r="N15" s="3">
+        <v>124340</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0.89029999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>108</v>
       </c>
@@ -3588,8 +3840,23 @@
       <c r="J16">
         <v>4203.333333333333</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="3">
+        <v>2</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3">
+        <v>9325</v>
+      </c>
+      <c r="N16" s="3">
+        <v>207600</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0.79606666666666659</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>109</v>
       </c>
@@ -3620,8 +3887,23 @@
       <c r="J17">
         <v>6151.333333333333</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="3">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3">
+        <v>2</v>
+      </c>
+      <c r="M17" s="3">
+        <v>12179</v>
+      </c>
+      <c r="N17" s="3">
+        <v>325985</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0.58716666666666673</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>111</v>
       </c>
@@ -3652,8 +3934,23 @@
       <c r="J18">
         <v>3721.3333333333335</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3">
+        <v>7823</v>
+      </c>
+      <c r="N18" s="3">
+        <v>184650</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0.7684333333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>112</v>
       </c>
@@ -3684,8 +3981,23 @@
       <c r="J19">
         <v>3225</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1</v>
+      </c>
+      <c r="M19" s="3">
+        <v>5133</v>
+      </c>
+      <c r="N19" s="3">
+        <v>130980</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0.84343333333333337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>113</v>
       </c>
@@ -3716,8 +4028,23 @@
       <c r="J20">
         <v>3455</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1</v>
+      </c>
+      <c r="M20" s="3">
+        <v>9202</v>
+      </c>
+      <c r="N20" s="3">
+        <v>194590</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0.7930666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>114</v>
       </c>
@@ -3748,8 +4075,23 @@
       <c r="J21">
         <v>3625.3333333333335</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="3">
+        <v>2</v>
+      </c>
+      <c r="L21" s="3">
+        <v>2</v>
+      </c>
+      <c r="M21" s="3">
+        <v>7918</v>
+      </c>
+      <c r="N21" s="3">
+        <v>189760</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0.86403333333333343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>115</v>
       </c>
@@ -3780,8 +4122,23 @@
       <c r="J22">
         <v>4811</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3">
+        <v>8159</v>
+      </c>
+      <c r="N22" s="3">
+        <v>217430</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0.65803333333333336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>116</v>
       </c>
@@ -3812,8 +4169,23 @@
       <c r="J23">
         <v>3267</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="3">
+        <v>2</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1</v>
+      </c>
+      <c r="M23" s="3">
+        <v>8814</v>
+      </c>
+      <c r="N23" s="3">
+        <v>154192</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0.76593333333333335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>117</v>
       </c>
@@ -3844,8 +4216,23 @@
       <c r="J24">
         <v>8753</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="3">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3">
+        <v>2</v>
+      </c>
+      <c r="M24" s="3">
+        <v>16050</v>
+      </c>
+      <c r="N24" s="3">
+        <v>359270</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0.72409999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>118</v>
       </c>
@@ -3876,8 +4263,23 @@
       <c r="J25">
         <v>2873.6666666666665</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+      <c r="L25" s="3">
+        <v>2</v>
+      </c>
+      <c r="M25" s="3">
+        <v>7166</v>
+      </c>
+      <c r="N25" s="3">
+        <v>149990</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0.86816666666666675</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>333</v>
       </c>
@@ -3908,8 +4310,23 @@
       <c r="J26">
         <v>4074.6666666666665</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="3">
+        <v>2</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1</v>
+      </c>
+      <c r="M26" s="3">
+        <v>6724</v>
+      </c>
+      <c r="N26" s="3">
+        <v>199067</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0.79626666666666657</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>120</v>
       </c>
@@ -3940,8 +4357,23 @@
       <c r="J27">
         <v>1666.3333333333333</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>3859</v>
+      </c>
+      <c r="N27" s="3">
+        <v>111159</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0.91603333333333337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>121</v>
       </c>
@@ -3972,8 +4404,23 @@
       <c r="J28">
         <v>2041.6666666666667</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>4</v>
+      </c>
+      <c r="N28" s="3">
+        <v>21</v>
+      </c>
+      <c r="O28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>122</v>
       </c>
@@ -4004,8 +4451,23 @@
       <c r="J29">
         <v>5497.666666666667</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" s="3">
+        <v>2</v>
+      </c>
+      <c r="L29" s="3">
+        <v>2</v>
+      </c>
+      <c r="M29" s="3">
+        <v>14176</v>
+      </c>
+      <c r="N29" s="3">
+        <v>306740</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0.75516666666666665</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>486</v>
       </c>
@@ -4036,8 +4498,23 @@
       <c r="J30">
         <v>3489</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="3">
+        <v>3</v>
+      </c>
+      <c r="L30" s="3">
+        <v>2</v>
+      </c>
+      <c r="M30" s="3">
+        <v>7770</v>
+      </c>
+      <c r="N30" s="3">
+        <v>223587</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0.72883333333333333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>142</v>
       </c>
@@ -4068,8 +4545,23 @@
       <c r="J31">
         <v>6070.666666666667</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" s="3">
+        <v>3</v>
+      </c>
+      <c r="L31" s="3">
+        <v>2</v>
+      </c>
+      <c r="M31" s="3">
+        <v>16192</v>
+      </c>
+      <c r="N31" s="3">
+        <v>391332</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0.60183333333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>126</v>
       </c>
@@ -4100,8 +4592,23 @@
       <c r="J32">
         <v>2761</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" s="3">
+        <v>2</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="M32" s="3">
+        <v>7356</v>
+      </c>
+      <c r="N32" s="3">
+        <v>172337</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0.81246666666666678</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>127</v>
       </c>
@@ -4132,8 +4639,23 @@
       <c r="J33">
         <v>5119.333333333333</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="3">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1</v>
+      </c>
+      <c r="M33" s="3">
+        <v>17573</v>
+      </c>
+      <c r="N33" s="3">
+        <v>324000</v>
+      </c>
+      <c r="O33" s="4">
+        <v>0.77686666666666671</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>128</v>
       </c>
@@ -4164,8 +4686,23 @@
       <c r="J34">
         <v>4568.666666666667</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="3">
+        <v>2</v>
+      </c>
+      <c r="L34" s="3">
+        <v>1</v>
+      </c>
+      <c r="M34" s="3">
+        <v>10702</v>
+      </c>
+      <c r="N34" s="3">
+        <v>221580</v>
+      </c>
+      <c r="O34" s="4">
+        <v>0.88500000000000012</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>129</v>
       </c>
@@ -4196,8 +4733,23 @@
       <c r="J35">
         <v>3738.3333333333335</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="3">
+        <v>1</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1</v>
+      </c>
+      <c r="M35" s="3">
+        <v>10581</v>
+      </c>
+      <c r="N35" s="3">
+        <v>167384</v>
+      </c>
+      <c r="O35" s="4">
+        <v>0.8212666666666667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>130</v>
       </c>
@@ -4228,8 +4780,23 @@
       <c r="J36">
         <v>3997.3333333333335</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="3">
+        <v>1</v>
+      </c>
+      <c r="L36" s="3">
+        <v>1</v>
+      </c>
+      <c r="M36" s="3">
+        <v>8137</v>
+      </c>
+      <c r="N36" s="3">
+        <v>164160</v>
+      </c>
+      <c r="O36" s="4">
+        <v>0.76636666666666675</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>131</v>
       </c>
@@ -4260,8 +4827,23 @@
       <c r="J37">
         <v>3752.6666666666665</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="3">
+        <v>1</v>
+      </c>
+      <c r="L37" s="3">
+        <v>1</v>
+      </c>
+      <c r="M37" s="3">
+        <v>7029</v>
+      </c>
+      <c r="N37" s="3">
+        <v>176330</v>
+      </c>
+      <c r="O37" s="4">
+        <v>0.74563333333333326</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>132</v>
       </c>
@@ -4292,8 +4874,23 @@
       <c r="J38">
         <v>1526</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" s="3">
+        <v>1</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3">
+        <v>2090</v>
+      </c>
+      <c r="N38" s="3">
+        <v>44976</v>
+      </c>
+      <c r="O38" s="4">
+        <v>0.93986666666666663</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>133</v>
       </c>
@@ -4324,8 +4921,23 @@
       <c r="J39">
         <v>4144.666666666667</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="3">
+        <v>2</v>
+      </c>
+      <c r="L39" s="3">
+        <v>1</v>
+      </c>
+      <c r="M39" s="3">
+        <v>12151</v>
+      </c>
+      <c r="N39" s="3">
+        <v>232569</v>
+      </c>
+      <c r="O39" s="4">
+        <v>0.68813333333333337</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>135</v>
       </c>
@@ -4356,8 +4968,23 @@
       <c r="J40">
         <v>4742</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" s="3">
+        <v>2</v>
+      </c>
+      <c r="L40" s="3">
+        <v>1</v>
+      </c>
+      <c r="M40" s="3">
+        <v>16299</v>
+      </c>
+      <c r="N40" s="3">
+        <v>370095</v>
+      </c>
+      <c r="O40" s="4">
+        <v>0.67120000000000013</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>136</v>
       </c>
@@ -4388,8 +5015,23 @@
       <c r="J41">
         <v>4360.333333333333</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" s="3">
+        <v>1</v>
+      </c>
+      <c r="L41" s="3">
+        <v>1</v>
+      </c>
+      <c r="M41" s="3">
+        <v>6238</v>
+      </c>
+      <c r="N41" s="3">
+        <v>153360</v>
+      </c>
+      <c r="O41" s="4">
+        <v>0.79523333333333335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>137</v>
       </c>
@@ -4420,8 +5062,23 @@
       <c r="J42">
         <v>3637</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="3">
+        <v>2</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1</v>
+      </c>
+      <c r="M42" s="3">
+        <v>10755</v>
+      </c>
+      <c r="N42" s="3">
+        <v>185416</v>
+      </c>
+      <c r="O42" s="4">
+        <v>0.68086666666666673</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>138</v>
       </c>
@@ -4452,8 +5109,23 @@
       <c r="J43">
         <v>5802.333333333333</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" s="3">
+        <v>2</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1</v>
+      </c>
+      <c r="M43" s="3">
+        <v>7824</v>
+      </c>
+      <c r="N43" s="3">
+        <v>226950</v>
+      </c>
+      <c r="O43" s="4">
+        <v>0.77103333333333335</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>139</v>
       </c>
@@ -4484,8 +5156,23 @@
       <c r="J44">
         <v>4793.666666666667</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" s="3">
+        <v>2</v>
+      </c>
+      <c r="L44" s="3">
+        <v>1</v>
+      </c>
+      <c r="M44" s="3">
+        <v>9348</v>
+      </c>
+      <c r="N44" s="3">
+        <v>189603</v>
+      </c>
+      <c r="O44" s="4">
+        <v>0.79666666666666652</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>140</v>
       </c>
@@ -4516,8 +5203,23 @@
       <c r="J45">
         <v>4672.333333333333</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" s="3">
+        <v>2</v>
+      </c>
+      <c r="L45" s="3">
+        <v>2</v>
+      </c>
+      <c r="M45" s="3">
+        <v>11794</v>
+      </c>
+      <c r="N45" s="3">
+        <v>284867</v>
+      </c>
+      <c r="O45" s="4">
+        <v>0.73376666666666657</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>141</v>
       </c>
@@ -4548,8 +5250,23 @@
       <c r="J46">
         <v>3336.3333333333335</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" s="3">
+        <v>2</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1</v>
+      </c>
+      <c r="M46" s="3">
+        <v>10962</v>
+      </c>
+      <c r="N46" s="3">
+        <v>193959</v>
+      </c>
+      <c r="O46" s="4">
+        <v>0.76833333333333342</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>354</v>
       </c>
@@ -4580,8 +5297,23 @@
       <c r="J47">
         <v>2878.6666666666665</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" s="3">
+        <v>1</v>
+      </c>
+      <c r="L47" s="3">
+        <v>1</v>
+      </c>
+      <c r="M47" s="3">
+        <v>5670</v>
+      </c>
+      <c r="N47" s="3">
+        <v>157524</v>
+      </c>
+      <c r="O47" s="4">
+        <v>0.69370000000000009</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>143</v>
       </c>
@@ -4612,8 +5344,23 @@
       <c r="J48">
         <v>3056</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48" s="3">
+        <v>1</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>8570</v>
+      </c>
+      <c r="N48" s="3">
+        <v>124866</v>
+      </c>
+      <c r="O48" s="4">
+        <v>0.92666666666666675</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>144</v>
       </c>
@@ -4644,8 +5391,23 @@
       <c r="J49">
         <v>7070.666666666667</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" s="3">
+        <v>1</v>
+      </c>
+      <c r="L49" s="3">
+        <v>1</v>
+      </c>
+      <c r="M49" s="3">
+        <v>9024</v>
+      </c>
+      <c r="N49" s="3">
+        <v>207810</v>
+      </c>
+      <c r="O49" s="4">
+        <v>0.87033333333333329</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>145</v>
       </c>
@@ -4676,8 +5438,23 @@
       <c r="J50">
         <v>3159</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50" s="3">
+        <v>2</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>6900</v>
+      </c>
+      <c r="N50" s="3">
+        <v>152580</v>
+      </c>
+      <c r="O50" s="4">
+        <v>0.77759999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>146</v>
       </c>
@@ -4708,8 +5485,23 @@
       <c r="J51">
         <v>4939</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51" s="3">
+        <v>2</v>
+      </c>
+      <c r="L51" s="3">
+        <v>2</v>
+      </c>
+      <c r="M51" s="3">
+        <v>12481</v>
+      </c>
+      <c r="N51" s="3">
+        <v>292798</v>
+      </c>
+      <c r="O51" s="4">
+        <v>0.42643333333333339</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>147</v>
       </c>
@@ -4740,8 +5532,23 @@
       <c r="J52">
         <v>5307.666666666667</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52" s="3">
+        <v>2</v>
+      </c>
+      <c r="L52" s="3">
+        <v>1</v>
+      </c>
+      <c r="M52" s="3">
+        <v>11104</v>
+      </c>
+      <c r="N52" s="3">
+        <v>300936</v>
+      </c>
+      <c r="O52" s="4">
+        <v>0.81379999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>148</v>
       </c>
@@ -4772,8 +5579,23 @@
       <c r="J53">
         <v>3210</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" s="3">
+        <v>2</v>
+      </c>
+      <c r="L53" s="3">
+        <v>1</v>
+      </c>
+      <c r="M53" s="3">
+        <v>8439</v>
+      </c>
+      <c r="N53" s="3">
+        <v>189500</v>
+      </c>
+      <c r="O53" s="4">
+        <v>0.89736666666666665</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>150</v>
       </c>
@@ -4804,8 +5626,23 @@
       <c r="J54">
         <v>3620.3333333333335</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54" s="3">
+        <v>2</v>
+      </c>
+      <c r="L54" s="3">
+        <v>1</v>
+      </c>
+      <c r="M54" s="3">
+        <v>8251</v>
+      </c>
+      <c r="N54" s="3">
+        <v>173601</v>
+      </c>
+      <c r="O54" s="4">
+        <v>0.92189999999999994</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>151</v>
       </c>
@@ -4836,8 +5673,23 @@
       <c r="J55">
         <v>3727</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55" s="3">
+        <v>1</v>
+      </c>
+      <c r="L55" s="3">
+        <v>1</v>
+      </c>
+      <c r="M55" s="3">
+        <v>8709</v>
+      </c>
+      <c r="N55" s="3">
+        <v>202400</v>
+      </c>
+      <c r="O55" s="4">
+        <v>0.71509999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>152</v>
       </c>
@@ -4868,8 +5720,23 @@
       <c r="J56">
         <v>4345.666666666667</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56" s="3">
+        <v>2</v>
+      </c>
+      <c r="L56" s="3">
+        <v>0</v>
+      </c>
+      <c r="M56" s="3">
+        <v>7001</v>
+      </c>
+      <c r="N56" s="3">
+        <v>170570</v>
+      </c>
+      <c r="O56" s="4">
+        <v>0.81363333333333332</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>153</v>
       </c>
@@ -4900,8 +5767,23 @@
       <c r="J57">
         <v>6169</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57" s="3">
+        <v>2</v>
+      </c>
+      <c r="L57" s="3">
+        <v>2</v>
+      </c>
+      <c r="M57" s="3">
+        <v>13273</v>
+      </c>
+      <c r="N57" s="3">
+        <v>327877</v>
+      </c>
+      <c r="O57" s="4">
+        <v>0.76743333333333341</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>387</v>
       </c>
@@ -4932,8 +5814,23 @@
       <c r="J58">
         <v>3962.6666666666665</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58" s="3">
+        <v>2</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>8693</v>
+      </c>
+      <c r="N58" s="3">
+        <v>224554</v>
+      </c>
+      <c r="O58" s="4">
+        <v>0.82143333333333324</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>157</v>
       </c>
@@ -4964,8 +5861,23 @@
       <c r="J59">
         <v>7589.666666666667</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59" s="3">
+        <v>2</v>
+      </c>
+      <c r="L59" s="3">
+        <v>2</v>
+      </c>
+      <c r="M59" s="3">
+        <v>14059</v>
+      </c>
+      <c r="N59" s="3">
+        <v>347248</v>
+      </c>
+      <c r="O59" s="4">
+        <v>0.79253333333333342</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>159</v>
       </c>
@@ -4996,8 +5908,23 @@
       <c r="J60">
         <v>2013.6666666666667</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60" s="3">
+        <v>2</v>
+      </c>
+      <c r="L60" s="3">
+        <v>1</v>
+      </c>
+      <c r="M60" s="3">
+        <v>4057</v>
+      </c>
+      <c r="N60" s="3">
+        <v>77232</v>
+      </c>
+      <c r="O60" s="4">
+        <v>0.89593333333333336</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>160</v>
       </c>
@@ -5028,8 +5955,23 @@
       <c r="J61">
         <v>4886</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61" s="3">
+        <v>2</v>
+      </c>
+      <c r="L61" s="3">
+        <v>1</v>
+      </c>
+      <c r="M61" s="3">
+        <v>7821</v>
+      </c>
+      <c r="N61" s="3">
+        <v>257808</v>
+      </c>
+      <c r="O61" s="4">
+        <v>0.80763333333333331</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>162</v>
       </c>
@@ -5060,8 +6002,23 @@
       <c r="J62">
         <v>3525</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62" s="3">
+        <v>2</v>
+      </c>
+      <c r="L62" s="3">
+        <v>1</v>
+      </c>
+      <c r="M62" s="3">
+        <v>6986</v>
+      </c>
+      <c r="N62" s="3">
+        <v>174890</v>
+      </c>
+      <c r="O62" s="4">
+        <v>0.8918666666666667</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>163</v>
       </c>
@@ -5092,8 +6049,23 @@
       <c r="J63">
         <v>3958</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63" s="3">
+        <v>1</v>
+      </c>
+      <c r="L63" s="3">
+        <v>1</v>
+      </c>
+      <c r="M63" s="3">
+        <v>5909</v>
+      </c>
+      <c r="N63" s="3">
+        <v>152892</v>
+      </c>
+      <c r="O63" s="4">
+        <v>0.86719999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>164</v>
       </c>
@@ -5124,8 +6096,23 @@
       <c r="J64">
         <v>4232.666666666667</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64" s="3">
+        <v>1</v>
+      </c>
+      <c r="L64" s="3">
+        <v>2</v>
+      </c>
+      <c r="M64" s="3">
+        <v>7972</v>
+      </c>
+      <c r="N64" s="3">
+        <v>183060</v>
+      </c>
+      <c r="O64" s="4">
+        <v>0.81936666666666669</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>165</v>
       </c>
@@ -5156,8 +6143,23 @@
       <c r="J65">
         <v>1465.6666666666667</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65" s="3">
+        <v>1</v>
+      </c>
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>166</v>
       </c>
@@ -5188,8 +6190,23 @@
       <c r="J66">
         <v>4131</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66" s="3">
+        <v>2</v>
+      </c>
+      <c r="L66" s="3">
+        <v>1</v>
+      </c>
+      <c r="M66" s="3">
+        <v>7313</v>
+      </c>
+      <c r="N66" s="3">
+        <v>186510</v>
+      </c>
+      <c r="O66" s="4">
+        <v>0.8239333333333333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>168</v>
       </c>
@@ -5220,8 +6237,23 @@
       <c r="J67">
         <v>617</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67" s="3">
+        <v>1</v>
+      </c>
+      <c r="L67" s="3">
+        <v>0</v>
+      </c>
+      <c r="M67" s="3">
+        <v>114</v>
+      </c>
+      <c r="N67" s="3">
+        <v>2618</v>
+      </c>
+      <c r="O67" s="4">
+        <v>0.95840000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>616</v>
       </c>
@@ -5252,8 +6284,23 @@
       <c r="J68">
         <v>3235</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68" s="3">
+        <v>2</v>
+      </c>
+      <c r="L68" s="3">
+        <v>1</v>
+      </c>
+      <c r="M68" s="3">
+        <v>9109</v>
+      </c>
+      <c r="N68" s="3">
+        <v>221221</v>
+      </c>
+      <c r="O68" s="4">
+        <v>0.80419999999999991</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>170</v>
       </c>
@@ -5284,8 +6331,23 @@
       <c r="J69">
         <v>2149.6666666666665</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69" s="3">
+        <v>1</v>
+      </c>
+      <c r="L69" s="3">
+        <v>1</v>
+      </c>
+      <c r="M69" s="3">
+        <v>4543</v>
+      </c>
+      <c r="N69" s="3">
+        <v>105980</v>
+      </c>
+      <c r="O69" s="4">
+        <v>0.92203333333333326</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>172</v>
       </c>
@@ -5316,8 +6378,23 @@
       <c r="J70">
         <v>3210</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70" s="3">
+        <v>1</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>6218</v>
+      </c>
+      <c r="N70" s="3">
+        <v>136590</v>
+      </c>
+      <c r="O70" s="4">
+        <v>0.82556666666666667</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>174</v>
       </c>
@@ -5348,8 +6425,23 @@
       <c r="J71">
         <v>6933.666666666667</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71" s="3">
+        <v>4</v>
+      </c>
+      <c r="L71" s="3">
+        <v>1</v>
+      </c>
+      <c r="M71" s="3">
+        <v>18785</v>
+      </c>
+      <c r="N71" s="3">
+        <v>358870</v>
+      </c>
+      <c r="O71" s="4">
+        <v>0.60693333333333344</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>175</v>
       </c>
@@ -5380,8 +6472,23 @@
       <c r="J72">
         <v>7021.333333333333</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72" s="3">
+        <v>2</v>
+      </c>
+      <c r="L72" s="3">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3">
+        <v>17689</v>
+      </c>
+      <c r="N72" s="3">
+        <v>356220</v>
+      </c>
+      <c r="O72" s="4">
+        <v>0.73919999999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>176</v>
       </c>
@@ -5412,8 +6519,23 @@
       <c r="J73">
         <v>2290</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73" s="3">
+        <v>2</v>
+      </c>
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>5738</v>
+      </c>
+      <c r="N73" s="3">
+        <v>98176</v>
+      </c>
+      <c r="O73" s="4">
+        <v>0.88390000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>177</v>
       </c>
@@ -5444,8 +6566,23 @@
       <c r="J74">
         <v>3365.6666666666665</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74" s="3">
+        <v>1</v>
+      </c>
+      <c r="L74" s="3">
+        <v>1</v>
+      </c>
+      <c r="M74" s="3">
+        <v>10362</v>
+      </c>
+      <c r="N74" s="3">
+        <v>223940</v>
+      </c>
+      <c r="O74" s="4">
+        <v>0.75746666666666673</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>178</v>
       </c>
@@ -5476,8 +6613,23 @@
       <c r="J75">
         <v>4544</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75" s="3">
+        <v>2</v>
+      </c>
+      <c r="L75" s="3">
+        <v>1</v>
+      </c>
+      <c r="M75" s="3">
+        <v>6482</v>
+      </c>
+      <c r="N75" s="3">
+        <v>188188</v>
+      </c>
+      <c r="O75" s="4">
+        <v>0.76270000000000004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>716</v>
       </c>
@@ -5508,8 +6660,23 @@
       <c r="J76">
         <v>2672.6666666666665</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76" s="3">
+        <v>1</v>
+      </c>
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
+        <v>4376</v>
+      </c>
+      <c r="N76" s="3">
+        <v>111480</v>
+      </c>
+      <c r="O76" s="4">
+        <v>0.89753333333333341</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>939</v>
       </c>
@@ -5540,8 +6707,23 @@
       <c r="J77">
         <v>4063</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77" s="3">
+        <v>2</v>
+      </c>
+      <c r="L77" s="3">
+        <v>1</v>
+      </c>
+      <c r="M77" s="3">
+        <v>8199</v>
+      </c>
+      <c r="N77" s="3">
+        <v>195800</v>
+      </c>
+      <c r="O77" s="4">
+        <v>0.75626666666666675</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>183</v>
       </c>
@@ -5572,8 +6754,23 @@
       <c r="J78">
         <v>5387</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78" s="3">
+        <v>3</v>
+      </c>
+      <c r="L78" s="3">
+        <v>2</v>
+      </c>
+      <c r="M78" s="3">
+        <v>10275</v>
+      </c>
+      <c r="N78" s="3">
+        <v>209790</v>
+      </c>
+      <c r="O78" s="4">
+        <v>0.83173333333333332</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>184</v>
       </c>
@@ -5604,8 +6801,23 @@
       <c r="J79">
         <v>6407.333333333333</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79" s="3">
+        <v>2</v>
+      </c>
+      <c r="L79" s="3">
+        <v>2</v>
+      </c>
+      <c r="M79" s="3">
+        <v>12594</v>
+      </c>
+      <c r="N79" s="3">
+        <v>284100</v>
+      </c>
+      <c r="O79" s="4">
+        <v>0.69826666666666659</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>186</v>
       </c>
@@ -5636,8 +6848,23 @@
       <c r="J80">
         <v>7517</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80" s="3">
+        <v>3</v>
+      </c>
+      <c r="L80" s="3">
+        <v>2</v>
+      </c>
+      <c r="M80" s="3">
+        <v>18743</v>
+      </c>
+      <c r="N80" s="3">
+        <v>404019</v>
+      </c>
+      <c r="O80" s="4">
+        <v>0.81089999999999984</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>119</v>
       </c>
@@ -5668,8 +6895,23 @@
       <c r="J81">
         <v>4005.6666666666665</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81" s="3">
+        <v>2</v>
+      </c>
+      <c r="L81" s="3">
+        <v>1</v>
+      </c>
+      <c r="M81" s="3">
+        <v>6424</v>
+      </c>
+      <c r="N81" s="3">
+        <v>160056</v>
+      </c>
+      <c r="O81" s="4">
+        <v>0.69343333333333346</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>189</v>
       </c>
@@ -5700,8 +6942,23 @@
       <c r="J82">
         <v>4675.666666666667</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82" s="3">
+        <v>1</v>
+      </c>
+      <c r="L82" s="3">
+        <v>0</v>
+      </c>
+      <c r="M82" s="3">
+        <v>6960</v>
+      </c>
+      <c r="N82" s="3">
+        <v>211156</v>
+      </c>
+      <c r="O82" s="4">
+        <v>0.66110000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>190</v>
       </c>
@@ -5732,8 +6989,23 @@
       <c r="J83">
         <v>8158.666666666667</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83" s="3">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
+        <v>2</v>
+      </c>
+      <c r="M83" s="3">
+        <v>17922</v>
+      </c>
+      <c r="N83" s="3">
+        <v>401225</v>
+      </c>
+      <c r="O83" s="4">
+        <v>0.79243333333333332</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>194</v>
       </c>
@@ -5764,8 +7036,23 @@
       <c r="J84">
         <v>2253.6666666666665</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84" s="3">
+        <v>1</v>
+      </c>
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>3987</v>
+      </c>
+      <c r="N84" s="3">
+        <v>116868</v>
+      </c>
+      <c r="O84" s="4">
+        <v>0.9002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>195</v>
       </c>
@@ -5796,8 +7083,23 @@
       <c r="J85">
         <v>2347.3333333333335</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85" s="3">
+        <v>1</v>
+      </c>
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>3377</v>
+      </c>
+      <c r="N85" s="3">
+        <v>91845</v>
+      </c>
+      <c r="O85" s="4">
+        <v>0.92543333333333333</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>196</v>
       </c>
@@ -5828,8 +7130,23 @@
       <c r="J86">
         <v>2264.6666666666665</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86" s="3">
+        <v>1</v>
+      </c>
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>5962</v>
+      </c>
+      <c r="N86" s="3">
+        <v>106856</v>
+      </c>
+      <c r="O86" s="4">
+        <v>0.91856666666666664</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>197</v>
       </c>
@@ -5860,8 +7177,23 @@
       <c r="J87">
         <v>3216.6666666666665</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87" s="3">
+        <v>1</v>
+      </c>
+      <c r="L87" s="3">
+        <v>2</v>
+      </c>
+      <c r="M87" s="3">
+        <v>3563</v>
+      </c>
+      <c r="N87" s="3">
+        <v>109410</v>
+      </c>
+      <c r="O87" s="4">
+        <v>0.92706666666666671</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>200</v>
       </c>
@@ -5892,8 +7224,23 @@
       <c r="J88">
         <v>11002.666666666666</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88" s="3">
+        <v>5</v>
+      </c>
+      <c r="L88" s="3">
+        <v>2</v>
+      </c>
+      <c r="M88" s="3">
+        <v>18887</v>
+      </c>
+      <c r="N88" s="3">
+        <v>555225</v>
+      </c>
+      <c r="O88" s="4">
+        <v>0.74519999999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>201</v>
       </c>
@@ -5924,8 +7271,23 @@
       <c r="J89">
         <v>6644.666666666667</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89" s="3">
+        <v>2</v>
+      </c>
+      <c r="L89" s="3">
+        <v>1</v>
+      </c>
+      <c r="M89" s="3">
+        <v>11146</v>
+      </c>
+      <c r="N89" s="3">
+        <v>238473</v>
+      </c>
+      <c r="O89" s="4">
+        <v>0.90700000000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>202</v>
       </c>
@@ -5956,8 +7318,23 @@
       <c r="J90">
         <v>8756</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90" s="3">
+        <v>2</v>
+      </c>
+      <c r="L90" s="3">
+        <v>2</v>
+      </c>
+      <c r="M90" s="3">
+        <v>12701</v>
+      </c>
+      <c r="N90" s="3">
+        <v>420728</v>
+      </c>
+      <c r="O90" s="4">
+        <v>0.64573333333333327</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>203</v>
       </c>
@@ -5988,8 +7365,23 @@
       <c r="J91">
         <v>7194.666666666667</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91" s="3">
+        <v>2</v>
+      </c>
+      <c r="L91" s="3">
+        <v>2</v>
+      </c>
+      <c r="M91" s="3">
+        <v>8641</v>
+      </c>
+      <c r="N91" s="3">
+        <v>261260</v>
+      </c>
+      <c r="O91" s="4">
+        <v>0.77363333333333328</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>205</v>
       </c>
@@ -6020,8 +7412,23 @@
       <c r="J92">
         <v>843.33333333333337</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92" s="3">
+        <v>1</v>
+      </c>
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>1233</v>
+      </c>
+      <c r="N92" s="3">
+        <v>29430</v>
+      </c>
+      <c r="O92" s="4">
+        <v>0.8514666666666667</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>208</v>
       </c>
@@ -6052,8 +7459,23 @@
       <c r="J93">
         <v>4850.666666666667</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93" s="3">
+        <v>2</v>
+      </c>
+      <c r="L93" s="3">
+        <v>1</v>
+      </c>
+      <c r="M93" s="3">
+        <v>6704</v>
+      </c>
+      <c r="N93" s="3">
+        <v>190010</v>
+      </c>
+      <c r="O93" s="4">
+        <v>0.82620000000000005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>210</v>
       </c>
@@ -6084,8 +7506,23 @@
       <c r="J94">
         <v>6428</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94" s="3">
+        <v>2</v>
+      </c>
+      <c r="L94" s="3">
+        <v>2</v>
+      </c>
+      <c r="M94" s="3">
+        <v>7682</v>
+      </c>
+      <c r="N94" s="3">
+        <v>176931</v>
+      </c>
+      <c r="O94" s="4">
+        <v>0.92133333333333345</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>211</v>
       </c>
@@ -6116,8 +7553,23 @@
       <c r="J95">
         <v>5604.666666666667</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K95" s="3">
+        <v>2</v>
+      </c>
+      <c r="L95" s="3">
+        <v>1</v>
+      </c>
+      <c r="M95" s="3">
+        <v>10775</v>
+      </c>
+      <c r="N95" s="3">
+        <v>279040</v>
+      </c>
+      <c r="O95" s="4">
+        <v>0.84206666666666663</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>215</v>
       </c>
@@ -6148,8 +7600,23 @@
       <c r="J96">
         <v>5004.666666666667</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96" s="3">
+        <v>2</v>
+      </c>
+      <c r="L96" s="3">
+        <v>1</v>
+      </c>
+      <c r="M96" s="3">
+        <v>12831</v>
+      </c>
+      <c r="N96" s="3">
+        <v>307530</v>
+      </c>
+      <c r="O96" s="4">
+        <v>0.74350000000000005</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>218</v>
       </c>
@@ -6180,8 +7647,23 @@
       <c r="J97">
         <v>5002.666666666667</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97" s="3">
+        <v>1</v>
+      </c>
+      <c r="L97" s="3">
+        <v>1</v>
+      </c>
+      <c r="M97" s="3">
+        <v>7379</v>
+      </c>
+      <c r="N97" s="3">
+        <v>226440</v>
+      </c>
+      <c r="O97" s="4">
+        <v>0.73523333333333341</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>220</v>
       </c>
@@ -6212,8 +7694,23 @@
       <c r="J98">
         <v>10514</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98" s="3">
+        <v>5</v>
+      </c>
+      <c r="L98" s="3">
+        <v>2</v>
+      </c>
+      <c r="M98" s="3">
+        <v>18080</v>
+      </c>
+      <c r="N98" s="3">
+        <v>491150</v>
+      </c>
+      <c r="O98" s="4">
+        <v>0.61096666666666666</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>221</v>
       </c>
@@ -6244,8 +7741,23 @@
       <c r="J99">
         <v>4586</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99" s="3">
+        <v>2</v>
+      </c>
+      <c r="L99" s="3">
+        <v>1</v>
+      </c>
+      <c r="M99" s="3">
+        <v>11900</v>
+      </c>
+      <c r="N99" s="3">
+        <v>226161</v>
+      </c>
+      <c r="O99" s="4">
+        <v>0.8612333333333333</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>222</v>
       </c>
@@ -6276,8 +7788,23 @@
       <c r="J100">
         <v>7106.666666666667</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100" s="3">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
+        <v>1</v>
+      </c>
+      <c r="M100" s="3">
+        <v>13113</v>
+      </c>
+      <c r="N100" s="3">
+        <v>414557</v>
+      </c>
+      <c r="O100" s="4">
+        <v>0.82623333333333326</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>223</v>
       </c>
@@ -6308,8 +7835,23 @@
       <c r="J101">
         <v>10356</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101" s="3">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3">
+        <v>2</v>
+      </c>
+      <c r="M101" s="3">
+        <v>21699</v>
+      </c>
+      <c r="N101" s="3">
+        <v>518200</v>
+      </c>
+      <c r="O101" s="4">
+        <v>0.47159999999999996</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>224</v>
       </c>
@@ -6340,8 +7882,23 @@
       <c r="J102">
         <v>5735.666666666667</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102" s="3">
+        <v>2</v>
+      </c>
+      <c r="L102" s="3">
+        <v>1</v>
+      </c>
+      <c r="M102" s="3">
+        <v>8384</v>
+      </c>
+      <c r="N102" s="3">
+        <v>188816</v>
+      </c>
+      <c r="O102" s="4">
+        <v>0.80336666666666667</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>225</v>
       </c>
@@ -6372,8 +7929,23 @@
       <c r="J103">
         <v>4909.333333333333</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103" s="3">
+        <v>1</v>
+      </c>
+      <c r="L103" s="3">
+        <v>0</v>
+      </c>
+      <c r="M103" s="3">
+        <v>4768</v>
+      </c>
+      <c r="N103" s="3">
+        <v>166338</v>
+      </c>
+      <c r="O103" s="4">
+        <v>0.83866666666666667</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>226</v>
       </c>
@@ -6404,8 +7976,23 @@
       <c r="J104">
         <v>5712</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K104" s="3">
+        <v>2</v>
+      </c>
+      <c r="L104" s="3">
+        <v>1</v>
+      </c>
+      <c r="M104" s="3">
+        <v>7573</v>
+      </c>
+      <c r="N104" s="3">
+        <v>203210</v>
+      </c>
+      <c r="O104" s="4">
+        <v>0.87816666666666665</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>228</v>
       </c>
@@ -6436,8 +8023,23 @@
       <c r="J105">
         <v>11366.666666666666</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K105" s="3">
+        <v>4</v>
+      </c>
+      <c r="L105" s="3">
+        <v>2</v>
+      </c>
+      <c r="M105" s="3">
+        <v>11971</v>
+      </c>
+      <c r="N105" s="3">
+        <v>362660</v>
+      </c>
+      <c r="O105" s="4">
+        <v>0.61573333333333335</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>229</v>
       </c>
@@ -6468,8 +8070,23 @@
       <c r="J106">
         <v>7481.666666666667</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K106" s="3">
+        <v>3</v>
+      </c>
+      <c r="L106" s="3">
+        <v>1</v>
+      </c>
+      <c r="M106" s="3">
+        <v>10334</v>
+      </c>
+      <c r="N106" s="3">
+        <v>224864</v>
+      </c>
+      <c r="O106" s="4">
+        <v>0.53100000000000003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>231</v>
       </c>
@@ -6500,8 +8117,23 @@
       <c r="J107">
         <v>3318.3333333333335</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K107" s="3">
+        <v>2</v>
+      </c>
+      <c r="L107" s="3">
+        <v>1</v>
+      </c>
+      <c r="M107" s="3">
+        <v>5325</v>
+      </c>
+      <c r="N107" s="3">
+        <v>145845</v>
+      </c>
+      <c r="O107" s="4">
+        <v>0.91026666666666667</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>232</v>
       </c>
@@ -6532,8 +8164,23 @@
       <c r="J108">
         <v>12046.666666666666</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K108" s="3">
+        <v>4</v>
+      </c>
+      <c r="L108" s="3">
+        <v>2</v>
+      </c>
+      <c r="M108" s="3">
+        <v>16206</v>
+      </c>
+      <c r="N108" s="3">
+        <v>495700</v>
+      </c>
+      <c r="O108" s="4">
+        <v>0.80846666666666678</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>233</v>
       </c>
@@ -6564,8 +8211,23 @@
       <c r="J109">
         <v>5481.666666666667</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K109" s="3">
+        <v>2</v>
+      </c>
+      <c r="L109" s="3">
+        <v>1</v>
+      </c>
+      <c r="M109" s="3">
+        <v>10197</v>
+      </c>
+      <c r="N109" s="3">
+        <v>247470</v>
+      </c>
+      <c r="O109" s="4">
+        <v>0.75350000000000017</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>234</v>
       </c>
@@ -6596,8 +8258,23 @@
       <c r="J110">
         <v>4050.3333333333335</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K110" s="3">
+        <v>2</v>
+      </c>
+      <c r="L110" s="3">
+        <v>1</v>
+      </c>
+      <c r="M110" s="3">
+        <v>11395</v>
+      </c>
+      <c r="N110" s="3">
+        <v>198608</v>
+      </c>
+      <c r="O110" s="4">
+        <v>0.78710000000000002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>235</v>
       </c>
@@ -6628,8 +8305,23 @@
       <c r="J111">
         <v>11599</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K111" s="3">
+        <v>6</v>
+      </c>
+      <c r="L111" s="3">
+        <v>3</v>
+      </c>
+      <c r="M111" s="3">
+        <v>19871</v>
+      </c>
+      <c r="N111" s="3">
+        <v>439760</v>
+      </c>
+      <c r="O111" s="4">
+        <v>0.76233333333333331</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>236</v>
       </c>
@@ -6660,8 +8352,23 @@
       <c r="J112">
         <v>2170</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K112" s="3">
+        <v>2</v>
+      </c>
+      <c r="L112" s="3">
+        <v>0</v>
+      </c>
+      <c r="M112" s="3">
+        <v>4949</v>
+      </c>
+      <c r="N112" s="3">
+        <v>106912</v>
+      </c>
+      <c r="O112" s="4">
+        <v>0.91643333333333332</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>237</v>
       </c>
@@ -6692,8 +8399,23 @@
       <c r="J113">
         <v>8591.6666666666661</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K113" s="3">
+        <v>3</v>
+      </c>
+      <c r="L113" s="3">
+        <v>2</v>
+      </c>
+      <c r="M113" s="3">
+        <v>14457</v>
+      </c>
+      <c r="N113" s="3">
+        <v>324160</v>
+      </c>
+      <c r="O113" s="4">
+        <v>0.80123333333333335</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>238</v>
       </c>
@@ -6724,8 +8446,23 @@
       <c r="J114">
         <v>3981.6666666666665</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K114" s="3">
+        <v>2</v>
+      </c>
+      <c r="L114" s="3">
+        <v>0</v>
+      </c>
+      <c r="M114" s="3">
+        <v>6584</v>
+      </c>
+      <c r="N114" s="3">
+        <v>219984</v>
+      </c>
+      <c r="O114" s="4">
+        <v>0.76150000000000018</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>240</v>
       </c>
@@ -6756,8 +8493,23 @@
       <c r="J115">
         <v>7535.666666666667</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K115" s="3">
+        <v>3</v>
+      </c>
+      <c r="L115" s="3">
+        <v>2</v>
+      </c>
+      <c r="M115" s="3">
+        <v>19313</v>
+      </c>
+      <c r="N115" s="3">
+        <v>343648</v>
+      </c>
+      <c r="O115" s="4">
+        <v>0.39183333333333331</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>241</v>
       </c>
@@ -6788,8 +8540,23 @@
       <c r="J116">
         <v>5012.666666666667</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K116" s="3">
+        <v>2</v>
+      </c>
+      <c r="L116" s="3">
+        <v>1</v>
+      </c>
+      <c r="M116" s="3">
+        <v>10112</v>
+      </c>
+      <c r="N116" s="3">
+        <v>233990</v>
+      </c>
+      <c r="O116" s="4">
+        <v>0.73466666666666658</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>242</v>
       </c>
@@ -6820,8 +8587,23 @@
       <c r="J117">
         <v>3188</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K117" s="3">
+        <v>1</v>
+      </c>
+      <c r="L117" s="3">
+        <v>0</v>
+      </c>
+      <c r="M117" s="3">
+        <v>3494</v>
+      </c>
+      <c r="N117" s="3">
+        <v>88136</v>
+      </c>
+      <c r="O117" s="4">
+        <v>0.88833333333333331</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>244</v>
       </c>
@@ -6852,8 +8634,23 @@
       <c r="J118">
         <v>7189</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K118" s="3">
+        <v>1</v>
+      </c>
+      <c r="L118" s="3">
+        <v>1</v>
+      </c>
+      <c r="M118" s="3">
+        <v>7711</v>
+      </c>
+      <c r="N118" s="3">
+        <v>225153</v>
+      </c>
+      <c r="O118" s="4">
+        <v>0.79583333333333328</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>245</v>
       </c>
@@ -6884,8 +8681,23 @@
       <c r="J119">
         <v>4062.3333333333335</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K119" s="3">
+        <v>1</v>
+      </c>
+      <c r="L119" s="3">
+        <v>2</v>
+      </c>
+      <c r="M119" s="3">
+        <v>6719</v>
+      </c>
+      <c r="N119" s="3">
+        <v>190575</v>
+      </c>
+      <c r="O119" s="4">
+        <v>0.88609999999999989</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>245</v>
       </c>
@@ -6916,8 +8728,23 @@
       <c r="J120">
         <v>4062.3333333333335</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K120" s="3">
+        <v>1</v>
+      </c>
+      <c r="L120" s="3">
+        <v>2</v>
+      </c>
+      <c r="M120" s="3">
+        <v>6719</v>
+      </c>
+      <c r="N120" s="3">
+        <v>190575</v>
+      </c>
+      <c r="O120" s="4">
+        <v>0.88609999999999989</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>246</v>
       </c>
@@ -6948,8 +8775,23 @@
       <c r="J121">
         <v>6669</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K121" s="3">
+        <v>2</v>
+      </c>
+      <c r="L121" s="3">
+        <v>1</v>
+      </c>
+      <c r="M121" s="3">
+        <v>9492</v>
+      </c>
+      <c r="N121" s="3">
+        <v>250624</v>
+      </c>
+      <c r="O121" s="4">
+        <v>0.77603333333333335</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>247</v>
       </c>
@@ -6980,8 +8822,23 @@
       <c r="J122">
         <v>3978</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K122" s="3">
+        <v>1</v>
+      </c>
+      <c r="L122" s="3">
+        <v>0</v>
+      </c>
+      <c r="M122" s="3">
+        <v>8136</v>
+      </c>
+      <c r="N122" s="3">
+        <v>180909</v>
+      </c>
+      <c r="O122" s="4">
+        <v>0.80913333333333337</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>248</v>
       </c>
@@ -7012,8 +8869,23 @@
       <c r="J123">
         <v>7510.333333333333</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K123" s="3">
+        <v>2</v>
+      </c>
+      <c r="L123" s="3">
+        <v>1</v>
+      </c>
+      <c r="M123" s="3">
+        <v>10069</v>
+      </c>
+      <c r="N123" s="3">
+        <v>275570</v>
+      </c>
+      <c r="O123" s="4">
+        <v>0.79476666666666651</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>249</v>
       </c>
@@ -7044,8 +8916,23 @@
       <c r="J124">
         <v>14755.333333333334</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K124" s="3">
+        <v>6</v>
+      </c>
+      <c r="L124" s="3">
+        <v>2</v>
+      </c>
+      <c r="M124" s="3">
+        <v>22484</v>
+      </c>
+      <c r="N124" s="3">
+        <v>531999</v>
+      </c>
+      <c r="O124" s="4">
+        <v>0.6495333333333333</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>250</v>
       </c>
@@ -7076,8 +8963,23 @@
       <c r="J125">
         <v>6112.333333333333</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K125" s="3">
+        <v>2</v>
+      </c>
+      <c r="L125" s="3">
+        <v>1</v>
+      </c>
+      <c r="M125" s="3">
+        <v>10860</v>
+      </c>
+      <c r="N125" s="3">
+        <v>245970</v>
+      </c>
+      <c r="O125" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>251</v>
       </c>
@@ -7108,8 +9010,23 @@
       <c r="J126">
         <v>5072.666666666667</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K126" s="3">
+        <v>1</v>
+      </c>
+      <c r="L126" s="3">
+        <v>1</v>
+      </c>
+      <c r="M126" s="3">
+        <v>6541</v>
+      </c>
+      <c r="N126" s="3">
+        <v>120352</v>
+      </c>
+      <c r="O126" s="4">
+        <v>0.86163333333333336</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>252</v>
       </c>
@@ -7140,8 +9057,23 @@
       <c r="J127">
         <v>3506.3333333333335</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K127" s="3">
+        <v>1</v>
+      </c>
+      <c r="L127" s="3">
+        <v>1</v>
+      </c>
+      <c r="M127" s="3">
+        <v>12011</v>
+      </c>
+      <c r="N127" s="3">
+        <v>237910</v>
+      </c>
+      <c r="O127" s="4">
+        <v>0.77073333333333338</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>253</v>
       </c>
@@ -7172,8 +9104,23 @@
       <c r="J128">
         <v>3014</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K128" s="3">
+        <v>1</v>
+      </c>
+      <c r="L128" s="3">
+        <v>1</v>
+      </c>
+      <c r="M128" s="3">
+        <v>10263</v>
+      </c>
+      <c r="N128" s="3">
+        <v>176895</v>
+      </c>
+      <c r="O128" s="4">
+        <v>0.86560000000000004</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>254</v>
       </c>
@@ -7204,8 +9151,23 @@
       <c r="J129">
         <v>6051.666666666667</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K129" s="3">
+        <v>2</v>
+      </c>
+      <c r="L129" s="3">
+        <v>1</v>
+      </c>
+      <c r="M129" s="3">
+        <v>8516</v>
+      </c>
+      <c r="N129" s="3">
+        <v>229960</v>
+      </c>
+      <c r="O129" s="4">
+        <v>0.62290000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>256</v>
       </c>
@@ -7236,8 +9198,23 @@
       <c r="J130">
         <v>3000</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K130" s="3">
+        <v>2</v>
+      </c>
+      <c r="L130" s="3">
+        <v>2</v>
+      </c>
+      <c r="M130" s="3">
+        <v>10116</v>
+      </c>
+      <c r="N130" s="3">
+        <v>157824</v>
+      </c>
+      <c r="O130" s="4">
+        <v>0.73593333333333322</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>257</v>
       </c>
@@ -7268,8 +9245,23 @@
       <c r="J131">
         <v>3616.3333333333335</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K131" s="3">
+        <v>2</v>
+      </c>
+      <c r="L131" s="3">
+        <v>1</v>
+      </c>
+      <c r="M131" s="3">
+        <v>9344</v>
+      </c>
+      <c r="N131" s="3">
+        <v>186610</v>
+      </c>
+      <c r="O131" s="4">
+        <v>0.83330000000000004</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>258</v>
       </c>
@@ -7300,8 +9292,23 @@
       <c r="J132">
         <v>6674.666666666667</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K132" s="3">
+        <v>1</v>
+      </c>
+      <c r="L132" s="3">
+        <v>1</v>
+      </c>
+      <c r="M132" s="3">
+        <v>10596</v>
+      </c>
+      <c r="N132" s="3">
+        <v>282550</v>
+      </c>
+      <c r="O132" s="4">
+        <v>0.70866666666666667</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>259</v>
       </c>
@@ -7332,8 +9339,23 @@
       <c r="J133">
         <v>4037.6666666666665</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K133" s="3">
+        <v>2</v>
+      </c>
+      <c r="L133" s="3">
+        <v>2</v>
+      </c>
+      <c r="M133" s="3">
+        <v>13003</v>
+      </c>
+      <c r="N133" s="3">
+        <v>267080</v>
+      </c>
+      <c r="O133" s="4">
+        <v>0.74440000000000006</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>260</v>
       </c>
@@ -7364,8 +9386,23 @@
       <c r="J134">
         <v>9306.3333333333339</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K134" s="3">
+        <v>3</v>
+      </c>
+      <c r="L134" s="3">
+        <v>2</v>
+      </c>
+      <c r="M134" s="3">
+        <v>12749</v>
+      </c>
+      <c r="N134" s="3">
+        <v>279184</v>
+      </c>
+      <c r="O134" s="4">
+        <v>0.8085</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>261</v>
       </c>
@@ -7396,8 +9433,23 @@
       <c r="J135">
         <v>4853.333333333333</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K135" s="3">
+        <v>2</v>
+      </c>
+      <c r="L135" s="3">
+        <v>1</v>
+      </c>
+      <c r="M135" s="3">
+        <v>12405</v>
+      </c>
+      <c r="N135" s="3">
+        <v>251090</v>
+      </c>
+      <c r="O135" s="4">
+        <v>0.84226666666666672</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>262</v>
       </c>
@@ -7428,8 +9480,23 @@
       <c r="J136">
         <v>4482.333333333333</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K136" s="3">
+        <v>2</v>
+      </c>
+      <c r="L136" s="3">
+        <v>1</v>
+      </c>
+      <c r="M136" s="3">
+        <v>5744</v>
+      </c>
+      <c r="N136" s="3">
+        <v>149760</v>
+      </c>
+      <c r="O136" s="4">
+        <v>0.78333333333333321</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>263</v>
       </c>
@@ -7460,8 +9527,23 @@
       <c r="J137">
         <v>7309</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K137" s="3">
+        <v>1</v>
+      </c>
+      <c r="L137" s="3">
+        <v>1</v>
+      </c>
+      <c r="M137" s="3">
+        <v>5618</v>
+      </c>
+      <c r="N137" s="3">
+        <v>153468</v>
+      </c>
+      <c r="O137" s="4">
+        <v>0.54310000000000003</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>264</v>
       </c>
@@ -7492,8 +9574,23 @@
       <c r="J138">
         <v>2447.6666666666665</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K138" s="3">
+        <v>1</v>
+      </c>
+      <c r="L138" s="3">
+        <v>0</v>
+      </c>
+      <c r="M138" s="3">
+        <v>5709</v>
+      </c>
+      <c r="N138" s="3">
+        <v>137916</v>
+      </c>
+      <c r="O138" s="4">
+        <v>0.89129999999999987</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>265</v>
       </c>
@@ -7524,8 +9621,23 @@
       <c r="J139">
         <v>5609.666666666667</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K139" s="3">
+        <v>3</v>
+      </c>
+      <c r="L139" s="3">
+        <v>1</v>
+      </c>
+      <c r="M139" s="3">
+        <v>9756</v>
+      </c>
+      <c r="N139" s="3">
+        <v>233883</v>
+      </c>
+      <c r="O139" s="4">
+        <v>0.73536666666666672</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>266</v>
       </c>
@@ -7556,8 +9668,23 @@
       <c r="J140">
         <v>4033</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K140" s="3">
+        <v>2</v>
+      </c>
+      <c r="L140" s="3">
+        <v>2</v>
+      </c>
+      <c r="M140" s="3">
+        <v>9203</v>
+      </c>
+      <c r="N140" s="3">
+        <v>177490</v>
+      </c>
+      <c r="O140" s="4">
+        <v>0.8296</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>267</v>
       </c>
@@ -7588,8 +9715,23 @@
       <c r="J141">
         <v>8371</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K141" s="3">
+        <v>5</v>
+      </c>
+      <c r="L141" s="3">
+        <v>2</v>
+      </c>
+      <c r="M141" s="3">
+        <v>16468</v>
+      </c>
+      <c r="N141" s="3">
+        <v>482952</v>
+      </c>
+      <c r="O141" s="4">
+        <v>0.48313333333333336</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>268</v>
       </c>
@@ -7620,8 +9762,23 @@
       <c r="J142">
         <v>3857.6666666666665</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K142" s="3">
+        <v>2</v>
+      </c>
+      <c r="L142" s="3">
+        <v>0</v>
+      </c>
+      <c r="M142" s="3">
+        <v>12381</v>
+      </c>
+      <c r="N142" s="3">
+        <v>235674</v>
+      </c>
+      <c r="O142" s="4">
+        <v>0.80006666666666659</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>269</v>
       </c>
@@ -7652,8 +9809,23 @@
       <c r="J143">
         <v>3050.6666666666665</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K143" s="3">
+        <v>1</v>
+      </c>
+      <c r="L143" s="3">
+        <v>1</v>
+      </c>
+      <c r="M143" s="3">
+        <v>8163</v>
+      </c>
+      <c r="N143" s="3">
+        <v>151288</v>
+      </c>
+      <c r="O143" s="4">
+        <v>0.81506666666666661</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>270</v>
       </c>
@@ -7684,8 +9856,23 @@
       <c r="J144">
         <v>3553.3333333333335</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K144" s="3">
+        <v>1</v>
+      </c>
+      <c r="L144" s="3">
+        <v>1</v>
+      </c>
+      <c r="M144" s="3">
+        <v>7828</v>
+      </c>
+      <c r="N144" s="3">
+        <v>189396</v>
+      </c>
+      <c r="O144" s="4">
+        <v>0.81686666666666674</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>271</v>
       </c>
@@ -7716,8 +9903,23 @@
       <c r="J145">
         <v>4593.666666666667</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K145" s="3">
+        <v>1</v>
+      </c>
+      <c r="L145" s="3">
+        <v>1</v>
+      </c>
+      <c r="M145" s="3">
+        <v>8221</v>
+      </c>
+      <c r="N145" s="3">
+        <v>292764</v>
+      </c>
+      <c r="O145" s="4">
+        <v>0.7218</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>272</v>
       </c>
@@ -7748,8 +9950,23 @@
       <c r="J146">
         <v>6495.666666666667</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K146" s="3">
+        <v>1</v>
+      </c>
+      <c r="L146" s="3">
+        <v>1</v>
+      </c>
+      <c r="M146" s="3">
+        <v>10434</v>
+      </c>
+      <c r="N146" s="3">
+        <v>208848</v>
+      </c>
+      <c r="O146" s="4">
+        <v>0.79526666666666668</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>273</v>
       </c>
@@ -7780,8 +9997,23 @@
       <c r="J147">
         <v>4333.333333333333</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K147" s="3">
+        <v>2</v>
+      </c>
+      <c r="L147" s="3">
+        <v>1</v>
+      </c>
+      <c r="M147" s="3">
+        <v>8088</v>
+      </c>
+      <c r="N147" s="3">
+        <v>260304</v>
+      </c>
+      <c r="O147" s="4">
+        <v>0.75959999999999994</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>274</v>
       </c>
@@ -7812,8 +10044,23 @@
       <c r="J148">
         <v>8246.3333333333339</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K148" s="3">
+        <v>2</v>
+      </c>
+      <c r="L148" s="3">
+        <v>2</v>
+      </c>
+      <c r="M148" s="3">
+        <v>14258</v>
+      </c>
+      <c r="N148" s="3">
+        <v>334161</v>
+      </c>
+      <c r="O148" s="4">
+        <v>0.54526666666666668</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>275</v>
       </c>
@@ -7844,8 +10091,23 @@
       <c r="J149">
         <v>7717.666666666667</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K149" s="3">
+        <v>3</v>
+      </c>
+      <c r="L149" s="3">
+        <v>1</v>
+      </c>
+      <c r="M149" s="3">
+        <v>16123</v>
+      </c>
+      <c r="N149" s="3">
+        <v>371412</v>
+      </c>
+      <c r="O149" s="4">
+        <v>0.47349999999999998</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>276</v>
       </c>
@@ -7876,8 +10138,23 @@
       <c r="J150">
         <v>5450</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K150" s="3">
+        <v>2</v>
+      </c>
+      <c r="L150" s="3">
+        <v>1</v>
+      </c>
+      <c r="M150" s="3">
+        <v>8541</v>
+      </c>
+      <c r="N150" s="3">
+        <v>228204</v>
+      </c>
+      <c r="O150" s="4">
+        <v>0.60639999999999994</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>277</v>
       </c>
@@ -7908,8 +10185,23 @@
       <c r="J151">
         <v>6600.666666666667</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K151" s="3">
+        <v>3</v>
+      </c>
+      <c r="L151" s="3">
+        <v>1</v>
+      </c>
+      <c r="M151" s="3">
+        <v>12836</v>
+      </c>
+      <c r="N151" s="3">
+        <v>250456</v>
+      </c>
+      <c r="O151" s="4">
+        <v>0.76149999999999995</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>281</v>
       </c>
@@ -7940,8 +10232,23 @@
       <c r="J152">
         <v>10105</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K152" s="3">
+        <v>2</v>
+      </c>
+      <c r="L152" s="3">
+        <v>1</v>
+      </c>
+      <c r="M152" s="3">
+        <v>10261</v>
+      </c>
+      <c r="N152" s="3">
+        <v>243496</v>
+      </c>
+      <c r="O152" s="4">
+        <v>0.83413333333333328</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>284</v>
       </c>
@@ -7972,8 +10279,23 @@
       <c r="J153">
         <v>7187</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K153" s="3">
+        <v>4</v>
+      </c>
+      <c r="L153" s="3">
+        <v>2</v>
+      </c>
+      <c r="M153" s="3">
+        <v>21236</v>
+      </c>
+      <c r="N153" s="3">
+        <v>398010</v>
+      </c>
+      <c r="O153" s="4">
+        <v>0.7286999999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>285</v>
       </c>
@@ -8004,8 +10326,23 @@
       <c r="J154">
         <v>12662.333333333334</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K154" s="3">
+        <v>6</v>
+      </c>
+      <c r="L154" s="3">
+        <v>3</v>
+      </c>
+      <c r="M154" s="3">
+        <v>29513</v>
+      </c>
+      <c r="N154" s="3">
+        <v>763840</v>
+      </c>
+      <c r="O154" s="4">
+        <v>0.36783333333333329</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>286</v>
       </c>
@@ -8036,8 +10373,23 @@
       <c r="J155">
         <v>2977</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K155" s="3">
+        <v>1</v>
+      </c>
+      <c r="L155" s="3">
+        <v>0</v>
+      </c>
+      <c r="M155" s="3">
+        <v>5684</v>
+      </c>
+      <c r="N155" s="3">
+        <v>139420</v>
+      </c>
+      <c r="O155" s="4">
+        <v>0.79289999999999994</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>287</v>
       </c>
@@ -8068,8 +10420,23 @@
       <c r="J156">
         <v>5455.333333333333</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K156" s="3">
+        <v>1</v>
+      </c>
+      <c r="L156" s="3">
+        <v>1</v>
+      </c>
+      <c r="M156" s="3">
+        <v>10898</v>
+      </c>
+      <c r="N156" s="3">
+        <v>273420</v>
+      </c>
+      <c r="O156" s="4">
+        <v>0.53986666666666661</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>288</v>
       </c>
@@ -8100,8 +10467,23 @@
       <c r="J157">
         <v>4560.666666666667</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K157" s="3">
+        <v>1</v>
+      </c>
+      <c r="L157" s="3">
+        <v>1</v>
+      </c>
+      <c r="M157" s="3">
+        <v>6703</v>
+      </c>
+      <c r="N157" s="3">
+        <v>150368</v>
+      </c>
+      <c r="O157" s="4">
+        <v>0.45596666666666669</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>291</v>
       </c>
@@ -8132,8 +10514,23 @@
       <c r="J158">
         <v>3733</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K158" s="3">
+        <v>1</v>
+      </c>
+      <c r="L158" s="3">
+        <v>0</v>
+      </c>
+      <c r="M158" s="3">
+        <v>6023</v>
+      </c>
+      <c r="N158" s="3">
+        <v>150084</v>
+      </c>
+      <c r="O158" s="4">
+        <v>0.74350000000000005</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>295</v>
       </c>
@@ -8164,8 +10561,23 @@
       <c r="J159">
         <v>10623</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K159" s="3">
+        <v>4</v>
+      </c>
+      <c r="L159" s="3">
+        <v>2</v>
+      </c>
+      <c r="M159" s="3">
+        <v>14563</v>
+      </c>
+      <c r="N159" s="3">
+        <v>357336</v>
+      </c>
+      <c r="O159" s="4">
+        <v>0.7835333333333333</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>297</v>
       </c>
@@ -8196,8 +10608,23 @@
       <c r="J160">
         <v>4879.666666666667</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K160" s="3">
+        <v>2</v>
+      </c>
+      <c r="L160" s="3">
+        <v>1</v>
+      </c>
+      <c r="M160" s="3">
+        <v>8105</v>
+      </c>
+      <c r="N160" s="3">
+        <v>210330</v>
+      </c>
+      <c r="O160" s="4">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>299</v>
       </c>
@@ -8228,8 +10655,23 @@
       <c r="J161">
         <v>4907</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K161" s="3">
+        <v>1</v>
+      </c>
+      <c r="L161" s="3">
+        <v>1</v>
+      </c>
+      <c r="M161" s="3">
+        <v>4743</v>
+      </c>
+      <c r="N161" s="3">
+        <v>159730</v>
+      </c>
+      <c r="O161" s="4">
+        <v>0.82036666666666669</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>301</v>
       </c>
@@ -8260,8 +10702,23 @@
       <c r="J162">
         <v>15458.666666666666</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K162" s="3">
+        <v>4</v>
+      </c>
+      <c r="L162" s="3">
+        <v>2</v>
+      </c>
+      <c r="M162" s="3">
+        <v>20747</v>
+      </c>
+      <c r="N162" s="3">
+        <v>677964</v>
+      </c>
+      <c r="O162" s="4">
+        <v>0.48110000000000003</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>304</v>
       </c>
@@ -8292,8 +10749,23 @@
       <c r="J163">
         <v>7268.666666666667</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K163" s="3">
+        <v>2</v>
+      </c>
+      <c r="L163" s="3">
+        <v>1</v>
+      </c>
+      <c r="M163" s="3">
+        <v>9915</v>
+      </c>
+      <c r="N163" s="3">
+        <v>285170</v>
+      </c>
+      <c r="O163" s="4">
+        <v>0.39050000000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>306</v>
       </c>
@@ -8324,8 +10796,23 @@
       <c r="J164">
         <v>7906.333333333333</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K164" s="3">
+        <v>3</v>
+      </c>
+      <c r="L164" s="3">
+        <v>2</v>
+      </c>
+      <c r="M164" s="3">
+        <v>12642</v>
+      </c>
+      <c r="N164" s="3">
+        <v>282807</v>
+      </c>
+      <c r="O164" s="4">
+        <v>0.68176666666666674</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>310</v>
       </c>
@@ -8356,8 +10843,23 @@
       <c r="J165">
         <v>12651</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K165" s="3">
+        <v>3</v>
+      </c>
+      <c r="L165" s="3">
+        <v>1</v>
+      </c>
+      <c r="M165" s="3">
+        <v>14033</v>
+      </c>
+      <c r="N165" s="3">
+        <v>383240</v>
+      </c>
+      <c r="O165" s="4">
+        <v>0.82386666666666664</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>312</v>
       </c>
@@ -8388,8 +10890,23 @@
       <c r="J166">
         <v>3570.6666666666665</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K166" s="3">
+        <v>1</v>
+      </c>
+      <c r="L166" s="3">
+        <v>1</v>
+      </c>
+      <c r="M166" s="3">
+        <v>9502</v>
+      </c>
+      <c r="N166" s="3">
+        <v>181458</v>
+      </c>
+      <c r="O166" s="4">
+        <v>0.83726666666666671</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>314</v>
       </c>
@@ -8420,8 +10937,23 @@
       <c r="J167">
         <v>5394</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K167" s="3">
+        <v>2</v>
+      </c>
+      <c r="L167" s="3">
+        <v>1</v>
+      </c>
+      <c r="M167" s="3">
+        <v>8384</v>
+      </c>
+      <c r="N167" s="3">
+        <v>279213</v>
+      </c>
+      <c r="O167" s="4">
+        <v>0.8362666666666666</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>315</v>
       </c>
@@ -8452,8 +10984,23 @@
       <c r="J168">
         <v>209.66666666666666</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K168" s="3">
+        <v>1</v>
+      </c>
+      <c r="L168" s="3">
+        <v>0</v>
+      </c>
+      <c r="M168" s="3">
+        <v>0</v>
+      </c>
+      <c r="N168" s="3">
+        <v>0</v>
+      </c>
+      <c r="O168" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>316</v>
       </c>
@@ -8484,8 +11031,23 @@
       <c r="J169">
         <v>6921.666666666667</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K169" s="3">
+        <v>2</v>
+      </c>
+      <c r="L169" s="3">
+        <v>2</v>
+      </c>
+      <c r="M169" s="3">
+        <v>15199</v>
+      </c>
+      <c r="N169" s="3">
+        <v>260649</v>
+      </c>
+      <c r="O169" s="4">
+        <v>0.84813333333333329</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>317</v>
       </c>
@@ -8516,8 +11078,23 @@
       <c r="J170">
         <v>5386.333333333333</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K170" s="3">
+        <v>2</v>
+      </c>
+      <c r="L170" s="3">
+        <v>2</v>
+      </c>
+      <c r="M170" s="3">
+        <v>14970</v>
+      </c>
+      <c r="N170" s="3">
+        <v>309760</v>
+      </c>
+      <c r="O170" s="4">
+        <v>0.76836666666666664</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>318</v>
       </c>
@@ -8548,8 +11125,23 @@
       <c r="J171">
         <v>6635.666666666667</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K171" s="3">
+        <v>2</v>
+      </c>
+      <c r="L171" s="3">
+        <v>1</v>
+      </c>
+      <c r="M171" s="3">
+        <v>8832</v>
+      </c>
+      <c r="N171" s="3">
+        <v>298892</v>
+      </c>
+      <c r="O171" s="4">
+        <v>0.78303333333333336</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>319</v>
       </c>
@@ -8580,8 +11172,23 @@
       <c r="J172">
         <v>3069</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K172" s="3">
+        <v>2</v>
+      </c>
+      <c r="L172" s="3">
+        <v>1</v>
+      </c>
+      <c r="M172" s="3">
+        <v>7478</v>
+      </c>
+      <c r="N172" s="3">
+        <v>152415</v>
+      </c>
+      <c r="O172" s="4">
+        <v>0.9231666666666668</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>320</v>
       </c>
@@ -8612,8 +11219,23 @@
       <c r="J173">
         <v>3448</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K173" s="3">
+        <v>2</v>
+      </c>
+      <c r="L173" s="3">
+        <v>0</v>
+      </c>
+      <c r="M173" s="3">
+        <v>8288</v>
+      </c>
+      <c r="N173" s="3">
+        <v>271752</v>
+      </c>
+      <c r="O173" s="4">
+        <v>0.81823333333333326</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>321</v>
       </c>
@@ -8644,8 +11266,23 @@
       <c r="J174">
         <v>5447.666666666667</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K174" s="3">
+        <v>4</v>
+      </c>
+      <c r="L174" s="3">
+        <v>1</v>
+      </c>
+      <c r="M174" s="3">
+        <v>10771</v>
+      </c>
+      <c r="N174" s="3">
+        <v>260613</v>
+      </c>
+      <c r="O174" s="4">
+        <v>0.69926666666666659</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>322</v>
       </c>
@@ -8676,8 +11313,23 @@
       <c r="J175">
         <v>2588.6666666666665</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K175" s="3">
+        <v>1</v>
+      </c>
+      <c r="L175" s="3">
+        <v>0</v>
+      </c>
+      <c r="M175" s="3">
+        <v>5382</v>
+      </c>
+      <c r="N175" s="3">
+        <v>95480</v>
+      </c>
+      <c r="O175" s="4">
+        <v>0.84826666666666661</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>323</v>
       </c>
@@ -8708,8 +11360,23 @@
       <c r="J176">
         <v>3494.6666666666665</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K176" s="3">
+        <v>2</v>
+      </c>
+      <c r="L176" s="3">
+        <v>1</v>
+      </c>
+      <c r="M176" s="3">
+        <v>14689</v>
+      </c>
+      <c r="N176" s="3">
+        <v>262953</v>
+      </c>
+      <c r="O176" s="4">
+        <v>0.9570333333333334</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>324</v>
       </c>
@@ -8740,8 +11407,23 @@
       <c r="J177">
         <v>5885.666666666667</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K177" s="3">
+        <v>1</v>
+      </c>
+      <c r="L177" s="3">
+        <v>1</v>
+      </c>
+      <c r="M177" s="3">
+        <v>6592</v>
+      </c>
+      <c r="N177" s="3">
+        <v>176456</v>
+      </c>
+      <c r="O177" s="4">
+        <v>0.84409999999999996</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>327</v>
       </c>
@@ -8772,8 +11454,23 @@
       <c r="J178">
         <v>4090</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K178" s="3">
+        <v>1</v>
+      </c>
+      <c r="L178" s="3">
+        <v>1</v>
+      </c>
+      <c r="M178" s="3">
+        <v>5558</v>
+      </c>
+      <c r="N178" s="3">
+        <v>165770</v>
+      </c>
+      <c r="O178" s="4">
+        <v>0.80726666666666669</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>332</v>
       </c>
@@ -8804,8 +11501,23 @@
       <c r="J179">
         <v>6121.333333333333</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K179" s="3">
+        <v>1</v>
+      </c>
+      <c r="L179" s="3">
+        <v>1</v>
+      </c>
+      <c r="M179" s="3">
+        <v>5224</v>
+      </c>
+      <c r="N179" s="3">
+        <v>169170</v>
+      </c>
+      <c r="O179" s="4">
+        <v>0.8075</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>123</v>
       </c>
@@ -8836,8 +11548,23 @@
       <c r="J180">
         <v>4481.666666666667</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K180" s="3">
+        <v>2</v>
+      </c>
+      <c r="L180" s="3">
+        <v>1</v>
+      </c>
+      <c r="M180" s="3">
+        <v>7401</v>
+      </c>
+      <c r="N180" s="3">
+        <v>199265</v>
+      </c>
+      <c r="O180" s="4">
+        <v>0.87246666666666661</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>335</v>
       </c>
@@ -8868,8 +11595,23 @@
       <c r="J181">
         <v>5391.666666666667</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K181" s="3">
+        <v>1</v>
+      </c>
+      <c r="L181" s="3">
+        <v>1</v>
+      </c>
+      <c r="M181" s="3">
+        <v>7726</v>
+      </c>
+      <c r="N181" s="3">
+        <v>211030</v>
+      </c>
+      <c r="O181" s="4">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>339</v>
       </c>
@@ -8900,8 +11642,23 @@
       <c r="J182">
         <v>5036.333333333333</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K182" s="3">
+        <v>2</v>
+      </c>
+      <c r="L182" s="3">
+        <v>1</v>
+      </c>
+      <c r="M182" s="3">
+        <v>15898</v>
+      </c>
+      <c r="N182" s="3">
+        <v>282897</v>
+      </c>
+      <c r="O182" s="4">
+        <v>0.74366666666666681</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>340</v>
       </c>
@@ -8932,8 +11689,23 @@
       <c r="J183">
         <v>2150.6666666666665</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K183" s="3">
+        <v>1</v>
+      </c>
+      <c r="L183" s="3">
+        <v>1</v>
+      </c>
+      <c r="M183" s="3">
+        <v>5387</v>
+      </c>
+      <c r="N183" s="3">
+        <v>125708</v>
+      </c>
+      <c r="O183" s="4">
+        <v>0.89803333333333335</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>341</v>
       </c>
@@ -8964,8 +11736,23 @@
       <c r="J184">
         <v>4016.3333333333335</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K184" s="3">
+        <v>1</v>
+      </c>
+      <c r="L184" s="3">
+        <v>1</v>
+      </c>
+      <c r="M184" s="3">
+        <v>7119</v>
+      </c>
+      <c r="N184" s="3">
+        <v>174920</v>
+      </c>
+      <c r="O184" s="4">
+        <v>0.84883333333333333</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>342</v>
       </c>
@@ -8996,8 +11783,23 @@
       <c r="J185">
         <v>2504.6666666666665</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K185" s="3">
+        <v>1</v>
+      </c>
+      <c r="L185" s="3">
+        <v>1</v>
+      </c>
+      <c r="M185" s="3">
+        <v>10829</v>
+      </c>
+      <c r="N185" s="3">
+        <v>182367</v>
+      </c>
+      <c r="O185" s="4">
+        <v>0.69383333333333341</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>344</v>
       </c>
@@ -9028,8 +11830,23 @@
       <c r="J186">
         <v>708.66666666666663</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K186" s="3">
+        <v>0</v>
+      </c>
+      <c r="L186" s="3">
+        <v>0</v>
+      </c>
+      <c r="M186" s="3">
+        <v>0</v>
+      </c>
+      <c r="N186" s="3">
+        <v>0</v>
+      </c>
+      <c r="O186" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>345</v>
       </c>
@@ -9060,8 +11877,23 @@
       <c r="J187">
         <v>3496</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K187" s="3">
+        <v>2</v>
+      </c>
+      <c r="L187" s="3">
+        <v>1</v>
+      </c>
+      <c r="M187" s="3">
+        <v>9705</v>
+      </c>
+      <c r="N187" s="3">
+        <v>186408</v>
+      </c>
+      <c r="O187" s="4">
+        <v>0.82743333333333335</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>346</v>
       </c>
@@ -9092,8 +11924,23 @@
       <c r="J188">
         <v>5655</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K188" s="3">
+        <v>1</v>
+      </c>
+      <c r="L188" s="3">
+        <v>1</v>
+      </c>
+      <c r="M188" s="3">
+        <v>6648</v>
+      </c>
+      <c r="N188" s="3">
+        <v>164736</v>
+      </c>
+      <c r="O188" s="4">
+        <v>0.52893333333333337</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>348</v>
       </c>
@@ -9124,8 +11971,23 @@
       <c r="J189">
         <v>6772.666666666667</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K189" s="3">
+        <v>2</v>
+      </c>
+      <c r="L189" s="3">
+        <v>2</v>
+      </c>
+      <c r="M189" s="3">
+        <v>14573</v>
+      </c>
+      <c r="N189" s="3">
+        <v>340945</v>
+      </c>
+      <c r="O189" s="4">
+        <v>0.46706666666666669</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>123</v>
       </c>
@@ -9156,8 +12018,23 @@
       <c r="J190">
         <v>4481.666666666667</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K190" s="3">
+        <v>2</v>
+      </c>
+      <c r="L190" s="3">
+        <v>1</v>
+      </c>
+      <c r="M190" s="3">
+        <v>7401</v>
+      </c>
+      <c r="N190" s="3">
+        <v>199265</v>
+      </c>
+      <c r="O190" s="4">
+        <v>0.87246666666666661</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>353</v>
       </c>
@@ -9188,8 +12065,23 @@
       <c r="J191">
         <v>2984</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K191" s="3">
+        <v>1</v>
+      </c>
+      <c r="L191" s="3">
+        <v>1</v>
+      </c>
+      <c r="M191" s="3">
+        <v>10167</v>
+      </c>
+      <c r="N191" s="3">
+        <v>249264</v>
+      </c>
+      <c r="O191" s="4">
+        <v>0.74896666666666667</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>156</v>
       </c>
@@ -9220,8 +12112,23 @@
       <c r="J192">
         <v>3677.3333333333335</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K192" s="3">
+        <v>1</v>
+      </c>
+      <c r="L192" s="3">
+        <v>1</v>
+      </c>
+      <c r="M192" s="3">
+        <v>7188</v>
+      </c>
+      <c r="N192" s="3">
+        <v>178870</v>
+      </c>
+      <c r="O192" s="4">
+        <v>0.90866666666666662</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>355</v>
       </c>
@@ -9252,8 +12159,23 @@
       <c r="J193">
         <v>4288</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K193" s="3">
+        <v>1</v>
+      </c>
+      <c r="L193" s="3">
+        <v>1</v>
+      </c>
+      <c r="M193" s="3">
+        <v>5691</v>
+      </c>
+      <c r="N193" s="3">
+        <v>162610</v>
+      </c>
+      <c r="O193" s="4">
+        <v>0.86666666666666659</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>358</v>
       </c>
@@ -9284,8 +12206,23 @@
       <c r="J194">
         <v>3434.3333333333335</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K194" s="3">
+        <v>2</v>
+      </c>
+      <c r="L194" s="3">
+        <v>1</v>
+      </c>
+      <c r="M194" s="3">
+        <v>7586</v>
+      </c>
+      <c r="N194" s="3">
+        <v>216414</v>
+      </c>
+      <c r="O194" s="4">
+        <v>0.80853333333333344</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>359</v>
       </c>
@@ -9316,8 +12253,23 @@
       <c r="J195">
         <v>1909</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K195" s="3">
+        <v>1</v>
+      </c>
+      <c r="L195" s="3">
+        <v>0</v>
+      </c>
+      <c r="M195" s="3">
+        <v>4285</v>
+      </c>
+      <c r="N195" s="3">
+        <v>99270</v>
+      </c>
+      <c r="O195" s="4">
+        <v>0.87236666666666662</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>360</v>
       </c>
@@ -9348,8 +12300,23 @@
       <c r="J196">
         <v>8401</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K196" s="3">
+        <v>2</v>
+      </c>
+      <c r="L196" s="3">
+        <v>2</v>
+      </c>
+      <c r="M196" s="3">
+        <v>14284</v>
+      </c>
+      <c r="N196" s="3">
+        <v>292370</v>
+      </c>
+      <c r="O196" s="4">
+        <v>0.77723333333333333</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>361</v>
       </c>
@@ -9380,8 +12347,23 @@
       <c r="J197">
         <v>3518</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K197" s="3">
+        <v>1</v>
+      </c>
+      <c r="L197" s="3">
+        <v>1</v>
+      </c>
+      <c r="M197" s="3">
+        <v>6555</v>
+      </c>
+      <c r="N197" s="3">
+        <v>142920</v>
+      </c>
+      <c r="O197" s="4">
+        <v>0.79956666666666665</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>365</v>
       </c>
@@ -9412,8 +12394,23 @@
       <c r="J198">
         <v>3220.3333333333335</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K198" s="3">
+        <v>2</v>
+      </c>
+      <c r="L198" s="3">
+        <v>1</v>
+      </c>
+      <c r="M198" s="3">
+        <v>5416</v>
+      </c>
+      <c r="N198" s="3">
+        <v>130768</v>
+      </c>
+      <c r="O198" s="4">
+        <v>0.93429999999999991</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>367</v>
       </c>
@@ -9444,8 +12441,23 @@
       <c r="J199">
         <v>2117</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K199" s="3">
+        <v>1</v>
+      </c>
+      <c r="L199" s="3">
+        <v>0</v>
+      </c>
+      <c r="M199" s="3">
+        <v>4108</v>
+      </c>
+      <c r="N199" s="3">
+        <v>96410</v>
+      </c>
+      <c r="O199" s="4">
+        <v>0.90083333333333326</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>169</v>
       </c>
@@ -9476,8 +12488,23 @@
       <c r="J200">
         <v>2211.6666666666665</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K200" s="3">
+        <v>1</v>
+      </c>
+      <c r="L200" s="3">
+        <v>1</v>
+      </c>
+      <c r="M200" s="3">
+        <v>4297</v>
+      </c>
+      <c r="N200" s="3">
+        <v>118690</v>
+      </c>
+      <c r="O200" s="4">
+        <v>0.82633333333333336</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>370</v>
       </c>
@@ -9508,8 +12535,23 @@
       <c r="J201">
         <v>3942.6666666666665</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K201" s="3">
+        <v>2</v>
+      </c>
+      <c r="L201" s="3">
+        <v>1</v>
+      </c>
+      <c r="M201" s="3">
+        <v>7567</v>
+      </c>
+      <c r="N201" s="3">
+        <v>196372</v>
+      </c>
+      <c r="O201" s="4">
+        <v>0.82363333333333333</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>372</v>
       </c>
@@ -9540,8 +12582,23 @@
       <c r="J202">
         <v>3536</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K202" s="3">
+        <v>1</v>
+      </c>
+      <c r="L202" s="3">
+        <v>1</v>
+      </c>
+      <c r="M202" s="3">
+        <v>5867</v>
+      </c>
+      <c r="N202" s="3">
+        <v>144720</v>
+      </c>
+      <c r="O202" s="4">
+        <v>0.75786666666666669</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>383</v>
       </c>
@@ -9572,8 +12629,23 @@
       <c r="J203">
         <v>3769</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K203" s="3">
+        <v>1</v>
+      </c>
+      <c r="L203" s="3">
+        <v>1</v>
+      </c>
+      <c r="M203" s="3">
+        <v>9387</v>
+      </c>
+      <c r="N203" s="3">
+        <v>183843</v>
+      </c>
+      <c r="O203" s="4">
+        <v>0.79393333333333338</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>385</v>
       </c>
@@ -9604,8 +12676,23 @@
       <c r="J204">
         <v>3</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K204" s="3">
+        <v>0</v>
+      </c>
+      <c r="L204" s="3">
+        <v>0</v>
+      </c>
+      <c r="M204" s="3">
+        <v>0</v>
+      </c>
+      <c r="N204" s="3">
+        <v>0</v>
+      </c>
+      <c r="O204" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>179</v>
       </c>
@@ -9636,8 +12723,23 @@
       <c r="J205">
         <v>4315.666666666667</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K205" s="3">
+        <v>1</v>
+      </c>
+      <c r="L205" s="3">
+        <v>2</v>
+      </c>
+      <c r="M205" s="3">
+        <v>6953</v>
+      </c>
+      <c r="N205" s="3">
+        <v>207449</v>
+      </c>
+      <c r="O205" s="4">
+        <v>0.82820000000000016</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>396</v>
       </c>
@@ -9668,8 +12770,23 @@
       <c r="J206">
         <v>3929.6666666666665</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K206" s="3">
+        <v>1</v>
+      </c>
+      <c r="L206" s="3">
+        <v>1</v>
+      </c>
+      <c r="M206" s="3">
+        <v>9877</v>
+      </c>
+      <c r="N206" s="3">
+        <v>172816</v>
+      </c>
+      <c r="O206" s="4">
+        <v>0.71383333333333343</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>421</v>
       </c>
@@ -9700,8 +12817,23 @@
       <c r="J207">
         <v>4403.333333333333</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K207" s="3">
+        <v>2</v>
+      </c>
+      <c r="L207" s="3">
+        <v>1</v>
+      </c>
+      <c r="M207" s="3">
+        <v>10222</v>
+      </c>
+      <c r="N207" s="3">
+        <v>217512</v>
+      </c>
+      <c r="O207" s="4">
+        <v>0.73896666666666666</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>182</v>
       </c>
@@ -9732,8 +12864,23 @@
       <c r="J208">
         <v>4240.333333333333</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K208" s="3">
+        <v>1</v>
+      </c>
+      <c r="L208" s="3">
+        <v>0</v>
+      </c>
+      <c r="M208" s="3">
+        <v>3834</v>
+      </c>
+      <c r="N208" s="3">
+        <v>137852</v>
+      </c>
+      <c r="O208" s="4">
+        <v>0.89659999999999995</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>427</v>
       </c>
@@ -9764,8 +12911,23 @@
       <c r="J209">
         <v>6028.666666666667</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K209" s="3">
+        <v>1</v>
+      </c>
+      <c r="L209" s="3">
+        <v>1</v>
+      </c>
+      <c r="M209" s="3">
+        <v>8561</v>
+      </c>
+      <c r="N209" s="3">
+        <v>266480</v>
+      </c>
+      <c r="O209" s="4">
+        <v>0.78103333333333336</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>442</v>
       </c>
@@ -9796,8 +12958,23 @@
       <c r="J210">
         <v>5339.333333333333</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K210" s="3">
+        <v>1</v>
+      </c>
+      <c r="L210" s="3">
+        <v>0</v>
+      </c>
+      <c r="M210" s="3">
+        <v>10204</v>
+      </c>
+      <c r="N210" s="3">
+        <v>232272</v>
+      </c>
+      <c r="O210" s="4">
+        <v>0.56140000000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>467</v>
       </c>
@@ -9828,8 +13005,23 @@
       <c r="J211">
         <v>3017.3333333333335</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K211" s="3">
+        <v>2</v>
+      </c>
+      <c r="L211" s="3">
+        <v>1</v>
+      </c>
+      <c r="M211" s="3">
+        <v>8468</v>
+      </c>
+      <c r="N211" s="3">
+        <v>163134</v>
+      </c>
+      <c r="O211" s="4">
+        <v>0.74583333333333324</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>480</v>
       </c>
@@ -9860,8 +13052,23 @@
       <c r="J212">
         <v>3920.3333333333335</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K212" s="3">
+        <v>2</v>
+      </c>
+      <c r="L212" s="3">
+        <v>1</v>
+      </c>
+      <c r="M212" s="3">
+        <v>9833</v>
+      </c>
+      <c r="N212" s="3">
+        <v>188235</v>
+      </c>
+      <c r="O212" s="4">
+        <v>0.81213333333333326</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>484</v>
       </c>
@@ -9892,8 +13099,23 @@
       <c r="J213">
         <v>2182</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K213" s="3">
+        <v>2</v>
+      </c>
+      <c r="L213" s="3">
+        <v>1</v>
+      </c>
+      <c r="M213" s="3">
+        <v>9109</v>
+      </c>
+      <c r="N213" s="3">
+        <v>168696</v>
+      </c>
+      <c r="O213" s="4">
+        <v>0.75769999999999993</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>187</v>
       </c>
@@ -9924,8 +13146,23 @@
       <c r="J214">
         <v>3648.6666666666665</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K214" s="3">
+        <v>1</v>
+      </c>
+      <c r="L214" s="3">
+        <v>1</v>
+      </c>
+      <c r="M214" s="3">
+        <v>5902</v>
+      </c>
+      <c r="N214" s="3">
+        <v>165506</v>
+      </c>
+      <c r="O214" s="4">
+        <v>0.90206666666666668</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>508</v>
       </c>
@@ -9956,8 +13193,23 @@
       <c r="J215">
         <v>5644.666666666667</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K215" s="3">
+        <v>2</v>
+      </c>
+      <c r="L215" s="3">
+        <v>1</v>
+      </c>
+      <c r="M215" s="3">
+        <v>12973</v>
+      </c>
+      <c r="N215" s="3">
+        <v>296330</v>
+      </c>
+      <c r="O215" s="4">
+        <v>0.86796666666666666</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>521</v>
       </c>
@@ -9988,8 +13240,23 @@
       <c r="J216">
         <v>4070.6666666666665</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K216" s="3">
+        <v>2</v>
+      </c>
+      <c r="L216" s="3">
+        <v>1</v>
+      </c>
+      <c r="M216" s="3">
+        <v>10466</v>
+      </c>
+      <c r="N216" s="3">
+        <v>234820</v>
+      </c>
+      <c r="O216" s="4">
+        <v>0.84439999999999993</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>554</v>
       </c>
@@ -10020,8 +13287,23 @@
       <c r="J217">
         <v>4363.333333333333</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K217" s="3">
+        <v>1</v>
+      </c>
+      <c r="L217" s="3">
+        <v>1</v>
+      </c>
+      <c r="M217" s="3">
+        <v>11238</v>
+      </c>
+      <c r="N217" s="3">
+        <v>293964</v>
+      </c>
+      <c r="O217" s="4">
+        <v>0.83726666666666671</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>564</v>
       </c>
@@ -10052,8 +13334,23 @@
       <c r="J218">
         <v>3005</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K218" s="3">
+        <v>1</v>
+      </c>
+      <c r="L218" s="3">
+        <v>0</v>
+      </c>
+      <c r="M218" s="3">
+        <v>8054</v>
+      </c>
+      <c r="N218" s="3">
+        <v>179793</v>
+      </c>
+      <c r="O218" s="4">
+        <v>0.83789999999999998</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>566</v>
       </c>
@@ -10084,8 +13381,23 @@
       <c r="J219">
         <v>4241</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K219" s="3">
+        <v>1</v>
+      </c>
+      <c r="L219" s="3">
+        <v>1</v>
+      </c>
+      <c r="M219" s="3">
+        <v>8666</v>
+      </c>
+      <c r="N219" s="3">
+        <v>195894</v>
+      </c>
+      <c r="O219" s="4">
+        <v>0.81846666666666668</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>584</v>
       </c>
@@ -10116,8 +13428,23 @@
       <c r="J220">
         <v>8487</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K220" s="3">
+        <v>2</v>
+      </c>
+      <c r="L220" s="3">
+        <v>1</v>
+      </c>
+      <c r="M220" s="3">
+        <v>7987</v>
+      </c>
+      <c r="N220" s="3">
+        <v>281930</v>
+      </c>
+      <c r="O220" s="4">
+        <v>0.5323</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>597</v>
       </c>
@@ -10148,8 +13475,23 @@
       <c r="J221">
         <v>4459.666666666667</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K221" s="3">
+        <v>1</v>
+      </c>
+      <c r="L221" s="3">
+        <v>0</v>
+      </c>
+      <c r="M221" s="3">
+        <v>3449</v>
+      </c>
+      <c r="N221" s="3">
+        <v>72576</v>
+      </c>
+      <c r="O221" s="4">
+        <v>0.91503333333333325</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>609</v>
       </c>
@@ -10180,8 +13522,23 @@
       <c r="J222">
         <v>3010.6666666666665</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K222" s="3">
+        <v>1</v>
+      </c>
+      <c r="L222" s="3">
+        <v>1</v>
+      </c>
+      <c r="M222" s="3">
+        <v>8222</v>
+      </c>
+      <c r="N222" s="3">
+        <v>198396</v>
+      </c>
+      <c r="O222" s="4">
+        <v>0.70393333333333341</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>614</v>
       </c>
@@ -10212,8 +13569,23 @@
       <c r="J223">
         <v>4133.666666666667</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K223" s="3">
+        <v>1</v>
+      </c>
+      <c r="L223" s="3">
+        <v>1</v>
+      </c>
+      <c r="M223" s="3">
+        <v>4677</v>
+      </c>
+      <c r="N223" s="3">
+        <v>133639</v>
+      </c>
+      <c r="O223" s="4">
+        <v>0.94159999999999988</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>615</v>
       </c>
@@ -10244,8 +13616,23 @@
       <c r="J224">
         <v>3850.6666666666665</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K224" s="3">
+        <v>2</v>
+      </c>
+      <c r="L224" s="3">
+        <v>0</v>
+      </c>
+      <c r="M224" s="3">
+        <v>6841</v>
+      </c>
+      <c r="N224" s="3">
+        <v>151245</v>
+      </c>
+      <c r="O224" s="4">
+        <v>0.90613333333333335</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>352</v>
       </c>
@@ -10276,8 +13663,23 @@
       <c r="J225">
         <v>2552.3333333333335</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K225" s="3">
+        <v>1</v>
+      </c>
+      <c r="L225" s="3">
+        <v>0</v>
+      </c>
+      <c r="M225" s="3">
+        <v>5980</v>
+      </c>
+      <c r="N225" s="3">
+        <v>155353</v>
+      </c>
+      <c r="O225" s="4">
+        <v>0.75463333333333338</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>621</v>
       </c>
@@ -10308,8 +13710,23 @@
       <c r="J226">
         <v>2496.3333333333335</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K226" s="3">
+        <v>1</v>
+      </c>
+      <c r="L226" s="3">
+        <v>2</v>
+      </c>
+      <c r="M226" s="3">
+        <v>4107</v>
+      </c>
+      <c r="N226" s="3">
+        <v>91392</v>
+      </c>
+      <c r="O226" s="4">
+        <v>0.88519999999999988</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>627</v>
       </c>
@@ -10340,8 +13757,23 @@
       <c r="J227">
         <v>428.66666666666669</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K227" s="3">
+        <v>0</v>
+      </c>
+      <c r="L227" s="3">
+        <v>0</v>
+      </c>
+      <c r="M227" s="3">
+        <v>0</v>
+      </c>
+      <c r="N227" s="3">
+        <v>0</v>
+      </c>
+      <c r="O227" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>628</v>
       </c>
@@ -10372,8 +13804,23 @@
       <c r="J228">
         <v>3382</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K228" s="3">
+        <v>1</v>
+      </c>
+      <c r="L228" s="3">
+        <v>0</v>
+      </c>
+      <c r="M228" s="3">
+        <v>4598</v>
+      </c>
+      <c r="N228" s="3">
+        <v>111663</v>
+      </c>
+      <c r="O228" s="4">
+        <v>0.95289999999999997</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>643</v>
       </c>
@@ -10404,8 +13851,23 @@
       <c r="J229">
         <v>3762.6666666666665</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K229" s="3">
+        <v>1</v>
+      </c>
+      <c r="L229" s="3">
+        <v>0</v>
+      </c>
+      <c r="M229" s="3">
+        <v>5012</v>
+      </c>
+      <c r="N229" s="3">
+        <v>124137</v>
+      </c>
+      <c r="O229" s="4">
+        <v>0.82810000000000006</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>648</v>
       </c>
@@ -10436,8 +13898,23 @@
       <c r="J230">
         <v>4364.333333333333</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K230" s="3">
+        <v>1</v>
+      </c>
+      <c r="L230" s="3">
+        <v>0</v>
+      </c>
+      <c r="M230" s="3">
+        <v>3052</v>
+      </c>
+      <c r="N230" s="3">
+        <v>61584</v>
+      </c>
+      <c r="O230" s="4">
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>659</v>
       </c>
@@ -10468,8 +13945,23 @@
       <c r="J231">
         <v>2680.6666666666665</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K231" s="3">
+        <v>1</v>
+      </c>
+      <c r="L231" s="3">
+        <v>0</v>
+      </c>
+      <c r="M231" s="3">
+        <v>4298</v>
+      </c>
+      <c r="N231" s="3">
+        <v>89104</v>
+      </c>
+      <c r="O231" s="4">
+        <v>0.93736666666666668</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>667</v>
       </c>
@@ -10500,8 +13992,23 @@
       <c r="J232">
         <v>5855.666666666667</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K232" s="3">
+        <v>2</v>
+      </c>
+      <c r="L232" s="3">
+        <v>1</v>
+      </c>
+      <c r="M232" s="3">
+        <v>12986</v>
+      </c>
+      <c r="N232" s="3">
+        <v>324874</v>
+      </c>
+      <c r="O232" s="4">
+        <v>0.76293333333333335</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>712</v>
       </c>
@@ -10532,8 +14039,23 @@
       <c r="J233">
         <v>6437</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K233" s="3">
+        <v>2</v>
+      </c>
+      <c r="L233" s="3">
+        <v>2</v>
+      </c>
+      <c r="M233" s="3">
+        <v>15747</v>
+      </c>
+      <c r="N233" s="3">
+        <v>319770</v>
+      </c>
+      <c r="O233" s="4">
+        <v>0.88893333333333324</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>713</v>
       </c>
@@ -10564,8 +14086,23 @@
       <c r="J234">
         <v>4694.666666666667</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K234" s="3">
+        <v>1</v>
+      </c>
+      <c r="L234" s="3">
+        <v>0</v>
+      </c>
+      <c r="M234" s="3">
+        <v>7096</v>
+      </c>
+      <c r="N234" s="3">
+        <v>250316</v>
+      </c>
+      <c r="O234" s="4">
+        <v>0.8978666666666667</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>368</v>
       </c>
@@ -10596,8 +14133,23 @@
       <c r="J235">
         <v>3265</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K235" s="3">
+        <v>2</v>
+      </c>
+      <c r="L235" s="3">
+        <v>1</v>
+      </c>
+      <c r="M235" s="3">
+        <v>7817</v>
+      </c>
+      <c r="N235" s="3">
+        <v>165910</v>
+      </c>
+      <c r="O235" s="4">
+        <v>0.79833333333333334</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>717</v>
       </c>
@@ -10628,8 +14180,23 @@
       <c r="J236">
         <v>7027.333333333333</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K236" s="3">
+        <v>2</v>
+      </c>
+      <c r="L236" s="3">
+        <v>1</v>
+      </c>
+      <c r="M236" s="3">
+        <v>15827</v>
+      </c>
+      <c r="N236" s="3">
+        <v>399278</v>
+      </c>
+      <c r="O236" s="4">
+        <v>0.83453333333333335</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>426</v>
       </c>
@@ -10660,8 +14227,23 @@
       <c r="J237">
         <v>2279.6666666666665</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K237" s="3">
+        <v>2</v>
+      </c>
+      <c r="L237" s="3">
+        <v>0</v>
+      </c>
+      <c r="M237" s="3">
+        <v>4427</v>
+      </c>
+      <c r="N237" s="3">
+        <v>117480</v>
+      </c>
+      <c r="O237" s="4">
+        <v>0.93096666666666683</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>750</v>
       </c>
@@ -10692,8 +14274,23 @@
       <c r="J238">
         <v>5019.666666666667</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K238" s="3">
+        <v>1</v>
+      </c>
+      <c r="L238" s="3">
+        <v>2</v>
+      </c>
+      <c r="M238" s="3">
+        <v>11275</v>
+      </c>
+      <c r="N238" s="3">
+        <v>189944</v>
+      </c>
+      <c r="O238" s="4">
+        <v>0.76463333333333328</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>751</v>
       </c>
@@ -10724,8 +14321,23 @@
       <c r="J239">
         <v>3483.3333333333335</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K239" s="3">
+        <v>1</v>
+      </c>
+      <c r="L239" s="3">
+        <v>0</v>
+      </c>
+      <c r="M239" s="3">
+        <v>5381</v>
+      </c>
+      <c r="N239" s="3">
+        <v>142130</v>
+      </c>
+      <c r="O239" s="4">
+        <v>0.81853333333333333</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>752</v>
       </c>
@@ -10756,8 +14368,23 @@
       <c r="J240">
         <v>3978.3333333333335</v>
       </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K240" s="3">
+        <v>2</v>
+      </c>
+      <c r="L240" s="3">
+        <v>1</v>
+      </c>
+      <c r="M240" s="3">
+        <v>12195</v>
+      </c>
+      <c r="N240" s="3">
+        <v>238640</v>
+      </c>
+      <c r="O240" s="4">
+        <v>0.77459999999999996</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>755</v>
       </c>
@@ -10788,8 +14415,23 @@
       <c r="J241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K241" s="3">
+        <v>0</v>
+      </c>
+      <c r="L241" s="3">
+        <v>0</v>
+      </c>
+      <c r="M241" s="3">
+        <v>0</v>
+      </c>
+      <c r="N241" s="3">
+        <v>0</v>
+      </c>
+      <c r="O241" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>761</v>
       </c>
@@ -10820,8 +14462,23 @@
       <c r="J242">
         <v>945.66666666666663</v>
       </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K242" s="3">
+        <v>0</v>
+      </c>
+      <c r="L242" s="3">
+        <v>0</v>
+      </c>
+      <c r="M242" s="3">
+        <v>0</v>
+      </c>
+      <c r="N242" s="3">
+        <v>0</v>
+      </c>
+      <c r="O242" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>761</v>
       </c>
@@ -10852,8 +14509,23 @@
       <c r="J243">
         <v>945.66666666666663</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K243" s="3">
+        <v>0</v>
+      </c>
+      <c r="L243" s="3">
+        <v>0</v>
+      </c>
+      <c r="M243" s="3">
+        <v>0</v>
+      </c>
+      <c r="N243" s="3">
+        <v>0</v>
+      </c>
+      <c r="O243" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>763</v>
       </c>
@@ -10884,8 +14556,23 @@
       <c r="J244">
         <v>4828.666666666667</v>
       </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K244" s="3">
+        <v>1</v>
+      </c>
+      <c r="L244" s="3">
+        <v>1</v>
+      </c>
+      <c r="M244" s="3">
+        <v>6862</v>
+      </c>
+      <c r="N244" s="3">
+        <v>199755</v>
+      </c>
+      <c r="O244" s="4">
+        <v>0.70330000000000004</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>764</v>
       </c>
@@ -10916,8 +14603,23 @@
       <c r="J245">
         <v>6078.333333333333</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K245" s="3">
+        <v>2</v>
+      </c>
+      <c r="L245" s="3">
+        <v>2</v>
+      </c>
+      <c r="M245" s="3">
+        <v>12816</v>
+      </c>
+      <c r="N245" s="3">
+        <v>286550</v>
+      </c>
+      <c r="O245" s="4">
+        <v>0.7329</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>778</v>
       </c>
@@ -10948,8 +14650,23 @@
       <c r="J246">
         <v>6995.666666666667</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K246" s="3">
+        <v>2</v>
+      </c>
+      <c r="L246" s="3">
+        <v>1</v>
+      </c>
+      <c r="M246" s="3">
+        <v>13527</v>
+      </c>
+      <c r="N246" s="3">
+        <v>380897</v>
+      </c>
+      <c r="O246" s="4">
+        <v>0.75890000000000002</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>787</v>
       </c>
@@ -10980,8 +14697,23 @@
       <c r="J247">
         <v>8151.333333333333</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K247" s="3">
+        <v>2</v>
+      </c>
+      <c r="L247" s="3">
+        <v>1</v>
+      </c>
+      <c r="M247" s="3">
+        <v>12109</v>
+      </c>
+      <c r="N247" s="3">
+        <v>376356</v>
+      </c>
+      <c r="O247" s="4">
+        <v>0.7714333333333333</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>791</v>
       </c>
@@ -11012,8 +14744,23 @@
       <c r="J248">
         <v>4056.3333333333335</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K248" s="3">
+        <v>1</v>
+      </c>
+      <c r="L248" s="3">
+        <v>2</v>
+      </c>
+      <c r="M248" s="3">
+        <v>8772</v>
+      </c>
+      <c r="N248" s="3">
+        <v>202092</v>
+      </c>
+      <c r="O248" s="4">
+        <v>0.63583333333333336</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>796</v>
       </c>
@@ -11044,8 +14791,23 @@
       <c r="J249">
         <v>5919.666666666667</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K249" s="3">
+        <v>1</v>
+      </c>
+      <c r="L249" s="3">
+        <v>1</v>
+      </c>
+      <c r="M249" s="3">
+        <v>9741</v>
+      </c>
+      <c r="N249" s="3">
+        <v>241480</v>
+      </c>
+      <c r="O249" s="4">
+        <v>0.52283333333333337</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>797</v>
       </c>
@@ -11076,8 +14838,23 @@
       <c r="J250">
         <v>5441</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K250" s="3">
+        <v>1</v>
+      </c>
+      <c r="L250" s="3">
+        <v>1</v>
+      </c>
+      <c r="M250" s="3">
+        <v>9090</v>
+      </c>
+      <c r="N250" s="3">
+        <v>225468</v>
+      </c>
+      <c r="O250" s="4">
+        <v>0.69603333333333328</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>827</v>
       </c>
@@ -11108,8 +14885,23 @@
       <c r="J251">
         <v>6571</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K251" s="3">
+        <v>3</v>
+      </c>
+      <c r="L251" s="3">
+        <v>1</v>
+      </c>
+      <c r="M251" s="3">
+        <v>13544</v>
+      </c>
+      <c r="N251" s="3">
+        <v>285777</v>
+      </c>
+      <c r="O251" s="4">
+        <v>0.80256666666666676</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>832</v>
       </c>
@@ -11140,8 +14932,23 @@
       <c r="J252">
         <v>5382.333333333333</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K252" s="3">
+        <v>2</v>
+      </c>
+      <c r="L252" s="3">
+        <v>2</v>
+      </c>
+      <c r="M252" s="3">
+        <v>15567</v>
+      </c>
+      <c r="N252" s="3">
+        <v>288207</v>
+      </c>
+      <c r="O252" s="4">
+        <v>0.65016666666666667</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>841</v>
       </c>
@@ -11172,8 +14979,23 @@
       <c r="J253">
         <v>358</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K253" s="3">
+        <v>0</v>
+      </c>
+      <c r="L253" s="3">
+        <v>0</v>
+      </c>
+      <c r="M253" s="3">
+        <v>0</v>
+      </c>
+      <c r="N253" s="3">
+        <v>0</v>
+      </c>
+      <c r="O253" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>842</v>
       </c>
@@ -11204,8 +15026,23 @@
       <c r="J254">
         <v>3015.6666666666665</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K254" s="3">
+        <v>1</v>
+      </c>
+      <c r="L254" s="3">
+        <v>0</v>
+      </c>
+      <c r="M254" s="3">
+        <v>6853</v>
+      </c>
+      <c r="N254" s="3">
+        <v>138448</v>
+      </c>
+      <c r="O254" s="4">
+        <v>0.73796666666666677</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>843</v>
       </c>
@@ -11236,8 +15073,23 @@
       <c r="J255">
         <v>5206</v>
       </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K255" s="3">
+        <v>2</v>
+      </c>
+      <c r="L255" s="3">
+        <v>1</v>
+      </c>
+      <c r="M255" s="3">
+        <v>8998</v>
+      </c>
+      <c r="N255" s="3">
+        <v>247950</v>
+      </c>
+      <c r="O255" s="4">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>847</v>
       </c>
@@ -11268,8 +15120,23 @@
       <c r="J256">
         <v>4535.333333333333</v>
       </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K256" s="3">
+        <v>1</v>
+      </c>
+      <c r="L256" s="3">
+        <v>2</v>
+      </c>
+      <c r="M256" s="3">
+        <v>13152</v>
+      </c>
+      <c r="N256" s="3">
+        <v>227268</v>
+      </c>
+      <c r="O256" s="4">
+        <v>0.73196666666666665</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>849</v>
       </c>
@@ -11300,8 +15167,23 @@
       <c r="J257">
         <v>4259.333333333333</v>
       </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K257" s="3">
+        <v>2</v>
+      </c>
+      <c r="L257" s="3">
+        <v>1</v>
+      </c>
+      <c r="M257" s="3">
+        <v>8973</v>
+      </c>
+      <c r="N257" s="3">
+        <v>170704</v>
+      </c>
+      <c r="O257" s="4">
+        <v>0.77246666666666652</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>857</v>
       </c>
@@ -11332,8 +15214,23 @@
       <c r="J258">
         <v>4264</v>
       </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K258" s="3">
+        <v>1</v>
+      </c>
+      <c r="L258" s="3">
+        <v>1</v>
+      </c>
+      <c r="M258" s="3">
+        <v>9490</v>
+      </c>
+      <c r="N258" s="3">
+        <v>225690</v>
+      </c>
+      <c r="O258" s="4">
+        <v>0.82769999999999999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>868</v>
       </c>
@@ -11364,8 +15261,23 @@
       <c r="J259">
         <v>1982.3333333333333</v>
       </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K259" s="3">
+        <v>1</v>
+      </c>
+      <c r="L259" s="3">
+        <v>1</v>
+      </c>
+      <c r="M259" s="3">
+        <v>2986</v>
+      </c>
+      <c r="N259" s="3">
+        <v>52695</v>
+      </c>
+      <c r="O259" s="4">
+        <v>0.96063333333333334</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>732</v>
       </c>
@@ -11396,8 +15308,23 @@
       <c r="J260">
         <v>2546.3333333333335</v>
       </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K260" s="3">
+        <v>2</v>
+      </c>
+      <c r="L260" s="3">
+        <v>2</v>
+      </c>
+      <c r="M260" s="3">
+        <v>5095</v>
+      </c>
+      <c r="N260" s="3">
+        <v>114350</v>
+      </c>
+      <c r="O260" s="4">
+        <v>0.8469000000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>879</v>
       </c>
@@ -11428,8 +15355,23 @@
       <c r="J261">
         <v>5778.666666666667</v>
       </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K261" s="3">
+        <v>2</v>
+      </c>
+      <c r="L261" s="3">
+        <v>2</v>
+      </c>
+      <c r="M261" s="3">
+        <v>9838</v>
+      </c>
+      <c r="N261" s="3">
+        <v>327396</v>
+      </c>
+      <c r="O261" s="4">
+        <v>0.78946666666666665</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>891</v>
       </c>
@@ -11460,8 +15402,23 @@
       <c r="J262">
         <v>3704.3333333333335</v>
       </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K262" s="3">
+        <v>1</v>
+      </c>
+      <c r="L262" s="3">
+        <v>0</v>
+      </c>
+      <c r="M262" s="3">
+        <v>4617</v>
+      </c>
+      <c r="N262" s="3">
+        <v>148230</v>
+      </c>
+      <c r="O262" s="4">
+        <v>0.81289999999999996</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>900</v>
       </c>
@@ -11492,8 +15449,23 @@
       <c r="J263">
         <v>5728.333333333333</v>
       </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K263" s="3">
+        <v>3</v>
+      </c>
+      <c r="L263" s="3">
+        <v>2</v>
+      </c>
+      <c r="M263" s="3">
+        <v>13093</v>
+      </c>
+      <c r="N263" s="3">
+        <v>241164</v>
+      </c>
+      <c r="O263" s="4">
+        <v>0.73816666666666675</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>908</v>
       </c>
@@ -11524,8 +15496,23 @@
       <c r="J264">
         <v>5072.666666666667</v>
       </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K264" s="3">
+        <v>2</v>
+      </c>
+      <c r="L264" s="3">
+        <v>1</v>
+      </c>
+      <c r="M264" s="3">
+        <v>8576</v>
+      </c>
+      <c r="N264" s="3">
+        <v>183699</v>
+      </c>
+      <c r="O264" s="4">
+        <v>0.91103333333333325</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>918</v>
       </c>
@@ -11556,8 +15543,23 @@
       <c r="J265">
         <v>37.333333333333336</v>
       </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K265" s="3">
+        <v>2</v>
+      </c>
+      <c r="L265" s="3">
+        <v>1</v>
+      </c>
+      <c r="M265" s="3">
+        <v>2</v>
+      </c>
+      <c r="N265" s="3">
+        <v>2</v>
+      </c>
+      <c r="O265" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>921</v>
       </c>
@@ -11588,8 +15590,23 @@
       <c r="J266">
         <v>636.66666666666663</v>
       </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K266" s="3">
+        <v>1</v>
+      </c>
+      <c r="L266" s="3">
+        <v>0</v>
+      </c>
+      <c r="M266" s="3">
+        <v>2091</v>
+      </c>
+      <c r="N266" s="3">
+        <v>32776</v>
+      </c>
+      <c r="O266" s="4">
+        <v>0.9710333333333333</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>933</v>
       </c>
@@ -11620,8 +15637,23 @@
       <c r="J267">
         <v>3780.6666666666665</v>
       </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K267" s="3">
+        <v>2</v>
+      </c>
+      <c r="L267" s="3">
+        <v>1</v>
+      </c>
+      <c r="M267" s="3">
+        <v>11849</v>
+      </c>
+      <c r="N267" s="3">
+        <v>226548</v>
+      </c>
+      <c r="O267" s="4">
+        <v>0.78206666666666669</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>876</v>
       </c>
@@ -11652,8 +15684,23 @@
       <c r="J268">
         <v>3906.3333333333335</v>
       </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K268" s="3">
+        <v>2</v>
+      </c>
+      <c r="L268" s="3">
+        <v>1</v>
+      </c>
+      <c r="M268" s="3">
+        <v>8754</v>
+      </c>
+      <c r="N268" s="3">
+        <v>198800</v>
+      </c>
+      <c r="O268" s="4">
+        <v>0.86673333333333336</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>960</v>
       </c>
@@ -11684,8 +15731,23 @@
       <c r="J269">
         <v>2720</v>
       </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K269" s="3">
+        <v>1</v>
+      </c>
+      <c r="L269" s="3">
+        <v>0</v>
+      </c>
+      <c r="M269" s="3">
+        <v>7583</v>
+      </c>
+      <c r="N269" s="3">
+        <v>162830</v>
+      </c>
+      <c r="O269" s="4">
+        <v>0.91523333333333323</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>970</v>
       </c>
@@ -11716,8 +15778,23 @@
       <c r="J270">
         <v>4567.666666666667</v>
       </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K270" s="3">
+        <v>1</v>
+      </c>
+      <c r="L270" s="3">
+        <v>1</v>
+      </c>
+      <c r="M270" s="3">
+        <v>13104</v>
+      </c>
+      <c r="N270" s="3">
+        <v>248850</v>
+      </c>
+      <c r="O270" s="4">
+        <v>0.76396666666666668</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>976</v>
       </c>
@@ -11748,8 +15825,23 @@
       <c r="J271">
         <v>3988.6666666666665</v>
       </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K271" s="3">
+        <v>1</v>
+      </c>
+      <c r="L271" s="3">
+        <v>0</v>
+      </c>
+      <c r="M271" s="3">
+        <v>3267</v>
+      </c>
+      <c r="N271" s="3">
+        <v>58100</v>
+      </c>
+      <c r="O271" s="4">
+        <v>0.82820000000000016</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>982</v>
       </c>
@@ -11779,6 +15871,21 @@
       </c>
       <c r="J272">
         <v>5769.666666666667</v>
+      </c>
+      <c r="K272" s="3">
+        <v>1</v>
+      </c>
+      <c r="L272" s="3">
+        <v>1</v>
+      </c>
+      <c r="M272" s="3">
+        <v>6776</v>
+      </c>
+      <c r="N272" s="3">
+        <v>209547</v>
+      </c>
+      <c r="O272" s="4">
+        <v>0.78956666666666664</v>
       </c>
     </row>
   </sheetData>

--- a/data/OFICINAS.xlsx
+++ b/data/OFICINAS.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$272</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$O$272</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="1158">
   <si>
     <t>COD. OFIC.</t>
   </si>
@@ -2706,6 +2707,801 @@
   </si>
   <si>
     <t>RED LINES</t>
+  </si>
+  <si>
+    <t>CLIENTES_UNICOS</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0012</t>
+  </si>
+  <si>
+    <t>0013</t>
+  </si>
+  <si>
+    <t>0023</t>
+  </si>
+  <si>
+    <t>0030</t>
+  </si>
+  <si>
+    <t>0038</t>
+  </si>
+  <si>
+    <t>0048</t>
+  </si>
+  <si>
+    <t>0081</t>
+  </si>
+  <si>
+    <t>0083</t>
+  </si>
+  <si>
+    <t>0094</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0102</t>
+  </si>
+  <si>
+    <t>0103</t>
+  </si>
+  <si>
+    <t>0106</t>
+  </si>
+  <si>
+    <t>0107</t>
+  </si>
+  <si>
+    <t>0108</t>
+  </si>
+  <si>
+    <t>0109</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>0112</t>
+  </si>
+  <si>
+    <t>0113</t>
+  </si>
+  <si>
+    <t>0114</t>
+  </si>
+  <si>
+    <t>0115</t>
+  </si>
+  <si>
+    <t>0116</t>
+  </si>
+  <si>
+    <t>0117</t>
+  </si>
+  <si>
+    <t>0118</t>
+  </si>
+  <si>
+    <t>0119</t>
+  </si>
+  <si>
+    <t>0120</t>
+  </si>
+  <si>
+    <t>0121</t>
+  </si>
+  <si>
+    <t>0122</t>
+  </si>
+  <si>
+    <t>0123</t>
+  </si>
+  <si>
+    <t>0126</t>
+  </si>
+  <si>
+    <t>0127</t>
+  </si>
+  <si>
+    <t>0128</t>
+  </si>
+  <si>
+    <t>0129</t>
+  </si>
+  <si>
+    <t>0130</t>
+  </si>
+  <si>
+    <t>0131</t>
+  </si>
+  <si>
+    <t>0132</t>
+  </si>
+  <si>
+    <t>0133</t>
+  </si>
+  <si>
+    <t>0135</t>
+  </si>
+  <si>
+    <t>0136</t>
+  </si>
+  <si>
+    <t>0137</t>
+  </si>
+  <si>
+    <t>0138</t>
+  </si>
+  <si>
+    <t>0139</t>
+  </si>
+  <si>
+    <t>0140</t>
+  </si>
+  <si>
+    <t>0141</t>
+  </si>
+  <si>
+    <t>0142</t>
+  </si>
+  <si>
+    <t>0143</t>
+  </si>
+  <si>
+    <t>0144</t>
+  </si>
+  <si>
+    <t>0145</t>
+  </si>
+  <si>
+    <t>0146</t>
+  </si>
+  <si>
+    <t>0147</t>
+  </si>
+  <si>
+    <t>0148</t>
+  </si>
+  <si>
+    <t>0150</t>
+  </si>
+  <si>
+    <t>0151</t>
+  </si>
+  <si>
+    <t>0152</t>
+  </si>
+  <si>
+    <t>0153</t>
+  </si>
+  <si>
+    <t>0155</t>
+  </si>
+  <si>
+    <t>0156</t>
+  </si>
+  <si>
+    <t>0157</t>
+  </si>
+  <si>
+    <t>0159</t>
+  </si>
+  <si>
+    <t>0160</t>
+  </si>
+  <si>
+    <t>0162</t>
+  </si>
+  <si>
+    <t>0163</t>
+  </si>
+  <si>
+    <t>0164</t>
+  </si>
+  <si>
+    <t>0166</t>
+  </si>
+  <si>
+    <t>0168</t>
+  </si>
+  <si>
+    <t>0169</t>
+  </si>
+  <si>
+    <t>0170</t>
+  </si>
+  <si>
+    <t>0172</t>
+  </si>
+  <si>
+    <t>0174</t>
+  </si>
+  <si>
+    <t>0175</t>
+  </si>
+  <si>
+    <t>0176</t>
+  </si>
+  <si>
+    <t>0177</t>
+  </si>
+  <si>
+    <t>0178</t>
+  </si>
+  <si>
+    <t>0179</t>
+  </si>
+  <si>
+    <t>0182</t>
+  </si>
+  <si>
+    <t>0183</t>
+  </si>
+  <si>
+    <t>0184</t>
+  </si>
+  <si>
+    <t>0186</t>
+  </si>
+  <si>
+    <t>0187</t>
+  </si>
+  <si>
+    <t>0189</t>
+  </si>
+  <si>
+    <t>0190</t>
+  </si>
+  <si>
+    <t>0194</t>
+  </si>
+  <si>
+    <t>0195</t>
+  </si>
+  <si>
+    <t>0196</t>
+  </si>
+  <si>
+    <t>0197</t>
+  </si>
+  <si>
+    <t>0200</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>0202</t>
+  </si>
+  <si>
+    <t>0203</t>
+  </si>
+  <si>
+    <t>0205</t>
+  </si>
+  <si>
+    <t>0208</t>
+  </si>
+  <si>
+    <t>0210</t>
+  </si>
+  <si>
+    <t>0211</t>
+  </si>
+  <si>
+    <t>0215</t>
+  </si>
+  <si>
+    <t>0218</t>
+  </si>
+  <si>
+    <t>0220</t>
+  </si>
+  <si>
+    <t>0221</t>
+  </si>
+  <si>
+    <t>0222</t>
+  </si>
+  <si>
+    <t>0223</t>
+  </si>
+  <si>
+    <t>0224</t>
+  </si>
+  <si>
+    <t>0225</t>
+  </si>
+  <si>
+    <t>0226</t>
+  </si>
+  <si>
+    <t>0228</t>
+  </si>
+  <si>
+    <t>0229</t>
+  </si>
+  <si>
+    <t>0231</t>
+  </si>
+  <si>
+    <t>0232</t>
+  </si>
+  <si>
+    <t>0233</t>
+  </si>
+  <si>
+    <t>0234</t>
+  </si>
+  <si>
+    <t>0235</t>
+  </si>
+  <si>
+    <t>0236</t>
+  </si>
+  <si>
+    <t>0237</t>
+  </si>
+  <si>
+    <t>0238</t>
+  </si>
+  <si>
+    <t>0240</t>
+  </si>
+  <si>
+    <t>0241</t>
+  </si>
+  <si>
+    <t>0242</t>
+  </si>
+  <si>
+    <t>0244</t>
+  </si>
+  <si>
+    <t>0245</t>
+  </si>
+  <si>
+    <t>0246</t>
+  </si>
+  <si>
+    <t>0247</t>
+  </si>
+  <si>
+    <t>0248</t>
+  </si>
+  <si>
+    <t>0249</t>
+  </si>
+  <si>
+    <t>0250</t>
+  </si>
+  <si>
+    <t>0251</t>
+  </si>
+  <si>
+    <t>0252</t>
+  </si>
+  <si>
+    <t>0253</t>
+  </si>
+  <si>
+    <t>0254</t>
+  </si>
+  <si>
+    <t>0256</t>
+  </si>
+  <si>
+    <t>0257</t>
+  </si>
+  <si>
+    <t>0258</t>
+  </si>
+  <si>
+    <t>0259</t>
+  </si>
+  <si>
+    <t>0260</t>
+  </si>
+  <si>
+    <t>0261</t>
+  </si>
+  <si>
+    <t>0262</t>
+  </si>
+  <si>
+    <t>0263</t>
+  </si>
+  <si>
+    <t>0264</t>
+  </si>
+  <si>
+    <t>0265</t>
+  </si>
+  <si>
+    <t>0266</t>
+  </si>
+  <si>
+    <t>0267</t>
+  </si>
+  <si>
+    <t>0268</t>
+  </si>
+  <si>
+    <t>0269</t>
+  </si>
+  <si>
+    <t>0270</t>
+  </si>
+  <si>
+    <t>0271</t>
+  </si>
+  <si>
+    <t>0272</t>
+  </si>
+  <si>
+    <t>0273</t>
+  </si>
+  <si>
+    <t>0274</t>
+  </si>
+  <si>
+    <t>0275</t>
+  </si>
+  <si>
+    <t>0276</t>
+  </si>
+  <si>
+    <t>0277</t>
+  </si>
+  <si>
+    <t>0281</t>
+  </si>
+  <si>
+    <t>0284</t>
+  </si>
+  <si>
+    <t>0285</t>
+  </si>
+  <si>
+    <t>0286</t>
+  </si>
+  <si>
+    <t>0287</t>
+  </si>
+  <si>
+    <t>0288</t>
+  </si>
+  <si>
+    <t>0291</t>
+  </si>
+  <si>
+    <t>0295</t>
+  </si>
+  <si>
+    <t>0297</t>
+  </si>
+  <si>
+    <t>0299</t>
+  </si>
+  <si>
+    <t>0301</t>
+  </si>
+  <si>
+    <t>0304</t>
+  </si>
+  <si>
+    <t>0306</t>
+  </si>
+  <si>
+    <t>0310</t>
+  </si>
+  <si>
+    <t>0312</t>
+  </si>
+  <si>
+    <t>0314</t>
+  </si>
+  <si>
+    <t>0316</t>
+  </si>
+  <si>
+    <t>0317</t>
+  </si>
+  <si>
+    <t>0318</t>
+  </si>
+  <si>
+    <t>0319</t>
+  </si>
+  <si>
+    <t>0320</t>
+  </si>
+  <si>
+    <t>0321</t>
+  </si>
+  <si>
+    <t>0322</t>
+  </si>
+  <si>
+    <t>0323</t>
+  </si>
+  <si>
+    <t>0324</t>
+  </si>
+  <si>
+    <t>0327</t>
+  </si>
+  <si>
+    <t>0332</t>
+  </si>
+  <si>
+    <t>0333</t>
+  </si>
+  <si>
+    <t>0335</t>
+  </si>
+  <si>
+    <t>0338</t>
+  </si>
+  <si>
+    <t>0339</t>
+  </si>
+  <si>
+    <t>0340</t>
+  </si>
+  <si>
+    <t>0341</t>
+  </si>
+  <si>
+    <t>0342</t>
+  </si>
+  <si>
+    <t>0345</t>
+  </si>
+  <si>
+    <t>0346</t>
+  </si>
+  <si>
+    <t>0348</t>
+  </si>
+  <si>
+    <t>0352</t>
+  </si>
+  <si>
+    <t>0353</t>
+  </si>
+  <si>
+    <t>0354</t>
+  </si>
+  <si>
+    <t>0355</t>
+  </si>
+  <si>
+    <t>0358</t>
+  </si>
+  <si>
+    <t>0359</t>
+  </si>
+  <si>
+    <t>0360</t>
+  </si>
+  <si>
+    <t>0361</t>
+  </si>
+  <si>
+    <t>0365</t>
+  </si>
+  <si>
+    <t>0367</t>
+  </si>
+  <si>
+    <t>0368</t>
+  </si>
+  <si>
+    <t>0370</t>
+  </si>
+  <si>
+    <t>0372</t>
+  </si>
+  <si>
+    <t>0383</t>
+  </si>
+  <si>
+    <t>0387</t>
+  </si>
+  <si>
+    <t>0396</t>
+  </si>
+  <si>
+    <t>0421</t>
+  </si>
+  <si>
+    <t>0426</t>
+  </si>
+  <si>
+    <t>0427</t>
+  </si>
+  <si>
+    <t>0442</t>
+  </si>
+  <si>
+    <t>0467</t>
+  </si>
+  <si>
+    <t>0480</t>
+  </si>
+  <si>
+    <t>0484</t>
+  </si>
+  <si>
+    <t>0486</t>
+  </si>
+  <si>
+    <t>0508</t>
+  </si>
+  <si>
+    <t>0521</t>
+  </si>
+  <si>
+    <t>0554</t>
+  </si>
+  <si>
+    <t>0564</t>
+  </si>
+  <si>
+    <t>0566</t>
+  </si>
+  <si>
+    <t>0584</t>
+  </si>
+  <si>
+    <t>0597</t>
+  </si>
+  <si>
+    <t>0609</t>
+  </si>
+  <si>
+    <t>0614</t>
+  </si>
+  <si>
+    <t>0615</t>
+  </si>
+  <si>
+    <t>0616</t>
+  </si>
+  <si>
+    <t>0621</t>
+  </si>
+  <si>
+    <t>0628</t>
+  </si>
+  <si>
+    <t>0643</t>
+  </si>
+  <si>
+    <t>0648</t>
+  </si>
+  <si>
+    <t>0659</t>
+  </si>
+  <si>
+    <t>0667</t>
+  </si>
+  <si>
+    <t>0712</t>
+  </si>
+  <si>
+    <t>0713</t>
+  </si>
+  <si>
+    <t>0716</t>
+  </si>
+  <si>
+    <t>0717</t>
+  </si>
+  <si>
+    <t>0732</t>
+  </si>
+  <si>
+    <t>0750</t>
+  </si>
+  <si>
+    <t>0751</t>
+  </si>
+  <si>
+    <t>0752</t>
+  </si>
+  <si>
+    <t>0763</t>
+  </si>
+  <si>
+    <t>0764</t>
+  </si>
+  <si>
+    <t>0778</t>
+  </si>
+  <si>
+    <t>0787</t>
+  </si>
+  <si>
+    <t>0791</t>
+  </si>
+  <si>
+    <t>0796</t>
+  </si>
+  <si>
+    <t>0797</t>
+  </si>
+  <si>
+    <t>0827</t>
+  </si>
+  <si>
+    <t>0832</t>
+  </si>
+  <si>
+    <t>0842</t>
+  </si>
+  <si>
+    <t>0843</t>
+  </si>
+  <si>
+    <t>0847</t>
+  </si>
+  <si>
+    <t>0849</t>
+  </si>
+  <si>
+    <t>0857</t>
+  </si>
+  <si>
+    <t>0868</t>
+  </si>
+  <si>
+    <t>0876</t>
+  </si>
+  <si>
+    <t>0879</t>
+  </si>
+  <si>
+    <t>0891</t>
+  </si>
+  <si>
+    <t>0900</t>
+  </si>
+  <si>
+    <t>0908</t>
+  </si>
+  <si>
+    <t>0921</t>
+  </si>
+  <si>
+    <t>0933</t>
+  </si>
+  <si>
+    <t>0939</t>
+  </si>
+  <si>
+    <t>0960</t>
+  </si>
+  <si>
+    <t>0970</t>
+  </si>
+  <si>
+    <t>0976</t>
+  </si>
+  <si>
+    <t>0982</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>TICKETS</t>
   </si>
 </sst>
 </file>
@@ -2754,7 +3550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2766,6 +3562,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3082,8 +3882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L272"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3188,12 +3988,8 @@
       <c r="L2" s="3">
         <v>1</v>
       </c>
-      <c r="M2" s="3">
-        <v>7792</v>
-      </c>
-      <c r="N2" s="3">
-        <v>234684</v>
-      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
       <c r="O2" s="4">
         <v>0.84243333333333326</v>
       </c>
@@ -3235,12 +4031,8 @@
       <c r="L3" s="3">
         <v>1</v>
       </c>
-      <c r="M3" s="3">
-        <v>9634</v>
-      </c>
-      <c r="N3" s="3">
-        <v>226270</v>
-      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
       <c r="O3" s="4">
         <v>0.74933333333333341</v>
       </c>
@@ -3282,12 +4074,8 @@
       <c r="L4" s="3">
         <v>1</v>
       </c>
-      <c r="M4" s="3">
-        <v>7014</v>
-      </c>
-      <c r="N4" s="3">
-        <v>190000</v>
-      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
       <c r="O4" s="4">
         <v>0.96423333333333316</v>
       </c>
@@ -3329,12 +4117,8 @@
       <c r="L5" s="3">
         <v>1</v>
       </c>
-      <c r="M5" s="3">
-        <v>6916</v>
-      </c>
-      <c r="N5" s="3">
-        <v>137424</v>
-      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
       <c r="O5" s="4">
         <v>0.81099999999999994</v>
       </c>
@@ -3376,12 +4160,8 @@
       <c r="L6" s="3">
         <v>1</v>
       </c>
-      <c r="M6" s="3">
-        <v>543</v>
-      </c>
-      <c r="N6" s="3">
-        <v>11172</v>
-      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
       <c r="O6" s="4">
         <v>0.90710000000000002</v>
       </c>
@@ -3423,12 +4203,8 @@
       <c r="L7" s="3">
         <v>0</v>
       </c>
-      <c r="M7" s="3">
-        <v>7758</v>
-      </c>
-      <c r="N7" s="3">
-        <v>168822</v>
-      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
       <c r="O7" s="4">
         <v>0.79233333333333322</v>
       </c>
@@ -3470,12 +4246,8 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3">
-        <v>5438</v>
-      </c>
-      <c r="N8" s="3">
-        <v>134112</v>
-      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
       <c r="O8" s="4">
         <v>0.73566666666666658</v>
       </c>
@@ -3517,12 +4289,8 @@
       <c r="L9" s="3">
         <v>1</v>
       </c>
-      <c r="M9" s="3">
-        <v>11314</v>
-      </c>
-      <c r="N9" s="3">
-        <v>268340</v>
-      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
       <c r="O9" s="4">
         <v>0.67433333333333334</v>
       </c>
@@ -3564,12 +4332,8 @@
       <c r="L10" s="3">
         <v>1</v>
       </c>
-      <c r="M10" s="3">
-        <v>13142</v>
-      </c>
-      <c r="N10" s="3">
-        <v>276010</v>
-      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
       <c r="O10" s="4">
         <v>0.71863333333333335</v>
       </c>
@@ -3611,12 +4375,8 @@
       <c r="L11" s="3">
         <v>2</v>
       </c>
-      <c r="M11" s="3">
-        <v>12766</v>
-      </c>
-      <c r="N11" s="3">
-        <v>274380</v>
-      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
       <c r="O11" s="4">
         <v>0.75613333333333321</v>
       </c>
@@ -3658,12 +4418,8 @@
       <c r="L12" s="3">
         <v>1</v>
       </c>
-      <c r="M12" s="3">
-        <v>12469</v>
-      </c>
-      <c r="N12" s="3">
-        <v>273267</v>
-      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
       <c r="O12" s="4">
         <v>0.70569999999999988</v>
       </c>
@@ -3705,12 +4461,8 @@
       <c r="L13" s="3">
         <v>2</v>
       </c>
-      <c r="M13" s="3">
-        <v>9213</v>
-      </c>
-      <c r="N13" s="3">
-        <v>218780</v>
-      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
       <c r="O13" s="4">
         <v>0.72420000000000007</v>
       </c>
@@ -3752,12 +4504,8 @@
       <c r="L14" s="3">
         <v>1</v>
       </c>
-      <c r="M14" s="3">
-        <v>9740</v>
-      </c>
-      <c r="N14" s="3">
-        <v>293676</v>
-      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
       <c r="O14" s="4">
         <v>0.68426666666666669</v>
       </c>
@@ -3799,12 +4547,8 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3">
-        <v>5792</v>
-      </c>
-      <c r="N15" s="3">
-        <v>124340</v>
-      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
       <c r="O15" s="4">
         <v>0.89029999999999998</v>
       </c>
@@ -3846,12 +4590,8 @@
       <c r="L16" s="3">
         <v>1</v>
       </c>
-      <c r="M16" s="3">
-        <v>9325</v>
-      </c>
-      <c r="N16" s="3">
-        <v>207600</v>
-      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
       <c r="O16" s="4">
         <v>0.79606666666666659</v>
       </c>
@@ -3893,12 +4633,8 @@
       <c r="L17" s="3">
         <v>2</v>
       </c>
-      <c r="M17" s="3">
-        <v>12179</v>
-      </c>
-      <c r="N17" s="3">
-        <v>325985</v>
-      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
       <c r="O17" s="4">
         <v>0.58716666666666673</v>
       </c>
@@ -3940,12 +4676,8 @@
       <c r="L18" s="3">
         <v>1</v>
       </c>
-      <c r="M18" s="3">
-        <v>7823</v>
-      </c>
-      <c r="N18" s="3">
-        <v>184650</v>
-      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
       <c r="O18" s="4">
         <v>0.7684333333333333</v>
       </c>
@@ -3987,12 +4719,8 @@
       <c r="L19" s="3">
         <v>1</v>
       </c>
-      <c r="M19" s="3">
-        <v>5133</v>
-      </c>
-      <c r="N19" s="3">
-        <v>130980</v>
-      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
       <c r="O19" s="4">
         <v>0.84343333333333337</v>
       </c>
@@ -4034,12 +4762,8 @@
       <c r="L20" s="3">
         <v>1</v>
       </c>
-      <c r="M20" s="3">
-        <v>9202</v>
-      </c>
-      <c r="N20" s="3">
-        <v>194590</v>
-      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
       <c r="O20" s="4">
         <v>0.7930666666666667</v>
       </c>
@@ -4081,12 +4805,8 @@
       <c r="L21" s="3">
         <v>2</v>
       </c>
-      <c r="M21" s="3">
-        <v>7918</v>
-      </c>
-      <c r="N21" s="3">
-        <v>189760</v>
-      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
       <c r="O21" s="4">
         <v>0.86403333333333343</v>
       </c>
@@ -4128,12 +4848,8 @@
       <c r="L22" s="3">
         <v>1</v>
       </c>
-      <c r="M22" s="3">
-        <v>8159</v>
-      </c>
-      <c r="N22" s="3">
-        <v>217430</v>
-      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
       <c r="O22" s="4">
         <v>0.65803333333333336</v>
       </c>
@@ -4175,12 +4891,8 @@
       <c r="L23" s="3">
         <v>1</v>
       </c>
-      <c r="M23" s="3">
-        <v>8814</v>
-      </c>
-      <c r="N23" s="3">
-        <v>154192</v>
-      </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
       <c r="O23" s="4">
         <v>0.76593333333333335</v>
       </c>
@@ -4222,12 +4934,8 @@
       <c r="L24" s="3">
         <v>2</v>
       </c>
-      <c r="M24" s="3">
-        <v>16050</v>
-      </c>
-      <c r="N24" s="3">
-        <v>359270</v>
-      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
       <c r="O24" s="4">
         <v>0.72409999999999997</v>
       </c>
@@ -4269,12 +4977,8 @@
       <c r="L25" s="3">
         <v>2</v>
       </c>
-      <c r="M25" s="3">
-        <v>7166</v>
-      </c>
-      <c r="N25" s="3">
-        <v>149990</v>
-      </c>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
       <c r="O25" s="4">
         <v>0.86816666666666675</v>
       </c>
@@ -4316,12 +5020,8 @@
       <c r="L26" s="3">
         <v>1</v>
       </c>
-      <c r="M26" s="3">
-        <v>6724</v>
-      </c>
-      <c r="N26" s="3">
-        <v>199067</v>
-      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
       <c r="O26" s="4">
         <v>0.79626666666666657</v>
       </c>
@@ -4363,12 +5063,8 @@
       <c r="L27" s="3">
         <v>0</v>
       </c>
-      <c r="M27" s="3">
-        <v>3859</v>
-      </c>
-      <c r="N27" s="3">
-        <v>111159</v>
-      </c>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
       <c r="O27" s="4">
         <v>0.91603333333333337</v>
       </c>
@@ -4410,12 +5106,8 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3">
-        <v>4</v>
-      </c>
-      <c r="N28" s="3">
-        <v>21</v>
-      </c>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
       <c r="O28" s="4">
         <v>1</v>
       </c>
@@ -4457,12 +5149,8 @@
       <c r="L29" s="3">
         <v>2</v>
       </c>
-      <c r="M29" s="3">
-        <v>14176</v>
-      </c>
-      <c r="N29" s="3">
-        <v>306740</v>
-      </c>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
       <c r="O29" s="4">
         <v>0.75516666666666665</v>
       </c>
@@ -4504,12 +5192,8 @@
       <c r="L30" s="3">
         <v>2</v>
       </c>
-      <c r="M30" s="3">
-        <v>7770</v>
-      </c>
-      <c r="N30" s="3">
-        <v>223587</v>
-      </c>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
       <c r="O30" s="4">
         <v>0.72883333333333333</v>
       </c>
@@ -4551,12 +5235,8 @@
       <c r="L31" s="3">
         <v>2</v>
       </c>
-      <c r="M31" s="3">
-        <v>16192</v>
-      </c>
-      <c r="N31" s="3">
-        <v>391332</v>
-      </c>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
       <c r="O31" s="4">
         <v>0.60183333333333333</v>
       </c>
@@ -4598,12 +5278,8 @@
       <c r="L32" s="3">
         <v>1</v>
       </c>
-      <c r="M32" s="3">
-        <v>7356</v>
-      </c>
-      <c r="N32" s="3">
-        <v>172337</v>
-      </c>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
       <c r="O32" s="4">
         <v>0.81246666666666678</v>
       </c>
@@ -4645,12 +5321,8 @@
       <c r="L33" s="3">
         <v>1</v>
       </c>
-      <c r="M33" s="3">
-        <v>17573</v>
-      </c>
-      <c r="N33" s="3">
-        <v>324000</v>
-      </c>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
       <c r="O33" s="4">
         <v>0.77686666666666671</v>
       </c>
@@ -4692,12 +5364,8 @@
       <c r="L34" s="3">
         <v>1</v>
       </c>
-      <c r="M34" s="3">
-        <v>10702</v>
-      </c>
-      <c r="N34" s="3">
-        <v>221580</v>
-      </c>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
       <c r="O34" s="4">
         <v>0.88500000000000012</v>
       </c>
@@ -4739,12 +5407,8 @@
       <c r="L35" s="3">
         <v>1</v>
       </c>
-      <c r="M35" s="3">
-        <v>10581</v>
-      </c>
-      <c r="N35" s="3">
-        <v>167384</v>
-      </c>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
       <c r="O35" s="4">
         <v>0.8212666666666667</v>
       </c>
@@ -4786,12 +5450,8 @@
       <c r="L36" s="3">
         <v>1</v>
       </c>
-      <c r="M36" s="3">
-        <v>8137</v>
-      </c>
-      <c r="N36" s="3">
-        <v>164160</v>
-      </c>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
       <c r="O36" s="4">
         <v>0.76636666666666675</v>
       </c>
@@ -4833,12 +5493,8 @@
       <c r="L37" s="3">
         <v>1</v>
       </c>
-      <c r="M37" s="3">
-        <v>7029</v>
-      </c>
-      <c r="N37" s="3">
-        <v>176330</v>
-      </c>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
       <c r="O37" s="4">
         <v>0.74563333333333326</v>
       </c>
@@ -4880,12 +5536,8 @@
       <c r="L38" s="3">
         <v>0</v>
       </c>
-      <c r="M38" s="3">
-        <v>2090</v>
-      </c>
-      <c r="N38" s="3">
-        <v>44976</v>
-      </c>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
       <c r="O38" s="4">
         <v>0.93986666666666663</v>
       </c>
@@ -4927,12 +5579,8 @@
       <c r="L39" s="3">
         <v>1</v>
       </c>
-      <c r="M39" s="3">
-        <v>12151</v>
-      </c>
-      <c r="N39" s="3">
-        <v>232569</v>
-      </c>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
       <c r="O39" s="4">
         <v>0.68813333333333337</v>
       </c>
@@ -4974,12 +5622,8 @@
       <c r="L40" s="3">
         <v>1</v>
       </c>
-      <c r="M40" s="3">
-        <v>16299</v>
-      </c>
-      <c r="N40" s="3">
-        <v>370095</v>
-      </c>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
       <c r="O40" s="4">
         <v>0.67120000000000013</v>
       </c>
@@ -5021,12 +5665,8 @@
       <c r="L41" s="3">
         <v>1</v>
       </c>
-      <c r="M41" s="3">
-        <v>6238</v>
-      </c>
-      <c r="N41" s="3">
-        <v>153360</v>
-      </c>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
       <c r="O41" s="4">
         <v>0.79523333333333335</v>
       </c>
@@ -5068,12 +5708,8 @@
       <c r="L42" s="3">
         <v>1</v>
       </c>
-      <c r="M42" s="3">
-        <v>10755</v>
-      </c>
-      <c r="N42" s="3">
-        <v>185416</v>
-      </c>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
       <c r="O42" s="4">
         <v>0.68086666666666673</v>
       </c>
@@ -5115,12 +5751,8 @@
       <c r="L43" s="3">
         <v>1</v>
       </c>
-      <c r="M43" s="3">
-        <v>7824</v>
-      </c>
-      <c r="N43" s="3">
-        <v>226950</v>
-      </c>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
       <c r="O43" s="4">
         <v>0.77103333333333335</v>
       </c>
@@ -5162,12 +5794,8 @@
       <c r="L44" s="3">
         <v>1</v>
       </c>
-      <c r="M44" s="3">
-        <v>9348</v>
-      </c>
-      <c r="N44" s="3">
-        <v>189603</v>
-      </c>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
       <c r="O44" s="4">
         <v>0.79666666666666652</v>
       </c>
@@ -5209,12 +5837,8 @@
       <c r="L45" s="3">
         <v>2</v>
       </c>
-      <c r="M45" s="3">
-        <v>11794</v>
-      </c>
-      <c r="N45" s="3">
-        <v>284867</v>
-      </c>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
       <c r="O45" s="4">
         <v>0.73376666666666657</v>
       </c>
@@ -5256,12 +5880,8 @@
       <c r="L46" s="3">
         <v>1</v>
       </c>
-      <c r="M46" s="3">
-        <v>10962</v>
-      </c>
-      <c r="N46" s="3">
-        <v>193959</v>
-      </c>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
       <c r="O46" s="4">
         <v>0.76833333333333342</v>
       </c>
@@ -5303,12 +5923,8 @@
       <c r="L47" s="3">
         <v>1</v>
       </c>
-      <c r="M47" s="3">
-        <v>5670</v>
-      </c>
-      <c r="N47" s="3">
-        <v>157524</v>
-      </c>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
       <c r="O47" s="4">
         <v>0.69370000000000009</v>
       </c>
@@ -5350,12 +5966,8 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3">
-        <v>8570</v>
-      </c>
-      <c r="N48" s="3">
-        <v>124866</v>
-      </c>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
       <c r="O48" s="4">
         <v>0.92666666666666675</v>
       </c>
@@ -5397,12 +6009,8 @@
       <c r="L49" s="3">
         <v>1</v>
       </c>
-      <c r="M49" s="3">
-        <v>9024</v>
-      </c>
-      <c r="N49" s="3">
-        <v>207810</v>
-      </c>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
       <c r="O49" s="4">
         <v>0.87033333333333329</v>
       </c>
@@ -5444,12 +6052,8 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3">
-        <v>6900</v>
-      </c>
-      <c r="N50" s="3">
-        <v>152580</v>
-      </c>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
       <c r="O50" s="4">
         <v>0.77759999999999996</v>
       </c>
@@ -5491,12 +6095,8 @@
       <c r="L51" s="3">
         <v>2</v>
       </c>
-      <c r="M51" s="3">
-        <v>12481</v>
-      </c>
-      <c r="N51" s="3">
-        <v>292798</v>
-      </c>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
       <c r="O51" s="4">
         <v>0.42643333333333339</v>
       </c>
@@ -5538,12 +6138,8 @@
       <c r="L52" s="3">
         <v>1</v>
       </c>
-      <c r="M52" s="3">
-        <v>11104</v>
-      </c>
-      <c r="N52" s="3">
-        <v>300936</v>
-      </c>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
       <c r="O52" s="4">
         <v>0.81379999999999997</v>
       </c>
@@ -5585,12 +6181,8 @@
       <c r="L53" s="3">
         <v>1</v>
       </c>
-      <c r="M53" s="3">
-        <v>8439</v>
-      </c>
-      <c r="N53" s="3">
-        <v>189500</v>
-      </c>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
       <c r="O53" s="4">
         <v>0.89736666666666665</v>
       </c>
@@ -5632,12 +6224,8 @@
       <c r="L54" s="3">
         <v>1</v>
       </c>
-      <c r="M54" s="3">
-        <v>8251</v>
-      </c>
-      <c r="N54" s="3">
-        <v>173601</v>
-      </c>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
       <c r="O54" s="4">
         <v>0.92189999999999994</v>
       </c>
@@ -5679,12 +6267,8 @@
       <c r="L55" s="3">
         <v>1</v>
       </c>
-      <c r="M55" s="3">
-        <v>8709</v>
-      </c>
-      <c r="N55" s="3">
-        <v>202400</v>
-      </c>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
       <c r="O55" s="4">
         <v>0.71509999999999996</v>
       </c>
@@ -5726,12 +6310,8 @@
       <c r="L56" s="3">
         <v>0</v>
       </c>
-      <c r="M56" s="3">
-        <v>7001</v>
-      </c>
-      <c r="N56" s="3">
-        <v>170570</v>
-      </c>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
       <c r="O56" s="4">
         <v>0.81363333333333332</v>
       </c>
@@ -5773,12 +6353,8 @@
       <c r="L57" s="3">
         <v>2</v>
       </c>
-      <c r="M57" s="3">
-        <v>13273</v>
-      </c>
-      <c r="N57" s="3">
-        <v>327877</v>
-      </c>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
       <c r="O57" s="4">
         <v>0.76743333333333341</v>
       </c>
@@ -5820,12 +6396,8 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3">
-        <v>8693</v>
-      </c>
-      <c r="N58" s="3">
-        <v>224554</v>
-      </c>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
       <c r="O58" s="4">
         <v>0.82143333333333324</v>
       </c>
@@ -5867,12 +6439,8 @@
       <c r="L59" s="3">
         <v>2</v>
       </c>
-      <c r="M59" s="3">
-        <v>14059</v>
-      </c>
-      <c r="N59" s="3">
-        <v>347248</v>
-      </c>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
       <c r="O59" s="4">
         <v>0.79253333333333342</v>
       </c>
@@ -5914,12 +6482,8 @@
       <c r="L60" s="3">
         <v>1</v>
       </c>
-      <c r="M60" s="3">
-        <v>4057</v>
-      </c>
-      <c r="N60" s="3">
-        <v>77232</v>
-      </c>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
       <c r="O60" s="4">
         <v>0.89593333333333336</v>
       </c>
@@ -5961,12 +6525,8 @@
       <c r="L61" s="3">
         <v>1</v>
       </c>
-      <c r="M61" s="3">
-        <v>7821</v>
-      </c>
-      <c r="N61" s="3">
-        <v>257808</v>
-      </c>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
       <c r="O61" s="4">
         <v>0.80763333333333331</v>
       </c>
@@ -6008,12 +6568,8 @@
       <c r="L62" s="3">
         <v>1</v>
       </c>
-      <c r="M62" s="3">
-        <v>6986</v>
-      </c>
-      <c r="N62" s="3">
-        <v>174890</v>
-      </c>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
       <c r="O62" s="4">
         <v>0.8918666666666667</v>
       </c>
@@ -6055,12 +6611,8 @@
       <c r="L63" s="3">
         <v>1</v>
       </c>
-      <c r="M63" s="3">
-        <v>5909</v>
-      </c>
-      <c r="N63" s="3">
-        <v>152892</v>
-      </c>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
       <c r="O63" s="4">
         <v>0.86719999999999997</v>
       </c>
@@ -6102,12 +6654,8 @@
       <c r="L64" s="3">
         <v>2</v>
       </c>
-      <c r="M64" s="3">
-        <v>7972</v>
-      </c>
-      <c r="N64" s="3">
-        <v>183060</v>
-      </c>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
       <c r="O64" s="4">
         <v>0.81936666666666669</v>
       </c>
@@ -6149,12 +6697,8 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3">
-        <v>0</v>
-      </c>
-      <c r="N65" s="3">
-        <v>0</v>
-      </c>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
       <c r="O65" s="4">
         <v>0</v>
       </c>
@@ -6196,12 +6740,8 @@
       <c r="L66" s="3">
         <v>1</v>
       </c>
-      <c r="M66" s="3">
-        <v>7313</v>
-      </c>
-      <c r="N66" s="3">
-        <v>186510</v>
-      </c>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
       <c r="O66" s="4">
         <v>0.8239333333333333</v>
       </c>
@@ -6243,12 +6783,8 @@
       <c r="L67" s="3">
         <v>0</v>
       </c>
-      <c r="M67" s="3">
-        <v>114</v>
-      </c>
-      <c r="N67" s="3">
-        <v>2618</v>
-      </c>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
       <c r="O67" s="4">
         <v>0.95840000000000003</v>
       </c>
@@ -6290,12 +6826,8 @@
       <c r="L68" s="3">
         <v>1</v>
       </c>
-      <c r="M68" s="3">
-        <v>9109</v>
-      </c>
-      <c r="N68" s="3">
-        <v>221221</v>
-      </c>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
       <c r="O68" s="4">
         <v>0.80419999999999991</v>
       </c>
@@ -6337,12 +6869,8 @@
       <c r="L69" s="3">
         <v>1</v>
       </c>
-      <c r="M69" s="3">
-        <v>4543</v>
-      </c>
-      <c r="N69" s="3">
-        <v>105980</v>
-      </c>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
       <c r="O69" s="4">
         <v>0.92203333333333326</v>
       </c>
@@ -6384,12 +6912,8 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3">
-        <v>6218</v>
-      </c>
-      <c r="N70" s="3">
-        <v>136590</v>
-      </c>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
       <c r="O70" s="4">
         <v>0.82556666666666667</v>
       </c>
@@ -6431,12 +6955,8 @@
       <c r="L71" s="3">
         <v>1</v>
       </c>
-      <c r="M71" s="3">
-        <v>18785</v>
-      </c>
-      <c r="N71" s="3">
-        <v>358870</v>
-      </c>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
       <c r="O71" s="4">
         <v>0.60693333333333344</v>
       </c>
@@ -6478,12 +6998,8 @@
       <c r="L72" s="3">
         <v>3</v>
       </c>
-      <c r="M72" s="3">
-        <v>17689</v>
-      </c>
-      <c r="N72" s="3">
-        <v>356220</v>
-      </c>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
       <c r="O72" s="4">
         <v>0.73919999999999997</v>
       </c>
@@ -6525,12 +7041,8 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3">
-        <v>5738</v>
-      </c>
-      <c r="N73" s="3">
-        <v>98176</v>
-      </c>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
       <c r="O73" s="4">
         <v>0.88390000000000002</v>
       </c>
@@ -6572,12 +7084,8 @@
       <c r="L74" s="3">
         <v>1</v>
       </c>
-      <c r="M74" s="3">
-        <v>10362</v>
-      </c>
-      <c r="N74" s="3">
-        <v>223940</v>
-      </c>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
       <c r="O74" s="4">
         <v>0.75746666666666673</v>
       </c>
@@ -6619,12 +7127,8 @@
       <c r="L75" s="3">
         <v>1</v>
       </c>
-      <c r="M75" s="3">
-        <v>6482</v>
-      </c>
-      <c r="N75" s="3">
-        <v>188188</v>
-      </c>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
       <c r="O75" s="4">
         <v>0.76270000000000004</v>
       </c>
@@ -6666,12 +7170,8 @@
       <c r="L76" s="3">
         <v>0</v>
       </c>
-      <c r="M76" s="3">
-        <v>4376</v>
-      </c>
-      <c r="N76" s="3">
-        <v>111480</v>
-      </c>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
       <c r="O76" s="4">
         <v>0.89753333333333341</v>
       </c>
@@ -6713,12 +7213,8 @@
       <c r="L77" s="3">
         <v>1</v>
       </c>
-      <c r="M77" s="3">
-        <v>8199</v>
-      </c>
-      <c r="N77" s="3">
-        <v>195800</v>
-      </c>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
       <c r="O77" s="4">
         <v>0.75626666666666675</v>
       </c>
@@ -6760,12 +7256,8 @@
       <c r="L78" s="3">
         <v>2</v>
       </c>
-      <c r="M78" s="3">
-        <v>10275</v>
-      </c>
-      <c r="N78" s="3">
-        <v>209790</v>
-      </c>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
       <c r="O78" s="4">
         <v>0.83173333333333332</v>
       </c>
@@ -6807,12 +7299,8 @@
       <c r="L79" s="3">
         <v>2</v>
       </c>
-      <c r="M79" s="3">
-        <v>12594</v>
-      </c>
-      <c r="N79" s="3">
-        <v>284100</v>
-      </c>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
       <c r="O79" s="4">
         <v>0.69826666666666659</v>
       </c>
@@ -6854,12 +7342,8 @@
       <c r="L80" s="3">
         <v>2</v>
       </c>
-      <c r="M80" s="3">
-        <v>18743</v>
-      </c>
-      <c r="N80" s="3">
-        <v>404019</v>
-      </c>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
       <c r="O80" s="4">
         <v>0.81089999999999984</v>
       </c>
@@ -6901,12 +7385,8 @@
       <c r="L81" s="3">
         <v>1</v>
       </c>
-      <c r="M81" s="3">
-        <v>6424</v>
-      </c>
-      <c r="N81" s="3">
-        <v>160056</v>
-      </c>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
       <c r="O81" s="4">
         <v>0.69343333333333346</v>
       </c>
@@ -6948,12 +7428,8 @@
       <c r="L82" s="3">
         <v>0</v>
       </c>
-      <c r="M82" s="3">
-        <v>6960</v>
-      </c>
-      <c r="N82" s="3">
-        <v>211156</v>
-      </c>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
       <c r="O82" s="4">
         <v>0.66110000000000002</v>
       </c>
@@ -6995,12 +7471,8 @@
       <c r="L83" s="3">
         <v>2</v>
       </c>
-      <c r="M83" s="3">
-        <v>17922</v>
-      </c>
-      <c r="N83" s="3">
-        <v>401225</v>
-      </c>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
       <c r="O83" s="4">
         <v>0.79243333333333332</v>
       </c>
@@ -7042,12 +7514,8 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3">
-        <v>3987</v>
-      </c>
-      <c r="N84" s="3">
-        <v>116868</v>
-      </c>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
       <c r="O84" s="4">
         <v>0.9002</v>
       </c>
@@ -7089,12 +7557,8 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3">
-        <v>3377</v>
-      </c>
-      <c r="N85" s="3">
-        <v>91845</v>
-      </c>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
       <c r="O85" s="4">
         <v>0.92543333333333333</v>
       </c>
@@ -7136,12 +7600,8 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3">
-        <v>5962</v>
-      </c>
-      <c r="N86" s="3">
-        <v>106856</v>
-      </c>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
       <c r="O86" s="4">
         <v>0.91856666666666664</v>
       </c>
@@ -7183,12 +7643,8 @@
       <c r="L87" s="3">
         <v>2</v>
       </c>
-      <c r="M87" s="3">
-        <v>3563</v>
-      </c>
-      <c r="N87" s="3">
-        <v>109410</v>
-      </c>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
       <c r="O87" s="4">
         <v>0.92706666666666671</v>
       </c>
@@ -7230,12 +7686,8 @@
       <c r="L88" s="3">
         <v>2</v>
       </c>
-      <c r="M88" s="3">
-        <v>18887</v>
-      </c>
-      <c r="N88" s="3">
-        <v>555225</v>
-      </c>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
       <c r="O88" s="4">
         <v>0.74519999999999997</v>
       </c>
@@ -7277,12 +7729,8 @@
       <c r="L89" s="3">
         <v>1</v>
       </c>
-      <c r="M89" s="3">
-        <v>11146</v>
-      </c>
-      <c r="N89" s="3">
-        <v>238473</v>
-      </c>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
       <c r="O89" s="4">
         <v>0.90700000000000003</v>
       </c>
@@ -7324,12 +7772,8 @@
       <c r="L90" s="3">
         <v>2</v>
       </c>
-      <c r="M90" s="3">
-        <v>12701</v>
-      </c>
-      <c r="N90" s="3">
-        <v>420728</v>
-      </c>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
       <c r="O90" s="4">
         <v>0.64573333333333327</v>
       </c>
@@ -7371,12 +7815,8 @@
       <c r="L91" s="3">
         <v>2</v>
       </c>
-      <c r="M91" s="3">
-        <v>8641</v>
-      </c>
-      <c r="N91" s="3">
-        <v>261260</v>
-      </c>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
       <c r="O91" s="4">
         <v>0.77363333333333328</v>
       </c>
@@ -7418,12 +7858,8 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3">
-        <v>1233</v>
-      </c>
-      <c r="N92" s="3">
-        <v>29430</v>
-      </c>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
       <c r="O92" s="4">
         <v>0.8514666666666667</v>
       </c>
@@ -7465,12 +7901,8 @@
       <c r="L93" s="3">
         <v>1</v>
       </c>
-      <c r="M93" s="3">
-        <v>6704</v>
-      </c>
-      <c r="N93" s="3">
-        <v>190010</v>
-      </c>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
       <c r="O93" s="4">
         <v>0.82620000000000005</v>
       </c>
@@ -7512,12 +7944,8 @@
       <c r="L94" s="3">
         <v>2</v>
       </c>
-      <c r="M94" s="3">
-        <v>7682</v>
-      </c>
-      <c r="N94" s="3">
-        <v>176931</v>
-      </c>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
       <c r="O94" s="4">
         <v>0.92133333333333345</v>
       </c>
@@ -7559,12 +7987,8 @@
       <c r="L95" s="3">
         <v>1</v>
       </c>
-      <c r="M95" s="3">
-        <v>10775</v>
-      </c>
-      <c r="N95" s="3">
-        <v>279040</v>
-      </c>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
       <c r="O95" s="4">
         <v>0.84206666666666663</v>
       </c>
@@ -7606,12 +8030,8 @@
       <c r="L96" s="3">
         <v>1</v>
       </c>
-      <c r="M96" s="3">
-        <v>12831</v>
-      </c>
-      <c r="N96" s="3">
-        <v>307530</v>
-      </c>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
       <c r="O96" s="4">
         <v>0.74350000000000005</v>
       </c>
@@ -7653,12 +8073,8 @@
       <c r="L97" s="3">
         <v>1</v>
       </c>
-      <c r="M97" s="3">
-        <v>7379</v>
-      </c>
-      <c r="N97" s="3">
-        <v>226440</v>
-      </c>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
       <c r="O97" s="4">
         <v>0.73523333333333341</v>
       </c>
@@ -7700,12 +8116,8 @@
       <c r="L98" s="3">
         <v>2</v>
       </c>
-      <c r="M98" s="3">
-        <v>18080</v>
-      </c>
-      <c r="N98" s="3">
-        <v>491150</v>
-      </c>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
       <c r="O98" s="4">
         <v>0.61096666666666666</v>
       </c>
@@ -7747,12 +8159,8 @@
       <c r="L99" s="3">
         <v>1</v>
       </c>
-      <c r="M99" s="3">
-        <v>11900</v>
-      </c>
-      <c r="N99" s="3">
-        <v>226161</v>
-      </c>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
       <c r="O99" s="4">
         <v>0.8612333333333333</v>
       </c>
@@ -7794,12 +8202,8 @@
       <c r="L100" s="3">
         <v>1</v>
       </c>
-      <c r="M100" s="3">
-        <v>13113</v>
-      </c>
-      <c r="N100" s="3">
-        <v>414557</v>
-      </c>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
       <c r="O100" s="4">
         <v>0.82623333333333326</v>
       </c>
@@ -7841,12 +8245,8 @@
       <c r="L101" s="3">
         <v>2</v>
       </c>
-      <c r="M101" s="3">
-        <v>21699</v>
-      </c>
-      <c r="N101" s="3">
-        <v>518200</v>
-      </c>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
       <c r="O101" s="4">
         <v>0.47159999999999996</v>
       </c>
@@ -7888,12 +8288,8 @@
       <c r="L102" s="3">
         <v>1</v>
       </c>
-      <c r="M102" s="3">
-        <v>8384</v>
-      </c>
-      <c r="N102" s="3">
-        <v>188816</v>
-      </c>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
       <c r="O102" s="4">
         <v>0.80336666666666667</v>
       </c>
@@ -7935,12 +8331,8 @@
       <c r="L103" s="3">
         <v>0</v>
       </c>
-      <c r="M103" s="3">
-        <v>4768</v>
-      </c>
-      <c r="N103" s="3">
-        <v>166338</v>
-      </c>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
       <c r="O103" s="4">
         <v>0.83866666666666667</v>
       </c>
@@ -7982,12 +8374,8 @@
       <c r="L104" s="3">
         <v>1</v>
       </c>
-      <c r="M104" s="3">
-        <v>7573</v>
-      </c>
-      <c r="N104" s="3">
-        <v>203210</v>
-      </c>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
       <c r="O104" s="4">
         <v>0.87816666666666665</v>
       </c>
@@ -8029,12 +8417,8 @@
       <c r="L105" s="3">
         <v>2</v>
       </c>
-      <c r="M105" s="3">
-        <v>11971</v>
-      </c>
-      <c r="N105" s="3">
-        <v>362660</v>
-      </c>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
       <c r="O105" s="4">
         <v>0.61573333333333335</v>
       </c>
@@ -8076,12 +8460,8 @@
       <c r="L106" s="3">
         <v>1</v>
       </c>
-      <c r="M106" s="3">
-        <v>10334</v>
-      </c>
-      <c r="N106" s="3">
-        <v>224864</v>
-      </c>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
       <c r="O106" s="4">
         <v>0.53100000000000003</v>
       </c>
@@ -8123,12 +8503,8 @@
       <c r="L107" s="3">
         <v>1</v>
       </c>
-      <c r="M107" s="3">
-        <v>5325</v>
-      </c>
-      <c r="N107" s="3">
-        <v>145845</v>
-      </c>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
       <c r="O107" s="4">
         <v>0.91026666666666667</v>
       </c>
@@ -8170,12 +8546,8 @@
       <c r="L108" s="3">
         <v>2</v>
       </c>
-      <c r="M108" s="3">
-        <v>16206</v>
-      </c>
-      <c r="N108" s="3">
-        <v>495700</v>
-      </c>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
       <c r="O108" s="4">
         <v>0.80846666666666678</v>
       </c>
@@ -8217,12 +8589,8 @@
       <c r="L109" s="3">
         <v>1</v>
       </c>
-      <c r="M109" s="3">
-        <v>10197</v>
-      </c>
-      <c r="N109" s="3">
-        <v>247470</v>
-      </c>
+      <c r="M109" s="3"/>
+      <c r="N109" s="3"/>
       <c r="O109" s="4">
         <v>0.75350000000000017</v>
       </c>
@@ -8264,12 +8632,8 @@
       <c r="L110" s="3">
         <v>1</v>
       </c>
-      <c r="M110" s="3">
-        <v>11395</v>
-      </c>
-      <c r="N110" s="3">
-        <v>198608</v>
-      </c>
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
       <c r="O110" s="4">
         <v>0.78710000000000002</v>
       </c>
@@ -8311,12 +8675,8 @@
       <c r="L111" s="3">
         <v>3</v>
       </c>
-      <c r="M111" s="3">
-        <v>19871</v>
-      </c>
-      <c r="N111" s="3">
-        <v>439760</v>
-      </c>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
       <c r="O111" s="4">
         <v>0.76233333333333331</v>
       </c>
@@ -8358,12 +8718,8 @@
       <c r="L112" s="3">
         <v>0</v>
       </c>
-      <c r="M112" s="3">
-        <v>4949</v>
-      </c>
-      <c r="N112" s="3">
-        <v>106912</v>
-      </c>
+      <c r="M112" s="3"/>
+      <c r="N112" s="3"/>
       <c r="O112" s="4">
         <v>0.91643333333333332</v>
       </c>
@@ -8405,12 +8761,8 @@
       <c r="L113" s="3">
         <v>2</v>
       </c>
-      <c r="M113" s="3">
-        <v>14457</v>
-      </c>
-      <c r="N113" s="3">
-        <v>324160</v>
-      </c>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
       <c r="O113" s="4">
         <v>0.80123333333333335</v>
       </c>
@@ -8452,12 +8804,8 @@
       <c r="L114" s="3">
         <v>0</v>
       </c>
-      <c r="M114" s="3">
-        <v>6584</v>
-      </c>
-      <c r="N114" s="3">
-        <v>219984</v>
-      </c>
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
       <c r="O114" s="4">
         <v>0.76150000000000018</v>
       </c>
@@ -8499,12 +8847,8 @@
       <c r="L115" s="3">
         <v>2</v>
       </c>
-      <c r="M115" s="3">
-        <v>19313</v>
-      </c>
-      <c r="N115" s="3">
-        <v>343648</v>
-      </c>
+      <c r="M115" s="3"/>
+      <c r="N115" s="3"/>
       <c r="O115" s="4">
         <v>0.39183333333333331</v>
       </c>
@@ -8546,12 +8890,8 @@
       <c r="L116" s="3">
         <v>1</v>
       </c>
-      <c r="M116" s="3">
-        <v>10112</v>
-      </c>
-      <c r="N116" s="3">
-        <v>233990</v>
-      </c>
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
       <c r="O116" s="4">
         <v>0.73466666666666658</v>
       </c>
@@ -8593,12 +8933,8 @@
       <c r="L117" s="3">
         <v>0</v>
       </c>
-      <c r="M117" s="3">
-        <v>3494</v>
-      </c>
-      <c r="N117" s="3">
-        <v>88136</v>
-      </c>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
       <c r="O117" s="4">
         <v>0.88833333333333331</v>
       </c>
@@ -8640,12 +8976,8 @@
       <c r="L118" s="3">
         <v>1</v>
       </c>
-      <c r="M118" s="3">
-        <v>7711</v>
-      </c>
-      <c r="N118" s="3">
-        <v>225153</v>
-      </c>
+      <c r="M118" s="3"/>
+      <c r="N118" s="3"/>
       <c r="O118" s="4">
         <v>0.79583333333333328</v>
       </c>
@@ -8687,12 +9019,8 @@
       <c r="L119" s="3">
         <v>2</v>
       </c>
-      <c r="M119" s="3">
-        <v>6719</v>
-      </c>
-      <c r="N119" s="3">
-        <v>190575</v>
-      </c>
+      <c r="M119" s="3"/>
+      <c r="N119" s="3"/>
       <c r="O119" s="4">
         <v>0.88609999999999989</v>
       </c>
@@ -8734,12 +9062,8 @@
       <c r="L120" s="3">
         <v>2</v>
       </c>
-      <c r="M120" s="3">
-        <v>6719</v>
-      </c>
-      <c r="N120" s="3">
-        <v>190575</v>
-      </c>
+      <c r="M120" s="3"/>
+      <c r="N120" s="3"/>
       <c r="O120" s="4">
         <v>0.88609999999999989</v>
       </c>
@@ -8781,12 +9105,8 @@
       <c r="L121" s="3">
         <v>1</v>
       </c>
-      <c r="M121" s="3">
-        <v>9492</v>
-      </c>
-      <c r="N121" s="3">
-        <v>250624</v>
-      </c>
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
       <c r="O121" s="4">
         <v>0.77603333333333335</v>
       </c>
@@ -8828,12 +9148,8 @@
       <c r="L122" s="3">
         <v>0</v>
       </c>
-      <c r="M122" s="3">
-        <v>8136</v>
-      </c>
-      <c r="N122" s="3">
-        <v>180909</v>
-      </c>
+      <c r="M122" s="3"/>
+      <c r="N122" s="3"/>
       <c r="O122" s="4">
         <v>0.80913333333333337</v>
       </c>
@@ -8875,12 +9191,8 @@
       <c r="L123" s="3">
         <v>1</v>
       </c>
-      <c r="M123" s="3">
-        <v>10069</v>
-      </c>
-      <c r="N123" s="3">
-        <v>275570</v>
-      </c>
+      <c r="M123" s="3"/>
+      <c r="N123" s="3"/>
       <c r="O123" s="4">
         <v>0.79476666666666651</v>
       </c>
@@ -8922,12 +9234,8 @@
       <c r="L124" s="3">
         <v>2</v>
       </c>
-      <c r="M124" s="3">
-        <v>22484</v>
-      </c>
-      <c r="N124" s="3">
-        <v>531999</v>
-      </c>
+      <c r="M124" s="3"/>
+      <c r="N124" s="3"/>
       <c r="O124" s="4">
         <v>0.6495333333333333</v>
       </c>
@@ -8969,12 +9277,8 @@
       <c r="L125" s="3">
         <v>1</v>
       </c>
-      <c r="M125" s="3">
-        <v>10860</v>
-      </c>
-      <c r="N125" s="3">
-        <v>245970</v>
-      </c>
+      <c r="M125" s="3"/>
+      <c r="N125" s="3"/>
       <c r="O125" s="4">
         <v>0.75</v>
       </c>
@@ -9016,12 +9320,8 @@
       <c r="L126" s="3">
         <v>1</v>
       </c>
-      <c r="M126" s="3">
-        <v>6541</v>
-      </c>
-      <c r="N126" s="3">
-        <v>120352</v>
-      </c>
+      <c r="M126" s="3"/>
+      <c r="N126" s="3"/>
       <c r="O126" s="4">
         <v>0.86163333333333336</v>
       </c>
@@ -9063,12 +9363,8 @@
       <c r="L127" s="3">
         <v>1</v>
       </c>
-      <c r="M127" s="3">
-        <v>12011</v>
-      </c>
-      <c r="N127" s="3">
-        <v>237910</v>
-      </c>
+      <c r="M127" s="3"/>
+      <c r="N127" s="3"/>
       <c r="O127" s="4">
         <v>0.77073333333333338</v>
       </c>
@@ -9110,12 +9406,8 @@
       <c r="L128" s="3">
         <v>1</v>
       </c>
-      <c r="M128" s="3">
-        <v>10263</v>
-      </c>
-      <c r="N128" s="3">
-        <v>176895</v>
-      </c>
+      <c r="M128" s="3"/>
+      <c r="N128" s="3"/>
       <c r="O128" s="4">
         <v>0.86560000000000004</v>
       </c>
@@ -9157,12 +9449,8 @@
       <c r="L129" s="3">
         <v>1</v>
       </c>
-      <c r="M129" s="3">
-        <v>8516</v>
-      </c>
-      <c r="N129" s="3">
-        <v>229960</v>
-      </c>
+      <c r="M129" s="3"/>
+      <c r="N129" s="3"/>
       <c r="O129" s="4">
         <v>0.62290000000000001</v>
       </c>
@@ -9204,12 +9492,8 @@
       <c r="L130" s="3">
         <v>2</v>
       </c>
-      <c r="M130" s="3">
-        <v>10116</v>
-      </c>
-      <c r="N130" s="3">
-        <v>157824</v>
-      </c>
+      <c r="M130" s="3"/>
+      <c r="N130" s="3"/>
       <c r="O130" s="4">
         <v>0.73593333333333322</v>
       </c>
@@ -9251,12 +9535,8 @@
       <c r="L131" s="3">
         <v>1</v>
       </c>
-      <c r="M131" s="3">
-        <v>9344</v>
-      </c>
-      <c r="N131" s="3">
-        <v>186610</v>
-      </c>
+      <c r="M131" s="3"/>
+      <c r="N131" s="3"/>
       <c r="O131" s="4">
         <v>0.83330000000000004</v>
       </c>
@@ -9298,12 +9578,8 @@
       <c r="L132" s="3">
         <v>1</v>
       </c>
-      <c r="M132" s="3">
-        <v>10596</v>
-      </c>
-      <c r="N132" s="3">
-        <v>282550</v>
-      </c>
+      <c r="M132" s="3"/>
+      <c r="N132" s="3"/>
       <c r="O132" s="4">
         <v>0.70866666666666667</v>
       </c>
@@ -9345,12 +9621,8 @@
       <c r="L133" s="3">
         <v>2</v>
       </c>
-      <c r="M133" s="3">
-        <v>13003</v>
-      </c>
-      <c r="N133" s="3">
-        <v>267080</v>
-      </c>
+      <c r="M133" s="3"/>
+      <c r="N133" s="3"/>
       <c r="O133" s="4">
         <v>0.74440000000000006</v>
       </c>
@@ -9392,12 +9664,8 @@
       <c r="L134" s="3">
         <v>2</v>
       </c>
-      <c r="M134" s="3">
-        <v>12749</v>
-      </c>
-      <c r="N134" s="3">
-        <v>279184</v>
-      </c>
+      <c r="M134" s="3"/>
+      <c r="N134" s="3"/>
       <c r="O134" s="4">
         <v>0.8085</v>
       </c>
@@ -9439,12 +9707,8 @@
       <c r="L135" s="3">
         <v>1</v>
       </c>
-      <c r="M135" s="3">
-        <v>12405</v>
-      </c>
-      <c r="N135" s="3">
-        <v>251090</v>
-      </c>
+      <c r="M135" s="3"/>
+      <c r="N135" s="3"/>
       <c r="O135" s="4">
         <v>0.84226666666666672</v>
       </c>
@@ -9486,12 +9750,8 @@
       <c r="L136" s="3">
         <v>1</v>
       </c>
-      <c r="M136" s="3">
-        <v>5744</v>
-      </c>
-      <c r="N136" s="3">
-        <v>149760</v>
-      </c>
+      <c r="M136" s="3"/>
+      <c r="N136" s="3"/>
       <c r="O136" s="4">
         <v>0.78333333333333321</v>
       </c>
@@ -9533,12 +9793,8 @@
       <c r="L137" s="3">
         <v>1</v>
       </c>
-      <c r="M137" s="3">
-        <v>5618</v>
-      </c>
-      <c r="N137" s="3">
-        <v>153468</v>
-      </c>
+      <c r="M137" s="3"/>
+      <c r="N137" s="3"/>
       <c r="O137" s="4">
         <v>0.54310000000000003</v>
       </c>
@@ -9580,12 +9836,8 @@
       <c r="L138" s="3">
         <v>0</v>
       </c>
-      <c r="M138" s="3">
-        <v>5709</v>
-      </c>
-      <c r="N138" s="3">
-        <v>137916</v>
-      </c>
+      <c r="M138" s="3"/>
+      <c r="N138" s="3"/>
       <c r="O138" s="4">
         <v>0.89129999999999987</v>
       </c>
@@ -9627,12 +9879,8 @@
       <c r="L139" s="3">
         <v>1</v>
       </c>
-      <c r="M139" s="3">
-        <v>9756</v>
-      </c>
-      <c r="N139" s="3">
-        <v>233883</v>
-      </c>
+      <c r="M139" s="3"/>
+      <c r="N139" s="3"/>
       <c r="O139" s="4">
         <v>0.73536666666666672</v>
       </c>
@@ -9674,12 +9922,8 @@
       <c r="L140" s="3">
         <v>2</v>
       </c>
-      <c r="M140" s="3">
-        <v>9203</v>
-      </c>
-      <c r="N140" s="3">
-        <v>177490</v>
-      </c>
+      <c r="M140" s="3"/>
+      <c r="N140" s="3"/>
       <c r="O140" s="4">
         <v>0.8296</v>
       </c>
@@ -9721,12 +9965,8 @@
       <c r="L141" s="3">
         <v>2</v>
       </c>
-      <c r="M141" s="3">
-        <v>16468</v>
-      </c>
-      <c r="N141" s="3">
-        <v>482952</v>
-      </c>
+      <c r="M141" s="3"/>
+      <c r="N141" s="3"/>
       <c r="O141" s="4">
         <v>0.48313333333333336</v>
       </c>
@@ -9768,12 +10008,8 @@
       <c r="L142" s="3">
         <v>0</v>
       </c>
-      <c r="M142" s="3">
-        <v>12381</v>
-      </c>
-      <c r="N142" s="3">
-        <v>235674</v>
-      </c>
+      <c r="M142" s="3"/>
+      <c r="N142" s="3"/>
       <c r="O142" s="4">
         <v>0.80006666666666659</v>
       </c>
@@ -9815,12 +10051,8 @@
       <c r="L143" s="3">
         <v>1</v>
       </c>
-      <c r="M143" s="3">
-        <v>8163</v>
-      </c>
-      <c r="N143" s="3">
-        <v>151288</v>
-      </c>
+      <c r="M143" s="3"/>
+      <c r="N143" s="3"/>
       <c r="O143" s="4">
         <v>0.81506666666666661</v>
       </c>
@@ -9862,12 +10094,8 @@
       <c r="L144" s="3">
         <v>1</v>
       </c>
-      <c r="M144" s="3">
-        <v>7828</v>
-      </c>
-      <c r="N144" s="3">
-        <v>189396</v>
-      </c>
+      <c r="M144" s="3"/>
+      <c r="N144" s="3"/>
       <c r="O144" s="4">
         <v>0.81686666666666674</v>
       </c>
@@ -9909,12 +10137,8 @@
       <c r="L145" s="3">
         <v>1</v>
       </c>
-      <c r="M145" s="3">
-        <v>8221</v>
-      </c>
-      <c r="N145" s="3">
-        <v>292764</v>
-      </c>
+      <c r="M145" s="3"/>
+      <c r="N145" s="3"/>
       <c r="O145" s="4">
         <v>0.7218</v>
       </c>
@@ -9956,12 +10180,8 @@
       <c r="L146" s="3">
         <v>1</v>
       </c>
-      <c r="M146" s="3">
-        <v>10434</v>
-      </c>
-      <c r="N146" s="3">
-        <v>208848</v>
-      </c>
+      <c r="M146" s="3"/>
+      <c r="N146" s="3"/>
       <c r="O146" s="4">
         <v>0.79526666666666668</v>
       </c>
@@ -10003,12 +10223,8 @@
       <c r="L147" s="3">
         <v>1</v>
       </c>
-      <c r="M147" s="3">
-        <v>8088</v>
-      </c>
-      <c r="N147" s="3">
-        <v>260304</v>
-      </c>
+      <c r="M147" s="3"/>
+      <c r="N147" s="3"/>
       <c r="O147" s="4">
         <v>0.75959999999999994</v>
       </c>
@@ -10050,12 +10266,8 @@
       <c r="L148" s="3">
         <v>2</v>
       </c>
-      <c r="M148" s="3">
-        <v>14258</v>
-      </c>
-      <c r="N148" s="3">
-        <v>334161</v>
-      </c>
+      <c r="M148" s="3"/>
+      <c r="N148" s="3"/>
       <c r="O148" s="4">
         <v>0.54526666666666668</v>
       </c>
@@ -10097,12 +10309,8 @@
       <c r="L149" s="3">
         <v>1</v>
       </c>
-      <c r="M149" s="3">
-        <v>16123</v>
-      </c>
-      <c r="N149" s="3">
-        <v>371412</v>
-      </c>
+      <c r="M149" s="3"/>
+      <c r="N149" s="3"/>
       <c r="O149" s="4">
         <v>0.47349999999999998</v>
       </c>
@@ -10144,12 +10352,8 @@
       <c r="L150" s="3">
         <v>1</v>
       </c>
-      <c r="M150" s="3">
-        <v>8541</v>
-      </c>
-      <c r="N150" s="3">
-        <v>228204</v>
-      </c>
+      <c r="M150" s="3"/>
+      <c r="N150" s="3"/>
       <c r="O150" s="4">
         <v>0.60639999999999994</v>
       </c>
@@ -10191,12 +10395,8 @@
       <c r="L151" s="3">
         <v>1</v>
       </c>
-      <c r="M151" s="3">
-        <v>12836</v>
-      </c>
-      <c r="N151" s="3">
-        <v>250456</v>
-      </c>
+      <c r="M151" s="3"/>
+      <c r="N151" s="3"/>
       <c r="O151" s="4">
         <v>0.76149999999999995</v>
       </c>
@@ -10238,12 +10438,8 @@
       <c r="L152" s="3">
         <v>1</v>
       </c>
-      <c r="M152" s="3">
-        <v>10261</v>
-      </c>
-      <c r="N152" s="3">
-        <v>243496</v>
-      </c>
+      <c r="M152" s="3"/>
+      <c r="N152" s="3"/>
       <c r="O152" s="4">
         <v>0.83413333333333328</v>
       </c>
@@ -10285,12 +10481,8 @@
       <c r="L153" s="3">
         <v>2</v>
       </c>
-      <c r="M153" s="3">
-        <v>21236</v>
-      </c>
-      <c r="N153" s="3">
-        <v>398010</v>
-      </c>
+      <c r="M153" s="3"/>
+      <c r="N153" s="3"/>
       <c r="O153" s="4">
         <v>0.7286999999999999</v>
       </c>
@@ -10332,12 +10524,8 @@
       <c r="L154" s="3">
         <v>3</v>
       </c>
-      <c r="M154" s="3">
-        <v>29513</v>
-      </c>
-      <c r="N154" s="3">
-        <v>763840</v>
-      </c>
+      <c r="M154" s="3"/>
+      <c r="N154" s="3"/>
       <c r="O154" s="4">
         <v>0.36783333333333329</v>
       </c>
@@ -10379,12 +10567,8 @@
       <c r="L155" s="3">
         <v>0</v>
       </c>
-      <c r="M155" s="3">
-        <v>5684</v>
-      </c>
-      <c r="N155" s="3">
-        <v>139420</v>
-      </c>
+      <c r="M155" s="3"/>
+      <c r="N155" s="3"/>
       <c r="O155" s="4">
         <v>0.79289999999999994</v>
       </c>
@@ -10426,12 +10610,8 @@
       <c r="L156" s="3">
         <v>1</v>
       </c>
-      <c r="M156" s="3">
-        <v>10898</v>
-      </c>
-      <c r="N156" s="3">
-        <v>273420</v>
-      </c>
+      <c r="M156" s="3"/>
+      <c r="N156" s="3"/>
       <c r="O156" s="4">
         <v>0.53986666666666661</v>
       </c>
@@ -10473,12 +10653,8 @@
       <c r="L157" s="3">
         <v>1</v>
       </c>
-      <c r="M157" s="3">
-        <v>6703</v>
-      </c>
-      <c r="N157" s="3">
-        <v>150368</v>
-      </c>
+      <c r="M157" s="3"/>
+      <c r="N157" s="3"/>
       <c r="O157" s="4">
         <v>0.45596666666666669</v>
       </c>
@@ -10520,12 +10696,8 @@
       <c r="L158" s="3">
         <v>0</v>
       </c>
-      <c r="M158" s="3">
-        <v>6023</v>
-      </c>
-      <c r="N158" s="3">
-        <v>150084</v>
-      </c>
+      <c r="M158" s="3"/>
+      <c r="N158" s="3"/>
       <c r="O158" s="4">
         <v>0.74350000000000005</v>
       </c>
@@ -10567,12 +10739,8 @@
       <c r="L159" s="3">
         <v>2</v>
       </c>
-      <c r="M159" s="3">
-        <v>14563</v>
-      </c>
-      <c r="N159" s="3">
-        <v>357336</v>
-      </c>
+      <c r="M159" s="3"/>
+      <c r="N159" s="3"/>
       <c r="O159" s="4">
         <v>0.7835333333333333</v>
       </c>
@@ -10614,12 +10782,8 @@
       <c r="L160" s="3">
         <v>1</v>
       </c>
-      <c r="M160" s="3">
-        <v>8105</v>
-      </c>
-      <c r="N160" s="3">
-        <v>210330</v>
-      </c>
+      <c r="M160" s="3"/>
+      <c r="N160" s="3"/>
       <c r="O160" s="4">
         <v>0.94099999999999995</v>
       </c>
@@ -10661,12 +10825,8 @@
       <c r="L161" s="3">
         <v>1</v>
       </c>
-      <c r="M161" s="3">
-        <v>4743</v>
-      </c>
-      <c r="N161" s="3">
-        <v>159730</v>
-      </c>
+      <c r="M161" s="3"/>
+      <c r="N161" s="3"/>
       <c r="O161" s="4">
         <v>0.82036666666666669</v>
       </c>
@@ -10708,12 +10868,8 @@
       <c r="L162" s="3">
         <v>2</v>
       </c>
-      <c r="M162" s="3">
-        <v>20747</v>
-      </c>
-      <c r="N162" s="3">
-        <v>677964</v>
-      </c>
+      <c r="M162" s="3"/>
+      <c r="N162" s="3"/>
       <c r="O162" s="4">
         <v>0.48110000000000003</v>
       </c>
@@ -10755,12 +10911,8 @@
       <c r="L163" s="3">
         <v>1</v>
       </c>
-      <c r="M163" s="3">
-        <v>9915</v>
-      </c>
-      <c r="N163" s="3">
-        <v>285170</v>
-      </c>
+      <c r="M163" s="3"/>
+      <c r="N163" s="3"/>
       <c r="O163" s="4">
         <v>0.39050000000000001</v>
       </c>
@@ -10802,12 +10954,8 @@
       <c r="L164" s="3">
         <v>2</v>
       </c>
-      <c r="M164" s="3">
-        <v>12642</v>
-      </c>
-      <c r="N164" s="3">
-        <v>282807</v>
-      </c>
+      <c r="M164" s="3"/>
+      <c r="N164" s="3"/>
       <c r="O164" s="4">
         <v>0.68176666666666674</v>
       </c>
@@ -10849,12 +10997,8 @@
       <c r="L165" s="3">
         <v>1</v>
       </c>
-      <c r="M165" s="3">
-        <v>14033</v>
-      </c>
-      <c r="N165" s="3">
-        <v>383240</v>
-      </c>
+      <c r="M165" s="3"/>
+      <c r="N165" s="3"/>
       <c r="O165" s="4">
         <v>0.82386666666666664</v>
       </c>
@@ -10896,12 +11040,8 @@
       <c r="L166" s="3">
         <v>1</v>
       </c>
-      <c r="M166" s="3">
-        <v>9502</v>
-      </c>
-      <c r="N166" s="3">
-        <v>181458</v>
-      </c>
+      <c r="M166" s="3"/>
+      <c r="N166" s="3"/>
       <c r="O166" s="4">
         <v>0.83726666666666671</v>
       </c>
@@ -10943,12 +11083,8 @@
       <c r="L167" s="3">
         <v>1</v>
       </c>
-      <c r="M167" s="3">
-        <v>8384</v>
-      </c>
-      <c r="N167" s="3">
-        <v>279213</v>
-      </c>
+      <c r="M167" s="3"/>
+      <c r="N167" s="3"/>
       <c r="O167" s="4">
         <v>0.8362666666666666</v>
       </c>
@@ -10990,12 +11126,8 @@
       <c r="L168" s="3">
         <v>0</v>
       </c>
-      <c r="M168" s="3">
-        <v>0</v>
-      </c>
-      <c r="N168" s="3">
-        <v>0</v>
-      </c>
+      <c r="M168" s="3"/>
+      <c r="N168" s="3"/>
       <c r="O168" s="4">
         <v>0</v>
       </c>
@@ -11037,12 +11169,8 @@
       <c r="L169" s="3">
         <v>2</v>
       </c>
-      <c r="M169" s="3">
-        <v>15199</v>
-      </c>
-      <c r="N169" s="3">
-        <v>260649</v>
-      </c>
+      <c r="M169" s="3"/>
+      <c r="N169" s="3"/>
       <c r="O169" s="4">
         <v>0.84813333333333329</v>
       </c>
@@ -11084,12 +11212,8 @@
       <c r="L170" s="3">
         <v>2</v>
       </c>
-      <c r="M170" s="3">
-        <v>14970</v>
-      </c>
-      <c r="N170" s="3">
-        <v>309760</v>
-      </c>
+      <c r="M170" s="3"/>
+      <c r="N170" s="3"/>
       <c r="O170" s="4">
         <v>0.76836666666666664</v>
       </c>
@@ -11131,12 +11255,8 @@
       <c r="L171" s="3">
         <v>1</v>
       </c>
-      <c r="M171" s="3">
-        <v>8832</v>
-      </c>
-      <c r="N171" s="3">
-        <v>298892</v>
-      </c>
+      <c r="M171" s="3"/>
+      <c r="N171" s="3"/>
       <c r="O171" s="4">
         <v>0.78303333333333336</v>
       </c>
@@ -11178,12 +11298,8 @@
       <c r="L172" s="3">
         <v>1</v>
       </c>
-      <c r="M172" s="3">
-        <v>7478</v>
-      </c>
-      <c r="N172" s="3">
-        <v>152415</v>
-      </c>
+      <c r="M172" s="3"/>
+      <c r="N172" s="3"/>
       <c r="O172" s="4">
         <v>0.9231666666666668</v>
       </c>
@@ -11225,12 +11341,8 @@
       <c r="L173" s="3">
         <v>0</v>
       </c>
-      <c r="M173" s="3">
-        <v>8288</v>
-      </c>
-      <c r="N173" s="3">
-        <v>271752</v>
-      </c>
+      <c r="M173" s="3"/>
+      <c r="N173" s="3"/>
       <c r="O173" s="4">
         <v>0.81823333333333326</v>
       </c>
@@ -11272,12 +11384,8 @@
       <c r="L174" s="3">
         <v>1</v>
       </c>
-      <c r="M174" s="3">
-        <v>10771</v>
-      </c>
-      <c r="N174" s="3">
-        <v>260613</v>
-      </c>
+      <c r="M174" s="3"/>
+      <c r="N174" s="3"/>
       <c r="O174" s="4">
         <v>0.69926666666666659</v>
       </c>
@@ -11319,12 +11427,8 @@
       <c r="L175" s="3">
         <v>0</v>
       </c>
-      <c r="M175" s="3">
-        <v>5382</v>
-      </c>
-      <c r="N175" s="3">
-        <v>95480</v>
-      </c>
+      <c r="M175" s="3"/>
+      <c r="N175" s="3"/>
       <c r="O175" s="4">
         <v>0.84826666666666661</v>
       </c>
@@ -11366,12 +11470,8 @@
       <c r="L176" s="3">
         <v>1</v>
       </c>
-      <c r="M176" s="3">
-        <v>14689</v>
-      </c>
-      <c r="N176" s="3">
-        <v>262953</v>
-      </c>
+      <c r="M176" s="3"/>
+      <c r="N176" s="3"/>
       <c r="O176" s="4">
         <v>0.9570333333333334</v>
       </c>
@@ -11413,12 +11513,8 @@
       <c r="L177" s="3">
         <v>1</v>
       </c>
-      <c r="M177" s="3">
-        <v>6592</v>
-      </c>
-      <c r="N177" s="3">
-        <v>176456</v>
-      </c>
+      <c r="M177" s="3"/>
+      <c r="N177" s="3"/>
       <c r="O177" s="4">
         <v>0.84409999999999996</v>
       </c>
@@ -11460,12 +11556,8 @@
       <c r="L178" s="3">
         <v>1</v>
       </c>
-      <c r="M178" s="3">
-        <v>5558</v>
-      </c>
-      <c r="N178" s="3">
-        <v>165770</v>
-      </c>
+      <c r="M178" s="3"/>
+      <c r="N178" s="3"/>
       <c r="O178" s="4">
         <v>0.80726666666666669</v>
       </c>
@@ -11507,12 +11599,8 @@
       <c r="L179" s="3">
         <v>1</v>
       </c>
-      <c r="M179" s="3">
-        <v>5224</v>
-      </c>
-      <c r="N179" s="3">
-        <v>169170</v>
-      </c>
+      <c r="M179" s="3"/>
+      <c r="N179" s="3"/>
       <c r="O179" s="4">
         <v>0.8075</v>
       </c>
@@ -11554,12 +11642,8 @@
       <c r="L180" s="3">
         <v>1</v>
       </c>
-      <c r="M180" s="3">
-        <v>7401</v>
-      </c>
-      <c r="N180" s="3">
-        <v>199265</v>
-      </c>
+      <c r="M180" s="3"/>
+      <c r="N180" s="3"/>
       <c r="O180" s="4">
         <v>0.87246666666666661</v>
       </c>
@@ -11601,12 +11685,8 @@
       <c r="L181" s="3">
         <v>1</v>
       </c>
-      <c r="M181" s="3">
-        <v>7726</v>
-      </c>
-      <c r="N181" s="3">
-        <v>211030</v>
-      </c>
+      <c r="M181" s="3"/>
+      <c r="N181" s="3"/>
       <c r="O181" s="4">
         <v>0.629</v>
       </c>
@@ -11648,12 +11728,8 @@
       <c r="L182" s="3">
         <v>1</v>
       </c>
-      <c r="M182" s="3">
-        <v>15898</v>
-      </c>
-      <c r="N182" s="3">
-        <v>282897</v>
-      </c>
+      <c r="M182" s="3"/>
+      <c r="N182" s="3"/>
       <c r="O182" s="4">
         <v>0.74366666666666681</v>
       </c>
@@ -11695,12 +11771,8 @@
       <c r="L183" s="3">
         <v>1</v>
       </c>
-      <c r="M183" s="3">
-        <v>5387</v>
-      </c>
-      <c r="N183" s="3">
-        <v>125708</v>
-      </c>
+      <c r="M183" s="3"/>
+      <c r="N183" s="3"/>
       <c r="O183" s="4">
         <v>0.89803333333333335</v>
       </c>
@@ -11742,12 +11814,8 @@
       <c r="L184" s="3">
         <v>1</v>
       </c>
-      <c r="M184" s="3">
-        <v>7119</v>
-      </c>
-      <c r="N184" s="3">
-        <v>174920</v>
-      </c>
+      <c r="M184" s="3"/>
+      <c r="N184" s="3"/>
       <c r="O184" s="4">
         <v>0.84883333333333333</v>
       </c>
@@ -11789,12 +11857,8 @@
       <c r="L185" s="3">
         <v>1</v>
       </c>
-      <c r="M185" s="3">
-        <v>10829</v>
-      </c>
-      <c r="N185" s="3">
-        <v>182367</v>
-      </c>
+      <c r="M185" s="3"/>
+      <c r="N185" s="3"/>
       <c r="O185" s="4">
         <v>0.69383333333333341</v>
       </c>
@@ -11836,12 +11900,8 @@
       <c r="L186" s="3">
         <v>0</v>
       </c>
-      <c r="M186" s="3">
-        <v>0</v>
-      </c>
-      <c r="N186" s="3">
-        <v>0</v>
-      </c>
+      <c r="M186" s="3"/>
+      <c r="N186" s="3"/>
       <c r="O186" s="4">
         <v>0</v>
       </c>
@@ -11883,12 +11943,8 @@
       <c r="L187" s="3">
         <v>1</v>
       </c>
-      <c r="M187" s="3">
-        <v>9705</v>
-      </c>
-      <c r="N187" s="3">
-        <v>186408</v>
-      </c>
+      <c r="M187" s="3"/>
+      <c r="N187" s="3"/>
       <c r="O187" s="4">
         <v>0.82743333333333335</v>
       </c>
@@ -11930,12 +11986,8 @@
       <c r="L188" s="3">
         <v>1</v>
       </c>
-      <c r="M188" s="3">
-        <v>6648</v>
-      </c>
-      <c r="N188" s="3">
-        <v>164736</v>
-      </c>
+      <c r="M188" s="3"/>
+      <c r="N188" s="3"/>
       <c r="O188" s="4">
         <v>0.52893333333333337</v>
       </c>
@@ -11977,12 +12029,8 @@
       <c r="L189" s="3">
         <v>2</v>
       </c>
-      <c r="M189" s="3">
-        <v>14573</v>
-      </c>
-      <c r="N189" s="3">
-        <v>340945</v>
-      </c>
+      <c r="M189" s="3"/>
+      <c r="N189" s="3"/>
       <c r="O189" s="4">
         <v>0.46706666666666669</v>
       </c>
@@ -12024,12 +12072,8 @@
       <c r="L190" s="3">
         <v>1</v>
       </c>
-      <c r="M190" s="3">
-        <v>7401</v>
-      </c>
-      <c r="N190" s="3">
-        <v>199265</v>
-      </c>
+      <c r="M190" s="3"/>
+      <c r="N190" s="3"/>
       <c r="O190" s="4">
         <v>0.87246666666666661</v>
       </c>
@@ -12071,12 +12115,8 @@
       <c r="L191" s="3">
         <v>1</v>
       </c>
-      <c r="M191" s="3">
-        <v>10167</v>
-      </c>
-      <c r="N191" s="3">
-        <v>249264</v>
-      </c>
+      <c r="M191" s="3"/>
+      <c r="N191" s="3"/>
       <c r="O191" s="4">
         <v>0.74896666666666667</v>
       </c>
@@ -12118,12 +12158,8 @@
       <c r="L192" s="3">
         <v>1</v>
       </c>
-      <c r="M192" s="3">
-        <v>7188</v>
-      </c>
-      <c r="N192" s="3">
-        <v>178870</v>
-      </c>
+      <c r="M192" s="3"/>
+      <c r="N192" s="3"/>
       <c r="O192" s="4">
         <v>0.90866666666666662</v>
       </c>
@@ -12165,12 +12201,8 @@
       <c r="L193" s="3">
         <v>1</v>
       </c>
-      <c r="M193" s="3">
-        <v>5691</v>
-      </c>
-      <c r="N193" s="3">
-        <v>162610</v>
-      </c>
+      <c r="M193" s="3"/>
+      <c r="N193" s="3"/>
       <c r="O193" s="4">
         <v>0.86666666666666659</v>
       </c>
@@ -12212,12 +12244,8 @@
       <c r="L194" s="3">
         <v>1</v>
       </c>
-      <c r="M194" s="3">
-        <v>7586</v>
-      </c>
-      <c r="N194" s="3">
-        <v>216414</v>
-      </c>
+      <c r="M194" s="3"/>
+      <c r="N194" s="3"/>
       <c r="O194" s="4">
         <v>0.80853333333333344</v>
       </c>
@@ -12259,12 +12287,8 @@
       <c r="L195" s="3">
         <v>0</v>
       </c>
-      <c r="M195" s="3">
-        <v>4285</v>
-      </c>
-      <c r="N195" s="3">
-        <v>99270</v>
-      </c>
+      <c r="M195" s="3"/>
+      <c r="N195" s="3"/>
       <c r="O195" s="4">
         <v>0.87236666666666662</v>
       </c>
@@ -12306,12 +12330,8 @@
       <c r="L196" s="3">
         <v>2</v>
       </c>
-      <c r="M196" s="3">
-        <v>14284</v>
-      </c>
-      <c r="N196" s="3">
-        <v>292370</v>
-      </c>
+      <c r="M196" s="3"/>
+      <c r="N196" s="3"/>
       <c r="O196" s="4">
         <v>0.77723333333333333</v>
       </c>
@@ -12353,12 +12373,8 @@
       <c r="L197" s="3">
         <v>1</v>
       </c>
-      <c r="M197" s="3">
-        <v>6555</v>
-      </c>
-      <c r="N197" s="3">
-        <v>142920</v>
-      </c>
+      <c r="M197" s="3"/>
+      <c r="N197" s="3"/>
       <c r="O197" s="4">
         <v>0.79956666666666665</v>
       </c>
@@ -12400,12 +12416,8 @@
       <c r="L198" s="3">
         <v>1</v>
       </c>
-      <c r="M198" s="3">
-        <v>5416</v>
-      </c>
-      <c r="N198" s="3">
-        <v>130768</v>
-      </c>
+      <c r="M198" s="3"/>
+      <c r="N198" s="3"/>
       <c r="O198" s="4">
         <v>0.93429999999999991</v>
       </c>
@@ -12447,12 +12459,8 @@
       <c r="L199" s="3">
         <v>0</v>
       </c>
-      <c r="M199" s="3">
-        <v>4108</v>
-      </c>
-      <c r="N199" s="3">
-        <v>96410</v>
-      </c>
+      <c r="M199" s="3"/>
+      <c r="N199" s="3"/>
       <c r="O199" s="4">
         <v>0.90083333333333326</v>
       </c>
@@ -12494,12 +12502,8 @@
       <c r="L200" s="3">
         <v>1</v>
       </c>
-      <c r="M200" s="3">
-        <v>4297</v>
-      </c>
-      <c r="N200" s="3">
-        <v>118690</v>
-      </c>
+      <c r="M200" s="3"/>
+      <c r="N200" s="3"/>
       <c r="O200" s="4">
         <v>0.82633333333333336</v>
       </c>
@@ -12541,12 +12545,8 @@
       <c r="L201" s="3">
         <v>1</v>
       </c>
-      <c r="M201" s="3">
-        <v>7567</v>
-      </c>
-      <c r="N201" s="3">
-        <v>196372</v>
-      </c>
+      <c r="M201" s="3"/>
+      <c r="N201" s="3"/>
       <c r="O201" s="4">
         <v>0.82363333333333333</v>
       </c>
@@ -12588,12 +12588,8 @@
       <c r="L202" s="3">
         <v>1</v>
       </c>
-      <c r="M202" s="3">
-        <v>5867</v>
-      </c>
-      <c r="N202" s="3">
-        <v>144720</v>
-      </c>
+      <c r="M202" s="3"/>
+      <c r="N202" s="3"/>
       <c r="O202" s="4">
         <v>0.75786666666666669</v>
       </c>
@@ -12635,12 +12631,8 @@
       <c r="L203" s="3">
         <v>1</v>
       </c>
-      <c r="M203" s="3">
-        <v>9387</v>
-      </c>
-      <c r="N203" s="3">
-        <v>183843</v>
-      </c>
+      <c r="M203" s="3"/>
+      <c r="N203" s="3"/>
       <c r="O203" s="4">
         <v>0.79393333333333338</v>
       </c>
@@ -12682,12 +12674,8 @@
       <c r="L204" s="3">
         <v>0</v>
       </c>
-      <c r="M204" s="3">
-        <v>0</v>
-      </c>
-      <c r="N204" s="3">
-        <v>0</v>
-      </c>
+      <c r="M204" s="3"/>
+      <c r="N204" s="3"/>
       <c r="O204" s="4">
         <v>0</v>
       </c>
@@ -12729,12 +12717,8 @@
       <c r="L205" s="3">
         <v>2</v>
       </c>
-      <c r="M205" s="3">
-        <v>6953</v>
-      </c>
-      <c r="N205" s="3">
-        <v>207449</v>
-      </c>
+      <c r="M205" s="3"/>
+      <c r="N205" s="3"/>
       <c r="O205" s="4">
         <v>0.82820000000000016</v>
       </c>
@@ -12776,12 +12760,8 @@
       <c r="L206" s="3">
         <v>1</v>
       </c>
-      <c r="M206" s="3">
-        <v>9877</v>
-      </c>
-      <c r="N206" s="3">
-        <v>172816</v>
-      </c>
+      <c r="M206" s="3"/>
+      <c r="N206" s="3"/>
       <c r="O206" s="4">
         <v>0.71383333333333343</v>
       </c>
@@ -12823,12 +12803,8 @@
       <c r="L207" s="3">
         <v>1</v>
       </c>
-      <c r="M207" s="3">
-        <v>10222</v>
-      </c>
-      <c r="N207" s="3">
-        <v>217512</v>
-      </c>
+      <c r="M207" s="3"/>
+      <c r="N207" s="3"/>
       <c r="O207" s="4">
         <v>0.73896666666666666</v>
       </c>
@@ -12870,12 +12846,8 @@
       <c r="L208" s="3">
         <v>0</v>
       </c>
-      <c r="M208" s="3">
-        <v>3834</v>
-      </c>
-      <c r="N208" s="3">
-        <v>137852</v>
-      </c>
+      <c r="M208" s="3"/>
+      <c r="N208" s="3"/>
       <c r="O208" s="4">
         <v>0.89659999999999995</v>
       </c>
@@ -12917,12 +12889,8 @@
       <c r="L209" s="3">
         <v>1</v>
       </c>
-      <c r="M209" s="3">
-        <v>8561</v>
-      </c>
-      <c r="N209" s="3">
-        <v>266480</v>
-      </c>
+      <c r="M209" s="3"/>
+      <c r="N209" s="3"/>
       <c r="O209" s="4">
         <v>0.78103333333333336</v>
       </c>
@@ -12964,12 +12932,8 @@
       <c r="L210" s="3">
         <v>0</v>
       </c>
-      <c r="M210" s="3">
-        <v>10204</v>
-      </c>
-      <c r="N210" s="3">
-        <v>232272</v>
-      </c>
+      <c r="M210" s="3"/>
+      <c r="N210" s="3"/>
       <c r="O210" s="4">
         <v>0.56140000000000001</v>
       </c>
@@ -13011,12 +12975,8 @@
       <c r="L211" s="3">
         <v>1</v>
       </c>
-      <c r="M211" s="3">
-        <v>8468</v>
-      </c>
-      <c r="N211" s="3">
-        <v>163134</v>
-      </c>
+      <c r="M211" s="3"/>
+      <c r="N211" s="3"/>
       <c r="O211" s="4">
         <v>0.74583333333333324</v>
       </c>
@@ -13058,12 +13018,8 @@
       <c r="L212" s="3">
         <v>1</v>
       </c>
-      <c r="M212" s="3">
-        <v>9833</v>
-      </c>
-      <c r="N212" s="3">
-        <v>188235</v>
-      </c>
+      <c r="M212" s="3"/>
+      <c r="N212" s="3"/>
       <c r="O212" s="4">
         <v>0.81213333333333326</v>
       </c>
@@ -13105,12 +13061,8 @@
       <c r="L213" s="3">
         <v>1</v>
       </c>
-      <c r="M213" s="3">
-        <v>9109</v>
-      </c>
-      <c r="N213" s="3">
-        <v>168696</v>
-      </c>
+      <c r="M213" s="3"/>
+      <c r="N213" s="3"/>
       <c r="O213" s="4">
         <v>0.75769999999999993</v>
       </c>
@@ -13152,12 +13104,8 @@
       <c r="L214" s="3">
         <v>1</v>
       </c>
-      <c r="M214" s="3">
-        <v>5902</v>
-      </c>
-      <c r="N214" s="3">
-        <v>165506</v>
-      </c>
+      <c r="M214" s="3"/>
+      <c r="N214" s="3"/>
       <c r="O214" s="4">
         <v>0.90206666666666668</v>
       </c>
@@ -13199,12 +13147,8 @@
       <c r="L215" s="3">
         <v>1</v>
       </c>
-      <c r="M215" s="3">
-        <v>12973</v>
-      </c>
-      <c r="N215" s="3">
-        <v>296330</v>
-      </c>
+      <c r="M215" s="3"/>
+      <c r="N215" s="3"/>
       <c r="O215" s="4">
         <v>0.86796666666666666</v>
       </c>
@@ -13246,12 +13190,8 @@
       <c r="L216" s="3">
         <v>1</v>
       </c>
-      <c r="M216" s="3">
-        <v>10466</v>
-      </c>
-      <c r="N216" s="3">
-        <v>234820</v>
-      </c>
+      <c r="M216" s="3"/>
+      <c r="N216" s="3"/>
       <c r="O216" s="4">
         <v>0.84439999999999993</v>
       </c>
@@ -13293,12 +13233,8 @@
       <c r="L217" s="3">
         <v>1</v>
       </c>
-      <c r="M217" s="3">
-        <v>11238</v>
-      </c>
-      <c r="N217" s="3">
-        <v>293964</v>
-      </c>
+      <c r="M217" s="3"/>
+      <c r="N217" s="3"/>
       <c r="O217" s="4">
         <v>0.83726666666666671</v>
       </c>
@@ -13340,12 +13276,8 @@
       <c r="L218" s="3">
         <v>0</v>
       </c>
-      <c r="M218" s="3">
-        <v>8054</v>
-      </c>
-      <c r="N218" s="3">
-        <v>179793</v>
-      </c>
+      <c r="M218" s="3"/>
+      <c r="N218" s="3"/>
       <c r="O218" s="4">
         <v>0.83789999999999998</v>
       </c>
@@ -13387,12 +13319,8 @@
       <c r="L219" s="3">
         <v>1</v>
       </c>
-      <c r="M219" s="3">
-        <v>8666</v>
-      </c>
-      <c r="N219" s="3">
-        <v>195894</v>
-      </c>
+      <c r="M219" s="3"/>
+      <c r="N219" s="3"/>
       <c r="O219" s="4">
         <v>0.81846666666666668</v>
       </c>
@@ -13434,12 +13362,8 @@
       <c r="L220" s="3">
         <v>1</v>
       </c>
-      <c r="M220" s="3">
-        <v>7987</v>
-      </c>
-      <c r="N220" s="3">
-        <v>281930</v>
-      </c>
+      <c r="M220" s="3"/>
+      <c r="N220" s="3"/>
       <c r="O220" s="4">
         <v>0.5323</v>
       </c>
@@ -13481,12 +13405,8 @@
       <c r="L221" s="3">
         <v>0</v>
       </c>
-      <c r="M221" s="3">
-        <v>3449</v>
-      </c>
-      <c r="N221" s="3">
-        <v>72576</v>
-      </c>
+      <c r="M221" s="3"/>
+      <c r="N221" s="3"/>
       <c r="O221" s="4">
         <v>0.91503333333333325</v>
       </c>
@@ -13528,12 +13448,8 @@
       <c r="L222" s="3">
         <v>1</v>
       </c>
-      <c r="M222" s="3">
-        <v>8222</v>
-      </c>
-      <c r="N222" s="3">
-        <v>198396</v>
-      </c>
+      <c r="M222" s="3"/>
+      <c r="N222" s="3"/>
       <c r="O222" s="4">
         <v>0.70393333333333341</v>
       </c>
@@ -13575,12 +13491,8 @@
       <c r="L223" s="3">
         <v>1</v>
       </c>
-      <c r="M223" s="3">
-        <v>4677</v>
-      </c>
-      <c r="N223" s="3">
-        <v>133639</v>
-      </c>
+      <c r="M223" s="3"/>
+      <c r="N223" s="3"/>
       <c r="O223" s="4">
         <v>0.94159999999999988</v>
       </c>
@@ -13622,12 +13534,8 @@
       <c r="L224" s="3">
         <v>0</v>
       </c>
-      <c r="M224" s="3">
-        <v>6841</v>
-      </c>
-      <c r="N224" s="3">
-        <v>151245</v>
-      </c>
+      <c r="M224" s="3"/>
+      <c r="N224" s="3"/>
       <c r="O224" s="4">
         <v>0.90613333333333335</v>
       </c>
@@ -13669,12 +13577,8 @@
       <c r="L225" s="3">
         <v>0</v>
       </c>
-      <c r="M225" s="3">
-        <v>5980</v>
-      </c>
-      <c r="N225" s="3">
-        <v>155353</v>
-      </c>
+      <c r="M225" s="3"/>
+      <c r="N225" s="3"/>
       <c r="O225" s="4">
         <v>0.75463333333333338</v>
       </c>
@@ -13716,12 +13620,8 @@
       <c r="L226" s="3">
         <v>2</v>
       </c>
-      <c r="M226" s="3">
-        <v>4107</v>
-      </c>
-      <c r="N226" s="3">
-        <v>91392</v>
-      </c>
+      <c r="M226" s="3"/>
+      <c r="N226" s="3"/>
       <c r="O226" s="4">
         <v>0.88519999999999988</v>
       </c>
@@ -13763,12 +13663,8 @@
       <c r="L227" s="3">
         <v>0</v>
       </c>
-      <c r="M227" s="3">
-        <v>0</v>
-      </c>
-      <c r="N227" s="3">
-        <v>0</v>
-      </c>
+      <c r="M227" s="3"/>
+      <c r="N227" s="3"/>
       <c r="O227" s="4">
         <v>0</v>
       </c>
@@ -13810,12 +13706,8 @@
       <c r="L228" s="3">
         <v>0</v>
       </c>
-      <c r="M228" s="3">
-        <v>4598</v>
-      </c>
-      <c r="N228" s="3">
-        <v>111663</v>
-      </c>
+      <c r="M228" s="3"/>
+      <c r="N228" s="3"/>
       <c r="O228" s="4">
         <v>0.95289999999999997</v>
       </c>
@@ -13857,12 +13749,8 @@
       <c r="L229" s="3">
         <v>0</v>
       </c>
-      <c r="M229" s="3">
-        <v>5012</v>
-      </c>
-      <c r="N229" s="3">
-        <v>124137</v>
-      </c>
+      <c r="M229" s="3"/>
+      <c r="N229" s="3"/>
       <c r="O229" s="4">
         <v>0.82810000000000006</v>
       </c>
@@ -13904,12 +13792,8 @@
       <c r="L230" s="3">
         <v>0</v>
       </c>
-      <c r="M230" s="3">
-        <v>3052</v>
-      </c>
-      <c r="N230" s="3">
-        <v>61584</v>
-      </c>
+      <c r="M230" s="3"/>
+      <c r="N230" s="3"/>
       <c r="O230" s="4">
         <v>0.874</v>
       </c>
@@ -13951,12 +13835,8 @@
       <c r="L231" s="3">
         <v>0</v>
       </c>
-      <c r="M231" s="3">
-        <v>4298</v>
-      </c>
-      <c r="N231" s="3">
-        <v>89104</v>
-      </c>
+      <c r="M231" s="3"/>
+      <c r="N231" s="3"/>
       <c r="O231" s="4">
         <v>0.93736666666666668</v>
       </c>
@@ -13998,12 +13878,8 @@
       <c r="L232" s="3">
         <v>1</v>
       </c>
-      <c r="M232" s="3">
-        <v>12986</v>
-      </c>
-      <c r="N232" s="3">
-        <v>324874</v>
-      </c>
+      <c r="M232" s="3"/>
+      <c r="N232" s="3"/>
       <c r="O232" s="4">
         <v>0.76293333333333335</v>
       </c>
@@ -14045,12 +13921,8 @@
       <c r="L233" s="3">
         <v>2</v>
       </c>
-      <c r="M233" s="3">
-        <v>15747</v>
-      </c>
-      <c r="N233" s="3">
-        <v>319770</v>
-      </c>
+      <c r="M233" s="3"/>
+      <c r="N233" s="3"/>
       <c r="O233" s="4">
         <v>0.88893333333333324</v>
       </c>
@@ -14092,12 +13964,8 @@
       <c r="L234" s="3">
         <v>0</v>
       </c>
-      <c r="M234" s="3">
-        <v>7096</v>
-      </c>
-      <c r="N234" s="3">
-        <v>250316</v>
-      </c>
+      <c r="M234" s="3"/>
+      <c r="N234" s="3"/>
       <c r="O234" s="4">
         <v>0.8978666666666667</v>
       </c>
@@ -14139,12 +14007,8 @@
       <c r="L235" s="3">
         <v>1</v>
       </c>
-      <c r="M235" s="3">
-        <v>7817</v>
-      </c>
-      <c r="N235" s="3">
-        <v>165910</v>
-      </c>
+      <c r="M235" s="3"/>
+      <c r="N235" s="3"/>
       <c r="O235" s="4">
         <v>0.79833333333333334</v>
       </c>
@@ -14186,12 +14050,8 @@
       <c r="L236" s="3">
         <v>1</v>
       </c>
-      <c r="M236" s="3">
-        <v>15827</v>
-      </c>
-      <c r="N236" s="3">
-        <v>399278</v>
-      </c>
+      <c r="M236" s="3"/>
+      <c r="N236" s="3"/>
       <c r="O236" s="4">
         <v>0.83453333333333335</v>
       </c>
@@ -14233,12 +14093,8 @@
       <c r="L237" s="3">
         <v>0</v>
       </c>
-      <c r="M237" s="3">
-        <v>4427</v>
-      </c>
-      <c r="N237" s="3">
-        <v>117480</v>
-      </c>
+      <c r="M237" s="3"/>
+      <c r="N237" s="3"/>
       <c r="O237" s="4">
         <v>0.93096666666666683</v>
       </c>
@@ -14280,12 +14136,8 @@
       <c r="L238" s="3">
         <v>2</v>
       </c>
-      <c r="M238" s="3">
-        <v>11275</v>
-      </c>
-      <c r="N238" s="3">
-        <v>189944</v>
-      </c>
+      <c r="M238" s="3"/>
+      <c r="N238" s="3"/>
       <c r="O238" s="4">
         <v>0.76463333333333328</v>
       </c>
@@ -14327,12 +14179,8 @@
       <c r="L239" s="3">
         <v>0</v>
       </c>
-      <c r="M239" s="3">
-        <v>5381</v>
-      </c>
-      <c r="N239" s="3">
-        <v>142130</v>
-      </c>
+      <c r="M239" s="3"/>
+      <c r="N239" s="3"/>
       <c r="O239" s="4">
         <v>0.81853333333333333</v>
       </c>
@@ -14374,12 +14222,8 @@
       <c r="L240" s="3">
         <v>1</v>
       </c>
-      <c r="M240" s="3">
-        <v>12195</v>
-      </c>
-      <c r="N240" s="3">
-        <v>238640</v>
-      </c>
+      <c r="M240" s="3"/>
+      <c r="N240" s="3"/>
       <c r="O240" s="4">
         <v>0.77459999999999996</v>
       </c>
@@ -14421,12 +14265,8 @@
       <c r="L241" s="3">
         <v>0</v>
       </c>
-      <c r="M241" s="3">
-        <v>0</v>
-      </c>
-      <c r="N241" s="3">
-        <v>0</v>
-      </c>
+      <c r="M241" s="3"/>
+      <c r="N241" s="3"/>
       <c r="O241" s="4">
         <v>0</v>
       </c>
@@ -14468,12 +14308,8 @@
       <c r="L242" s="3">
         <v>0</v>
       </c>
-      <c r="M242" s="3">
-        <v>0</v>
-      </c>
-      <c r="N242" s="3">
-        <v>0</v>
-      </c>
+      <c r="M242" s="3"/>
+      <c r="N242" s="3"/>
       <c r="O242" s="4">
         <v>0</v>
       </c>
@@ -14515,12 +14351,8 @@
       <c r="L243" s="3">
         <v>0</v>
       </c>
-      <c r="M243" s="3">
-        <v>0</v>
-      </c>
-      <c r="N243" s="3">
-        <v>0</v>
-      </c>
+      <c r="M243" s="3"/>
+      <c r="N243" s="3"/>
       <c r="O243" s="4">
         <v>0</v>
       </c>
@@ -14562,12 +14394,8 @@
       <c r="L244" s="3">
         <v>1</v>
       </c>
-      <c r="M244" s="3">
-        <v>6862</v>
-      </c>
-      <c r="N244" s="3">
-        <v>199755</v>
-      </c>
+      <c r="M244" s="3"/>
+      <c r="N244" s="3"/>
       <c r="O244" s="4">
         <v>0.70330000000000004</v>
       </c>
@@ -14609,12 +14437,8 @@
       <c r="L245" s="3">
         <v>2</v>
       </c>
-      <c r="M245" s="3">
-        <v>12816</v>
-      </c>
-      <c r="N245" s="3">
-        <v>286550</v>
-      </c>
+      <c r="M245" s="3"/>
+      <c r="N245" s="3"/>
       <c r="O245" s="4">
         <v>0.7329</v>
       </c>
@@ -14656,12 +14480,8 @@
       <c r="L246" s="3">
         <v>1</v>
       </c>
-      <c r="M246" s="3">
-        <v>13527</v>
-      </c>
-      <c r="N246" s="3">
-        <v>380897</v>
-      </c>
+      <c r="M246" s="3"/>
+      <c r="N246" s="3"/>
       <c r="O246" s="4">
         <v>0.75890000000000002</v>
       </c>
@@ -14703,12 +14523,8 @@
       <c r="L247" s="3">
         <v>1</v>
       </c>
-      <c r="M247" s="3">
-        <v>12109</v>
-      </c>
-      <c r="N247" s="3">
-        <v>376356</v>
-      </c>
+      <c r="M247" s="3"/>
+      <c r="N247" s="3"/>
       <c r="O247" s="4">
         <v>0.7714333333333333</v>
       </c>
@@ -14750,12 +14566,8 @@
       <c r="L248" s="3">
         <v>2</v>
       </c>
-      <c r="M248" s="3">
-        <v>8772</v>
-      </c>
-      <c r="N248" s="3">
-        <v>202092</v>
-      </c>
+      <c r="M248" s="3"/>
+      <c r="N248" s="3"/>
       <c r="O248" s="4">
         <v>0.63583333333333336</v>
       </c>
@@ -14797,12 +14609,8 @@
       <c r="L249" s="3">
         <v>1</v>
       </c>
-      <c r="M249" s="3">
-        <v>9741</v>
-      </c>
-      <c r="N249" s="3">
-        <v>241480</v>
-      </c>
+      <c r="M249" s="3"/>
+      <c r="N249" s="3"/>
       <c r="O249" s="4">
         <v>0.52283333333333337</v>
       </c>
@@ -14844,12 +14652,8 @@
       <c r="L250" s="3">
         <v>1</v>
       </c>
-      <c r="M250" s="3">
-        <v>9090</v>
-      </c>
-      <c r="N250" s="3">
-        <v>225468</v>
-      </c>
+      <c r="M250" s="3"/>
+      <c r="N250" s="3"/>
       <c r="O250" s="4">
         <v>0.69603333333333328</v>
       </c>
@@ -14891,12 +14695,8 @@
       <c r="L251" s="3">
         <v>1</v>
       </c>
-      <c r="M251" s="3">
-        <v>13544</v>
-      </c>
-      <c r="N251" s="3">
-        <v>285777</v>
-      </c>
+      <c r="M251" s="3"/>
+      <c r="N251" s="3"/>
       <c r="O251" s="4">
         <v>0.80256666666666676</v>
       </c>
@@ -14938,12 +14738,8 @@
       <c r="L252" s="3">
         <v>2</v>
       </c>
-      <c r="M252" s="3">
-        <v>15567</v>
-      </c>
-      <c r="N252" s="3">
-        <v>288207</v>
-      </c>
+      <c r="M252" s="3"/>
+      <c r="N252" s="3"/>
       <c r="O252" s="4">
         <v>0.65016666666666667</v>
       </c>
@@ -14985,12 +14781,8 @@
       <c r="L253" s="3">
         <v>0</v>
       </c>
-      <c r="M253" s="3">
-        <v>0</v>
-      </c>
-      <c r="N253" s="3">
-        <v>0</v>
-      </c>
+      <c r="M253" s="3"/>
+      <c r="N253" s="3"/>
       <c r="O253" s="4">
         <v>0</v>
       </c>
@@ -15032,12 +14824,8 @@
       <c r="L254" s="3">
         <v>0</v>
       </c>
-      <c r="M254" s="3">
-        <v>6853</v>
-      </c>
-      <c r="N254" s="3">
-        <v>138448</v>
-      </c>
+      <c r="M254" s="3"/>
+      <c r="N254" s="3"/>
       <c r="O254" s="4">
         <v>0.73796666666666677</v>
       </c>
@@ -15079,12 +14867,8 @@
       <c r="L255" s="3">
         <v>1</v>
       </c>
-      <c r="M255" s="3">
-        <v>8998</v>
-      </c>
-      <c r="N255" s="3">
-        <v>247950</v>
-      </c>
+      <c r="M255" s="3"/>
+      <c r="N255" s="3"/>
       <c r="O255" s="4">
         <v>0.77500000000000002</v>
       </c>
@@ -15126,12 +14910,8 @@
       <c r="L256" s="3">
         <v>2</v>
       </c>
-      <c r="M256" s="3">
-        <v>13152</v>
-      </c>
-      <c r="N256" s="3">
-        <v>227268</v>
-      </c>
+      <c r="M256" s="3"/>
+      <c r="N256" s="3"/>
       <c r="O256" s="4">
         <v>0.73196666666666665</v>
       </c>
@@ -15173,12 +14953,8 @@
       <c r="L257" s="3">
         <v>1</v>
       </c>
-      <c r="M257" s="3">
-        <v>8973</v>
-      </c>
-      <c r="N257" s="3">
-        <v>170704</v>
-      </c>
+      <c r="M257" s="3"/>
+      <c r="N257" s="3"/>
       <c r="O257" s="4">
         <v>0.77246666666666652</v>
       </c>
@@ -15220,12 +14996,8 @@
       <c r="L258" s="3">
         <v>1</v>
       </c>
-      <c r="M258" s="3">
-        <v>9490</v>
-      </c>
-      <c r="N258" s="3">
-        <v>225690</v>
-      </c>
+      <c r="M258" s="3"/>
+      <c r="N258" s="3"/>
       <c r="O258" s="4">
         <v>0.82769999999999999</v>
       </c>
@@ -15267,12 +15039,8 @@
       <c r="L259" s="3">
         <v>1</v>
       </c>
-      <c r="M259" s="3">
-        <v>2986</v>
-      </c>
-      <c r="N259" s="3">
-        <v>52695</v>
-      </c>
+      <c r="M259" s="3"/>
+      <c r="N259" s="3"/>
       <c r="O259" s="4">
         <v>0.96063333333333334</v>
       </c>
@@ -15314,12 +15082,8 @@
       <c r="L260" s="3">
         <v>2</v>
       </c>
-      <c r="M260" s="3">
-        <v>5095</v>
-      </c>
-      <c r="N260" s="3">
-        <v>114350</v>
-      </c>
+      <c r="M260" s="3"/>
+      <c r="N260" s="3"/>
       <c r="O260" s="4">
         <v>0.8469000000000001</v>
       </c>
@@ -15361,12 +15125,8 @@
       <c r="L261" s="3">
         <v>2</v>
       </c>
-      <c r="M261" s="3">
-        <v>9838</v>
-      </c>
-      <c r="N261" s="3">
-        <v>327396</v>
-      </c>
+      <c r="M261" s="3"/>
+      <c r="N261" s="3"/>
       <c r="O261" s="4">
         <v>0.78946666666666665</v>
       </c>
@@ -15408,12 +15168,8 @@
       <c r="L262" s="3">
         <v>0</v>
       </c>
-      <c r="M262" s="3">
-        <v>4617</v>
-      </c>
-      <c r="N262" s="3">
-        <v>148230</v>
-      </c>
+      <c r="M262" s="3"/>
+      <c r="N262" s="3"/>
       <c r="O262" s="4">
         <v>0.81289999999999996</v>
       </c>
@@ -15455,12 +15211,8 @@
       <c r="L263" s="3">
         <v>2</v>
       </c>
-      <c r="M263" s="3">
-        <v>13093</v>
-      </c>
-      <c r="N263" s="3">
-        <v>241164</v>
-      </c>
+      <c r="M263" s="3"/>
+      <c r="N263" s="3"/>
       <c r="O263" s="4">
         <v>0.73816666666666675</v>
       </c>
@@ -15502,12 +15254,8 @@
       <c r="L264" s="3">
         <v>1</v>
       </c>
-      <c r="M264" s="3">
-        <v>8576</v>
-      </c>
-      <c r="N264" s="3">
-        <v>183699</v>
-      </c>
+      <c r="M264" s="3"/>
+      <c r="N264" s="3"/>
       <c r="O264" s="4">
         <v>0.91103333333333325</v>
       </c>
@@ -15549,12 +15297,8 @@
       <c r="L265" s="3">
         <v>1</v>
       </c>
-      <c r="M265" s="3">
-        <v>2</v>
-      </c>
-      <c r="N265" s="3">
-        <v>2</v>
-      </c>
+      <c r="M265" s="3"/>
+      <c r="N265" s="3"/>
       <c r="O265" s="4">
         <v>1</v>
       </c>
@@ -15596,12 +15340,8 @@
       <c r="L266" s="3">
         <v>0</v>
       </c>
-      <c r="M266" s="3">
-        <v>2091</v>
-      </c>
-      <c r="N266" s="3">
-        <v>32776</v>
-      </c>
+      <c r="M266" s="3"/>
+      <c r="N266" s="3"/>
       <c r="O266" s="4">
         <v>0.9710333333333333</v>
       </c>
@@ -15643,12 +15383,8 @@
       <c r="L267" s="3">
         <v>1</v>
       </c>
-      <c r="M267" s="3">
-        <v>11849</v>
-      </c>
-      <c r="N267" s="3">
-        <v>226548</v>
-      </c>
+      <c r="M267" s="3"/>
+      <c r="N267" s="3"/>
       <c r="O267" s="4">
         <v>0.78206666666666669</v>
       </c>
@@ -15690,12 +15426,8 @@
       <c r="L268" s="3">
         <v>1</v>
       </c>
-      <c r="M268" s="3">
-        <v>8754</v>
-      </c>
-      <c r="N268" s="3">
-        <v>198800</v>
-      </c>
+      <c r="M268" s="3"/>
+      <c r="N268" s="3"/>
       <c r="O268" s="4">
         <v>0.86673333333333336</v>
       </c>
@@ -15737,12 +15469,8 @@
       <c r="L269" s="3">
         <v>0</v>
       </c>
-      <c r="M269" s="3">
-        <v>7583</v>
-      </c>
-      <c r="N269" s="3">
-        <v>162830</v>
-      </c>
+      <c r="M269" s="3"/>
+      <c r="N269" s="3"/>
       <c r="O269" s="4">
         <v>0.91523333333333323</v>
       </c>
@@ -15784,12 +15512,8 @@
       <c r="L270" s="3">
         <v>1</v>
       </c>
-      <c r="M270" s="3">
-        <v>13104</v>
-      </c>
-      <c r="N270" s="3">
-        <v>248850</v>
-      </c>
+      <c r="M270" s="3"/>
+      <c r="N270" s="3"/>
       <c r="O270" s="4">
         <v>0.76396666666666668</v>
       </c>
@@ -15831,12 +15555,8 @@
       <c r="L271" s="3">
         <v>0</v>
       </c>
-      <c r="M271" s="3">
-        <v>3267</v>
-      </c>
-      <c r="N271" s="3">
-        <v>58100</v>
-      </c>
+      <c r="M271" s="3"/>
+      <c r="N271" s="3"/>
       <c r="O271" s="4">
         <v>0.82820000000000016</v>
       </c>
@@ -15878,14 +15598,2933 @@
       <c r="L272" s="3">
         <v>1</v>
       </c>
-      <c r="M272" s="3">
-        <v>6776</v>
-      </c>
-      <c r="N272" s="3">
-        <v>209547</v>
-      </c>
+      <c r="M272" s="3"/>
+      <c r="N272" s="3"/>
       <c r="O272" s="4">
         <v>0.78956666666666664</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C264"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="B2" s="6">
+        <v>865.77777777777783</v>
+      </c>
+      <c r="C2" s="6">
+        <v>6519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="B3" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C3" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="B4" s="6">
+        <v>875.81818181818187</v>
+      </c>
+      <c r="C4" s="6">
+        <v>5142.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B5" s="6">
+        <v>701.4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B6" s="6">
+        <v>864.5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4294.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="B7" s="6">
+        <v>77.571428571428569</v>
+      </c>
+      <c r="C7" s="6">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="B8" s="6">
+        <v>862</v>
+      </c>
+      <c r="C8" s="6">
+        <v>4689.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="B9" s="6">
+        <v>679.75</v>
+      </c>
+      <c r="C9" s="6">
+        <v>4191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1131.4000000000001</v>
+      </c>
+      <c r="C10" s="6">
+        <v>6708.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1314.2</v>
+      </c>
+      <c r="C11" s="6">
+        <v>6900.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1276.5999999999999</v>
+      </c>
+      <c r="C12" s="6">
+        <v>6859.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1385.4444444444443</v>
+      </c>
+      <c r="C13" s="6">
+        <v>7590.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="B14" s="6">
+        <v>921.3</v>
+      </c>
+      <c r="C14" s="6">
+        <v>5469.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="B15" s="6">
+        <v>811.66666666666663</v>
+      </c>
+      <c r="C15" s="6">
+        <v>6118.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="B16" s="6">
+        <v>579.20000000000005</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3108.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="B17" s="6">
+        <v>932.5</v>
+      </c>
+      <c r="C17" s="6">
+        <v>5190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1107.1818181818182</v>
+      </c>
+      <c r="C18" s="6">
+        <v>7408.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="B19" s="6">
+        <v>782.3</v>
+      </c>
+      <c r="C19" s="6">
+        <v>4616.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="B20" s="6">
+        <v>513.29999999999995</v>
+      </c>
+      <c r="C20" s="6">
+        <v>3274.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="B21" s="6">
+        <v>920.2</v>
+      </c>
+      <c r="C21" s="6">
+        <v>4864.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="B22" s="6">
+        <v>791.8</v>
+      </c>
+      <c r="C22" s="6">
+        <v>4744</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="B23" s="6">
+        <v>815.9</v>
+      </c>
+      <c r="C23" s="6">
+        <v>5435.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1101.75</v>
+      </c>
+      <c r="C24" s="6">
+        <v>4818.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="B25" s="6">
+        <v>1605</v>
+      </c>
+      <c r="C25" s="6">
+        <v>8981.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="B26" s="6">
+        <v>716.6</v>
+      </c>
+      <c r="C26" s="6">
+        <v>3749.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="B27" s="6">
+        <v>713.77777777777783</v>
+      </c>
+      <c r="C27" s="6">
+        <v>4446</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="B28" s="6">
+        <v>428.77777777777777</v>
+      </c>
+      <c r="C28" s="6">
+        <v>3087.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1417.6</v>
+      </c>
+      <c r="C30" s="6">
+        <v>7668.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="B31" s="6">
+        <v>672.81818181818187</v>
+      </c>
+      <c r="C31" s="6">
+        <v>4528.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="B32" s="6">
+        <v>668.72727272727275</v>
+      </c>
+      <c r="C32" s="6">
+        <v>3916.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="B33" s="6">
+        <v>1952.5555555555557</v>
+      </c>
+      <c r="C33" s="6">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="B34" s="6">
+        <v>1189.1111111111111</v>
+      </c>
+      <c r="C34" s="6">
+        <v>6155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="B35" s="6">
+        <v>1322.625</v>
+      </c>
+      <c r="C35" s="6">
+        <v>5230.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="B36" s="6">
+        <v>904.11111111111109</v>
+      </c>
+      <c r="C36" s="6">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="B37" s="6">
+        <v>702.9</v>
+      </c>
+      <c r="C37" s="6">
+        <v>4408.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="B38" s="6">
+        <v>261.25</v>
+      </c>
+      <c r="C38" s="6">
+        <v>1405.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="B39" s="6">
+        <v>1350.1111111111111</v>
+      </c>
+      <c r="C39" s="6">
+        <v>6460.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="B40" s="6">
+        <v>1481.7272727272727</v>
+      </c>
+      <c r="C40" s="6">
+        <v>8411.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="B41" s="6">
+        <v>693.11111111111109</v>
+      </c>
+      <c r="C41" s="6">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="B42" s="6">
+        <v>1344.375</v>
+      </c>
+      <c r="C42" s="6">
+        <v>5794.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="B43" s="6">
+        <v>782.4</v>
+      </c>
+      <c r="C43" s="6">
+        <v>5673.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="B44" s="6">
+        <v>1038.6666666666667</v>
+      </c>
+      <c r="C44" s="6">
+        <v>5266.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="B45" s="6">
+        <v>1072.1818181818182</v>
+      </c>
+      <c r="C45" s="6">
+        <v>6474.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="B46" s="6">
+        <v>1218</v>
+      </c>
+      <c r="C46" s="6">
+        <v>5387.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="B47" s="6">
+        <v>1349.3333333333333</v>
+      </c>
+      <c r="C47" s="6">
+        <v>8152.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="B48" s="6">
+        <v>1224.2857142857142</v>
+      </c>
+      <c r="C48" s="6">
+        <v>4459.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="B49" s="6">
+        <v>1002.6666666666666</v>
+      </c>
+      <c r="C49" s="6">
+        <v>5772.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="B50" s="6">
+        <v>690</v>
+      </c>
+      <c r="C50" s="6">
+        <v>3814.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="B51" s="6">
+        <v>1134.6363636363637</v>
+      </c>
+      <c r="C51" s="6">
+        <v>6654.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>944</v>
+      </c>
+      <c r="B52" s="6">
+        <v>925.33333333333337</v>
+      </c>
+      <c r="C52" s="6">
+        <v>6269.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="B53" s="6">
+        <v>843.9</v>
+      </c>
+      <c r="C53" s="6">
+        <v>4737.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="B54" s="6">
+        <v>916.77777777777783</v>
+      </c>
+      <c r="C54" s="6">
+        <v>4822.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>947</v>
+      </c>
+      <c r="B55" s="6">
+        <v>870.9</v>
+      </c>
+      <c r="C55" s="6">
+        <v>5060</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="B56" s="6">
+        <v>700.1</v>
+      </c>
+      <c r="C56" s="6">
+        <v>4264.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="B57" s="6">
+        <v>1206.6363636363637</v>
+      </c>
+      <c r="C57" s="6">
+        <v>7451.75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>950</v>
+      </c>
+      <c r="B58" s="6">
+        <v>1</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="B59" s="6">
+        <v>718.8</v>
+      </c>
+      <c r="C59" s="6">
+        <v>4471.75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="B60" s="6">
+        <v>1278.090909090909</v>
+      </c>
+      <c r="C60" s="6">
+        <v>7892</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="B61" s="6">
+        <v>507.125</v>
+      </c>
+      <c r="C61" s="6">
+        <v>2413.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="B62" s="6">
+        <v>651.75</v>
+      </c>
+      <c r="C62" s="6">
+        <v>5371</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>955</v>
+      </c>
+      <c r="B63" s="6">
+        <v>698.6</v>
+      </c>
+      <c r="C63" s="6">
+        <v>4372.25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="B64" s="6">
+        <v>656.55555555555554</v>
+      </c>
+      <c r="C64" s="6">
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="B65" s="6">
+        <v>797.2</v>
+      </c>
+      <c r="C65" s="6">
+        <v>4576.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="B66" s="6">
+        <v>731.3</v>
+      </c>
+      <c r="C66" s="6">
+        <v>4662.75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="B67" s="6">
+        <v>16.285714285714285</v>
+      </c>
+      <c r="C67" s="6">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="B68" s="6">
+        <v>390.63636363636363</v>
+      </c>
+      <c r="C68" s="6">
+        <v>2697.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="B69" s="6">
+        <v>454.3</v>
+      </c>
+      <c r="C69" s="6">
+        <v>2649.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="B70" s="6">
+        <v>621.79999999999995</v>
+      </c>
+      <c r="C70" s="6">
+        <v>3414.75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>963</v>
+      </c>
+      <c r="B71" s="6">
+        <v>1878.5</v>
+      </c>
+      <c r="C71" s="6">
+        <v>8971.75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="B72" s="6">
+        <v>1768.9</v>
+      </c>
+      <c r="C72" s="6">
+        <v>8905.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="B73" s="6">
+        <v>717.25</v>
+      </c>
+      <c r="C73" s="6">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="B74" s="6">
+        <v>1036.2</v>
+      </c>
+      <c r="C74" s="6">
+        <v>5598.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="B75" s="6">
+        <v>589.27272727272725</v>
+      </c>
+      <c r="C75" s="6">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="B76" s="6">
+        <v>632.09090909090912</v>
+      </c>
+      <c r="C76" s="6">
+        <v>4714.75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="B77" s="6">
+        <v>348.54545454545456</v>
+      </c>
+      <c r="C77" s="6">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="B78" s="6">
+        <v>1027.5</v>
+      </c>
+      <c r="C78" s="6">
+        <v>5244.75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="B79" s="6">
+        <v>1259.4000000000001</v>
+      </c>
+      <c r="C79" s="6">
+        <v>7102.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="B80" s="6">
+        <v>1703.909090909091</v>
+      </c>
+      <c r="C80" s="6">
+        <v>9182.25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="B81" s="6">
+        <v>536.5454545454545</v>
+      </c>
+      <c r="C81" s="6">
+        <v>3761.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="B82" s="6">
+        <v>632.72727272727275</v>
+      </c>
+      <c r="C82" s="6">
+        <v>4799</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="B83" s="6">
+        <v>1629.2727272727273</v>
+      </c>
+      <c r="C83" s="6">
+        <v>9118.75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="B84" s="6">
+        <v>332.25</v>
+      </c>
+      <c r="C84" s="6">
+        <v>2434.75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="B85" s="6">
+        <v>375.22222222222223</v>
+      </c>
+      <c r="C85" s="6">
+        <v>2551.25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="B86" s="6">
+        <v>745.25</v>
+      </c>
+      <c r="C86" s="6">
+        <v>3339.25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="B87" s="6">
+        <v>356.3</v>
+      </c>
+      <c r="C87" s="6">
+        <v>2735.25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="B88" s="6">
+        <v>1717</v>
+      </c>
+      <c r="C88" s="6">
+        <v>12618.75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B89" s="6">
+        <v>1238.4444444444443</v>
+      </c>
+      <c r="C89" s="6">
+        <v>6624.25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="B90" s="6">
+        <v>1154.6363636363637</v>
+      </c>
+      <c r="C90" s="6">
+        <v>9562</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="B91" s="6">
+        <v>864.1</v>
+      </c>
+      <c r="C91" s="6">
+        <v>6531.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="B92" s="6">
+        <v>137</v>
+      </c>
+      <c r="C92" s="6">
+        <v>817.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B93" s="6">
+        <v>670.4</v>
+      </c>
+      <c r="C93" s="6">
+        <v>4750.25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="B94" s="6">
+        <v>853.55555555555554</v>
+      </c>
+      <c r="C94" s="6">
+        <v>4914.75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="B95" s="6">
+        <v>1077.5</v>
+      </c>
+      <c r="C95" s="6">
+        <v>6976</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="B96" s="6">
+        <v>1283.0999999999999</v>
+      </c>
+      <c r="C96" s="6">
+        <v>7688.25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="B97" s="6">
+        <v>737.9</v>
+      </c>
+      <c r="C97" s="6">
+        <v>5661</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="B98" s="6">
+        <v>1643.6363636363637</v>
+      </c>
+      <c r="C98" s="6">
+        <v>11162.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="B99" s="6">
+        <v>1322.2222222222222</v>
+      </c>
+      <c r="C99" s="6">
+        <v>6282.25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="B100" s="6">
+        <v>1192.090909090909</v>
+      </c>
+      <c r="C100" s="6">
+        <v>9421.75</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="B101" s="6">
+        <v>2169.9</v>
+      </c>
+      <c r="C101" s="6">
+        <v>12955</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="B102" s="6">
+        <v>1048</v>
+      </c>
+      <c r="C102" s="6">
+        <v>5900.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="B103" s="6">
+        <v>529.77777777777783</v>
+      </c>
+      <c r="C103" s="6">
+        <v>4620.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="B104" s="6">
+        <v>757.3</v>
+      </c>
+      <c r="C104" s="6">
+        <v>5080.25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="B105" s="6">
+        <v>1197.0999999999999</v>
+      </c>
+      <c r="C105" s="6">
+        <v>9066.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="B106" s="6">
+        <v>1291.75</v>
+      </c>
+      <c r="C106" s="6">
+        <v>7027</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="B107" s="6">
+        <v>591.66666666666663</v>
+      </c>
+      <c r="C107" s="6">
+        <v>4051.25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B108" s="6">
+        <v>1620.6</v>
+      </c>
+      <c r="C108" s="6">
+        <v>12392.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B109" s="6">
+        <v>1019.7</v>
+      </c>
+      <c r="C109" s="6">
+        <v>6186.75</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B110" s="6">
+        <v>1424.375</v>
+      </c>
+      <c r="C110" s="6">
+        <v>6206.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B111" s="6">
+        <v>1987.1</v>
+      </c>
+      <c r="C111" s="6">
+        <v>10994</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B112" s="6">
+        <v>618.625</v>
+      </c>
+      <c r="C112" s="6">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B113" s="6">
+        <v>1445.7</v>
+      </c>
+      <c r="C113" s="6">
+        <v>8104</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B114" s="6">
+        <v>548.66666666666663</v>
+      </c>
+      <c r="C114" s="6">
+        <v>4583</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B115" s="6">
+        <v>2414.125</v>
+      </c>
+      <c r="C115" s="6">
+        <v>10739</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B116" s="6">
+        <v>1011.2</v>
+      </c>
+      <c r="C116" s="6">
+        <v>5849.75</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B117" s="6">
+        <v>436.75</v>
+      </c>
+      <c r="C117" s="6">
+        <v>2754.25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B118" s="6">
+        <v>856.77777777777783</v>
+      </c>
+      <c r="C118" s="6">
+        <v>6254.25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B119" s="6">
+        <v>610.81818181818187</v>
+      </c>
+      <c r="C119" s="6">
+        <v>4331.25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B120" s="6">
+        <v>1186.5</v>
+      </c>
+      <c r="C120" s="6">
+        <v>7832</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B121" s="6">
+        <v>904</v>
+      </c>
+      <c r="C121" s="6">
+        <v>5025.25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B122" s="6">
+        <v>1006.9</v>
+      </c>
+      <c r="C122" s="6">
+        <v>6889.25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B123" s="6">
+        <v>2498.2222222222222</v>
+      </c>
+      <c r="C123" s="6">
+        <v>14777.75</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B124" s="6">
+        <v>1206.6666666666667</v>
+      </c>
+      <c r="C124" s="6">
+        <v>6832.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B125" s="6">
+        <v>817.625</v>
+      </c>
+      <c r="C125" s="6">
+        <v>3761</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B126" s="6">
+        <v>1201.0999999999999</v>
+      </c>
+      <c r="C126" s="6">
+        <v>5947.75</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B127" s="6">
+        <v>1140.3333333333333</v>
+      </c>
+      <c r="C127" s="6">
+        <v>4913.75</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B128" s="6">
+        <v>851.6</v>
+      </c>
+      <c r="C128" s="6">
+        <v>5749</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B129" s="6">
+        <v>1264.5</v>
+      </c>
+      <c r="C129" s="6">
+        <v>4932</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B130" s="6">
+        <v>934.4</v>
+      </c>
+      <c r="C130" s="6">
+        <v>4665.25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B131" s="6">
+        <v>1059.5999999999999</v>
+      </c>
+      <c r="C131" s="6">
+        <v>7063.75</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B132" s="6">
+        <v>1300.3</v>
+      </c>
+      <c r="C132" s="6">
+        <v>6677</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B133" s="6">
+        <v>1593.625</v>
+      </c>
+      <c r="C133" s="6">
+        <v>8724.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B134" s="6">
+        <v>1240.5</v>
+      </c>
+      <c r="C134" s="6">
+        <v>6277.25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B135" s="6">
+        <v>638.22222222222217</v>
+      </c>
+      <c r="C135" s="6">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B136" s="6">
+        <v>624.22222222222217</v>
+      </c>
+      <c r="C136" s="6">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B137" s="6">
+        <v>634.33333333333337</v>
+      </c>
+      <c r="C137" s="6">
+        <v>3831</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B138" s="6">
+        <v>1084</v>
+      </c>
+      <c r="C138" s="6">
+        <v>6496.75</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B139" s="6">
+        <v>920.3</v>
+      </c>
+      <c r="C139" s="6">
+        <v>4437.25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B140" s="6">
+        <v>1372.3333333333333</v>
+      </c>
+      <c r="C140" s="6">
+        <v>10061.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B141" s="6">
+        <v>1375.6666666666667</v>
+      </c>
+      <c r="C141" s="6">
+        <v>6546.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B142" s="6">
+        <v>1020.375</v>
+      </c>
+      <c r="C142" s="6">
+        <v>4727.75</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B143" s="6">
+        <v>869.77777777777783</v>
+      </c>
+      <c r="C143" s="6">
+        <v>5261</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B144" s="6">
+        <v>685.08333333333337</v>
+      </c>
+      <c r="C144" s="6">
+        <v>6099.25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B145" s="6">
+        <v>1304.25</v>
+      </c>
+      <c r="C145" s="6">
+        <v>6526.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B146" s="6">
+        <v>735.27272727272725</v>
+      </c>
+      <c r="C146" s="6">
+        <v>5916</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B147" s="6">
+        <v>1584.2222222222222</v>
+      </c>
+      <c r="C147" s="6">
+        <v>9282.25</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B148" s="6">
+        <v>1791.4444444444443</v>
+      </c>
+      <c r="C148" s="6">
+        <v>10317</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B149" s="6">
+        <v>949</v>
+      </c>
+      <c r="C149" s="6">
+        <v>6339</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B150" s="6">
+        <v>1604.5</v>
+      </c>
+      <c r="C150" s="6">
+        <v>7826.75</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B151" s="6">
+        <v>1282.625</v>
+      </c>
+      <c r="C151" s="6">
+        <v>7609.25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B152" s="6">
+        <v>2123.6</v>
+      </c>
+      <c r="C152" s="6">
+        <v>9950.25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B153" s="6">
+        <v>2683</v>
+      </c>
+      <c r="C153" s="6">
+        <v>17360</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B154" s="6">
+        <v>568.4</v>
+      </c>
+      <c r="C154" s="6">
+        <v>3485.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B155" s="6">
+        <v>1089.8</v>
+      </c>
+      <c r="C155" s="6">
+        <v>6835.5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B156" s="6">
+        <v>837.875</v>
+      </c>
+      <c r="C156" s="6">
+        <v>4699</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B157" s="6">
+        <v>669.22222222222217</v>
+      </c>
+      <c r="C157" s="6">
+        <v>4169</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B158" s="6">
+        <v>1618.1111111111111</v>
+      </c>
+      <c r="C158" s="6">
+        <v>9926</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B159" s="6">
+        <v>900.55555555555554</v>
+      </c>
+      <c r="C159" s="6">
+        <v>5842.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B160" s="6">
+        <v>474.3</v>
+      </c>
+      <c r="C160" s="6">
+        <v>3993.25</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B161" s="6">
+        <v>1728.9166666666667</v>
+      </c>
+      <c r="C161" s="6">
+        <v>14124.25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B162" s="6">
+        <v>991.5</v>
+      </c>
+      <c r="C162" s="6">
+        <v>7129.25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B163" s="6">
+        <v>1404.6666666666667</v>
+      </c>
+      <c r="C163" s="6">
+        <v>7855.75</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B164" s="6">
+        <v>1403.3</v>
+      </c>
+      <c r="C164" s="6">
+        <v>9581</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B165" s="6">
+        <v>1055.7777777777778</v>
+      </c>
+      <c r="C165" s="6">
+        <v>5040.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B166" s="6">
+        <v>762.18181818181813</v>
+      </c>
+      <c r="C166" s="6">
+        <v>6345.75</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B167" s="6">
+        <v>1688.7777777777778</v>
+      </c>
+      <c r="C167" s="6">
+        <v>7240.25</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B168" s="6">
+        <v>1497</v>
+      </c>
+      <c r="C168" s="6">
+        <v>7744</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B169" s="6">
+        <v>802.90909090909088</v>
+      </c>
+      <c r="C169" s="6">
+        <v>6793</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B170" s="6">
+        <v>830.88888888888891</v>
+      </c>
+      <c r="C170" s="6">
+        <v>4233.75</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B171" s="6">
+        <v>690.66666666666663</v>
+      </c>
+      <c r="C171" s="6">
+        <v>5661.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B172" s="6">
+        <v>1196.7777777777778</v>
+      </c>
+      <c r="C172" s="6">
+        <v>7239.25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B173" s="6">
+        <v>672.75</v>
+      </c>
+      <c r="C173" s="6">
+        <v>2983.75</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B174" s="6">
+        <v>1632.1111111111111</v>
+      </c>
+      <c r="C174" s="6">
+        <v>7304.25</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B175" s="6">
+        <v>824</v>
+      </c>
+      <c r="C175" s="6">
+        <v>5514.25</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B176" s="6">
+        <v>555.79999999999995</v>
+      </c>
+      <c r="C176" s="6">
+        <v>4144.25</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B177" s="6">
+        <v>522.4</v>
+      </c>
+      <c r="C177" s="6">
+        <v>4229.25</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B178" s="6">
+        <v>611.27272727272725</v>
+      </c>
+      <c r="C178" s="6">
+        <v>4524.25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B179" s="6">
+        <v>772.6</v>
+      </c>
+      <c r="C179" s="6">
+        <v>5275.75</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B180" s="6">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="C180" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B181" s="6">
+        <v>1766.4444444444443</v>
+      </c>
+      <c r="C181" s="6">
+        <v>7858.25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B182" s="6">
+        <v>489.72727272727275</v>
+      </c>
+      <c r="C182" s="6">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B183" s="6">
+        <v>711.9</v>
+      </c>
+      <c r="C183" s="6">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B184" s="6">
+        <v>1203.2222222222222</v>
+      </c>
+      <c r="C184" s="6">
+        <v>5065.75</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="5" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B185" s="6">
+        <v>1213.125</v>
+      </c>
+      <c r="C185" s="6">
+        <v>5825.25</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B186" s="6">
+        <v>738.66666666666663</v>
+      </c>
+      <c r="C186" s="6">
+        <v>4576</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B187" s="6">
+        <v>1324.8181818181818</v>
+      </c>
+      <c r="C187" s="6">
+        <v>7748.75</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B188" s="6">
+        <v>543.63636363636363</v>
+      </c>
+      <c r="C188" s="6">
+        <v>3530.75</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="5" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B189" s="6">
+        <v>847.25</v>
+      </c>
+      <c r="C189" s="6">
+        <v>5193</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B190" s="6">
+        <v>472.5</v>
+      </c>
+      <c r="C190" s="6">
+        <v>3281.75</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B191" s="6">
+        <v>569.1</v>
+      </c>
+      <c r="C191" s="6">
+        <v>4065.25</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="5" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B192" s="6">
+        <v>689.63636363636363</v>
+      </c>
+      <c r="C192" s="6">
+        <v>4918.5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B193" s="6">
+        <v>428.5</v>
+      </c>
+      <c r="C193" s="6">
+        <v>2481.75</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="5" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B194" s="6">
+        <v>1428.4</v>
+      </c>
+      <c r="C194" s="6">
+        <v>7309.25</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B195" s="6">
+        <v>728.33333333333337</v>
+      </c>
+      <c r="C195" s="6">
+        <v>3970</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="5" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B196" s="6">
+        <v>677</v>
+      </c>
+      <c r="C196" s="6">
+        <v>4086.5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="5" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B197" s="6">
+        <v>410.8</v>
+      </c>
+      <c r="C197" s="6">
+        <v>2410.25</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="5" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B198" s="6">
+        <v>781.7</v>
+      </c>
+      <c r="C198" s="6">
+        <v>4147.75</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B199" s="6">
+        <v>687.90909090909088</v>
+      </c>
+      <c r="C199" s="6">
+        <v>4463</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B200" s="6">
+        <v>586.70000000000005</v>
+      </c>
+      <c r="C200" s="6">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B201" s="6">
+        <v>1043</v>
+      </c>
+      <c r="C201" s="6">
+        <v>5106.75</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B202" s="6">
+        <v>790.27272727272725</v>
+      </c>
+      <c r="C202" s="6">
+        <v>5103.5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B203" s="6">
+        <v>1234.625</v>
+      </c>
+      <c r="C203" s="6">
+        <v>5400.5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="5" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B204" s="6">
+        <v>1135.7777777777778</v>
+      </c>
+      <c r="C204" s="6">
+        <v>6042</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B205" s="6">
+        <v>442.7</v>
+      </c>
+      <c r="C205" s="6">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B206" s="6">
+        <v>856.1</v>
+      </c>
+      <c r="C206" s="6">
+        <v>6662</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B207" s="6">
+        <v>1133.7777777777778</v>
+      </c>
+      <c r="C207" s="6">
+        <v>6452</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B208" s="6">
+        <v>940.88888888888891</v>
+      </c>
+      <c r="C208" s="6">
+        <v>4531.5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B209" s="6">
+        <v>1092.5555555555557</v>
+      </c>
+      <c r="C209" s="6">
+        <v>5228.75</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="5" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B210" s="6">
+        <v>1012.1111111111111</v>
+      </c>
+      <c r="C210" s="6">
+        <v>4686</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B211" s="6">
+        <v>597.69230769230774</v>
+      </c>
+      <c r="C211" s="6">
+        <v>4299.75</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B212" s="6">
+        <v>1297.3</v>
+      </c>
+      <c r="C212" s="6">
+        <v>7408.25</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B213" s="6">
+        <v>1046.5999999999999</v>
+      </c>
+      <c r="C213" s="6">
+        <v>5870.5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B214" s="6">
+        <v>936.5</v>
+      </c>
+      <c r="C214" s="6">
+        <v>6124.25</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B215" s="6">
+        <v>894.88888888888891</v>
+      </c>
+      <c r="C215" s="6">
+        <v>4994.25</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="5" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B216" s="6">
+        <v>962.88888888888891</v>
+      </c>
+      <c r="C216" s="6">
+        <v>5441.5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="5" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B217" s="6">
+        <v>798.7</v>
+      </c>
+      <c r="C217" s="6">
+        <v>7048.25</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="5" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B218" s="6">
+        <v>431.125</v>
+      </c>
+      <c r="C218" s="6">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="5" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B219" s="6">
+        <v>747.4545454545455</v>
+      </c>
+      <c r="C219" s="6">
+        <v>4509</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B220" s="6">
+        <v>425.18181818181819</v>
+      </c>
+      <c r="C220" s="6">
+        <v>3037.25</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B221" s="6">
+        <v>760.11111111111109</v>
+      </c>
+      <c r="C221" s="6">
+        <v>4201.25</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B222" s="6">
+        <v>828.09090909090912</v>
+      </c>
+      <c r="C222" s="6">
+        <v>5027.75</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="5" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B223" s="6">
+        <v>513.375</v>
+      </c>
+      <c r="C223" s="6">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="5" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B224" s="6">
+        <v>510.88888888888891</v>
+      </c>
+      <c r="C224" s="6">
+        <v>3101.75</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="5" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B225" s="6">
+        <v>556.88888888888891</v>
+      </c>
+      <c r="C225" s="6">
+        <v>3448.25</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B226" s="6">
+        <v>381.5</v>
+      </c>
+      <c r="C226" s="6">
+        <v>1924.5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="5" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B227" s="6">
+        <v>537.25</v>
+      </c>
+      <c r="C227" s="6">
+        <v>2784.5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B228" s="6">
+        <v>1180.5454545454545</v>
+      </c>
+      <c r="C228" s="6">
+        <v>7383.5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B229" s="6">
+        <v>1574.7</v>
+      </c>
+      <c r="C229" s="6">
+        <v>7994.25</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="5" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B230" s="6">
+        <v>645.09090909090912</v>
+      </c>
+      <c r="C230" s="6">
+        <v>5689</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B231" s="6">
+        <v>437.6</v>
+      </c>
+      <c r="C231" s="6">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B232" s="6">
+        <v>1438.8181818181818</v>
+      </c>
+      <c r="C232" s="6">
+        <v>9074.5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B233" s="6">
+        <v>509.5</v>
+      </c>
+      <c r="C233" s="6">
+        <v>2858.75</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B234" s="6">
+        <v>1409.375</v>
+      </c>
+      <c r="C234" s="6">
+        <v>5935.75</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B235" s="6">
+        <v>538.1</v>
+      </c>
+      <c r="C235" s="6">
+        <v>3553.25</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B236" s="6">
+        <v>1219.5</v>
+      </c>
+      <c r="C236" s="6">
+        <v>5966</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B237" s="6">
+        <v>762.44444444444446</v>
+      </c>
+      <c r="C237" s="6">
+        <v>5548.75</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B238" s="6">
+        <v>1281.5999999999999</v>
+      </c>
+      <c r="C238" s="6">
+        <v>7163.75</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="5" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B239" s="6">
+        <v>1229.7272727272727</v>
+      </c>
+      <c r="C239" s="6">
+        <v>8656.75</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="5" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B240" s="6">
+        <v>1009.0833333333334</v>
+      </c>
+      <c r="C240" s="6">
+        <v>7840.75</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="5" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B241" s="6">
+        <v>797.4545454545455</v>
+      </c>
+      <c r="C241" s="6">
+        <v>4593</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B242" s="6">
+        <v>974.1</v>
+      </c>
+      <c r="C242" s="6">
+        <v>6037</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B243" s="6">
+        <v>1010</v>
+      </c>
+      <c r="C243" s="6">
+        <v>6263</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="5" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B244" s="6">
+        <v>1504.8888888888889</v>
+      </c>
+      <c r="C244" s="6">
+        <v>7938.25</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B245" s="6">
+        <v>1729.6666666666667</v>
+      </c>
+      <c r="C245" s="6">
+        <v>8005.75</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B246" s="6">
+        <v>856.625</v>
+      </c>
+      <c r="C246" s="6">
+        <v>4326.5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B247" s="6">
+        <v>899.8</v>
+      </c>
+      <c r="C247" s="6">
+        <v>6198.75</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B248" s="6">
+        <v>1461.3333333333333</v>
+      </c>
+      <c r="C248" s="6">
+        <v>6313</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B249" s="6">
+        <v>1121.625</v>
+      </c>
+      <c r="C249" s="6">
+        <v>5334.5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="5" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B250" s="6">
+        <v>949</v>
+      </c>
+      <c r="C250" s="6">
+        <v>5642.25</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B251" s="6">
+        <v>331.77777777777777</v>
+      </c>
+      <c r="C251" s="6">
+        <v>1463.75</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B252" s="6">
+        <v>875.4</v>
+      </c>
+      <c r="C252" s="6">
+        <v>4970</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B253" s="6">
+        <v>819.83333333333337</v>
+      </c>
+      <c r="C253" s="6">
+        <v>6820.75</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B254" s="6">
+        <v>461.7</v>
+      </c>
+      <c r="C254" s="6">
+        <v>3705.75</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="5" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B255" s="6">
+        <v>1454.7777777777778</v>
+      </c>
+      <c r="C255" s="6">
+        <v>6699</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="5" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B256" s="6">
+        <v>952.88888888888891</v>
+      </c>
+      <c r="C256" s="6">
+        <v>5102.75</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="5" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B257" s="6">
+        <v>261.375</v>
+      </c>
+      <c r="C257" s="6">
+        <v>1024.25</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B258" s="6">
+        <v>1316.5555555555557</v>
+      </c>
+      <c r="C258" s="6">
+        <v>6293</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B259" s="6">
+        <v>819.9</v>
+      </c>
+      <c r="C259" s="6">
+        <v>4895</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="5" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B260" s="6">
+        <v>758.3</v>
+      </c>
+      <c r="C260" s="6">
+        <v>4070.75</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="5" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B261" s="6">
+        <v>1456</v>
+      </c>
+      <c r="C261" s="6">
+        <v>6912.5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="5" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B262" s="6">
+        <v>466.71428571428572</v>
+      </c>
+      <c r="C262" s="6">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="5" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B263" s="6">
+        <v>752.88888888888891</v>
+      </c>
+      <c r="C263" s="6">
+        <v>5820.75</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="5" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B264" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="C264" s="6">
+        <v>14.25</v>
       </c>
     </row>
   </sheetData>
